--- a/summary_tracking.xlsx
+++ b/summary_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AE78"/>
+  <dimension ref="A1:AH78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -513,6 +513,21 @@
           <t>dist_trav_15min_body_out</t>
         </is>
       </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_20min_body_out</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_25min_body_out</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>dist_trav_30min_body_out</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2">
@@ -608,6 +623,15 @@
       <c r="AE2">
         <v>0</v>
       </c>
+      <c r="AF2">
+        <v>0</v>
+      </c>
+      <c r="AG2">
+        <v>0</v>
+      </c>
+      <c r="AH2">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3">
@@ -703,6 +727,15 @@
       <c r="AE3">
         <v>0</v>
       </c>
+      <c r="AF3">
+        <v>0</v>
+      </c>
+      <c r="AG3">
+        <v>0</v>
+      </c>
+      <c r="AH3">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4">
@@ -798,6 +831,15 @@
       <c r="AE4">
         <v>23.1612218944</v>
       </c>
+      <c r="AF4">
+        <v>29.065045753</v>
+      </c>
+      <c r="AG4">
+        <v>43.707970517</v>
+      </c>
+      <c r="AH4">
+        <v>53.959036928</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5">
@@ -893,6 +935,15 @@
       <c r="AE5">
         <v>37.7508218761</v>
       </c>
+      <c r="AF5">
+        <v>51.8091856353</v>
+      </c>
+      <c r="AG5">
+        <v>0</v>
+      </c>
+      <c r="AH5">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6">
@@ -988,6 +1039,15 @@
       <c r="AE6">
         <v>51.2659130981</v>
       </c>
+      <c r="AF6">
+        <v>0</v>
+      </c>
+      <c r="AG6">
+        <v>0</v>
+      </c>
+      <c r="AH6">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7">
@@ -1083,6 +1143,15 @@
       <c r="AE7">
         <v>0</v>
       </c>
+      <c r="AF7">
+        <v>0</v>
+      </c>
+      <c r="AG7">
+        <v>0</v>
+      </c>
+      <c r="AH7">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8">
@@ -1178,6 +1247,15 @@
       <c r="AE8">
         <v>0</v>
       </c>
+      <c r="AF8">
+        <v>0</v>
+      </c>
+      <c r="AG8">
+        <v>0</v>
+      </c>
+      <c r="AH8">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9">
@@ -1273,6 +1351,15 @@
       <c r="AE9">
         <v>0</v>
       </c>
+      <c r="AF9">
+        <v>0</v>
+      </c>
+      <c r="AG9">
+        <v>0</v>
+      </c>
+      <c r="AH9">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10">
@@ -1368,6 +1455,15 @@
       <c r="AE10">
         <v>76.996396233</v>
       </c>
+      <c r="AF10">
+        <v>97.496614224</v>
+      </c>
+      <c r="AG10">
+        <v>116.082207546</v>
+      </c>
+      <c r="AH10">
+        <v>134.850822292</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11">
@@ -1463,6 +1559,15 @@
       <c r="AE11">
         <v>0</v>
       </c>
+      <c r="AF11">
+        <v>0</v>
+      </c>
+      <c r="AG11">
+        <v>0</v>
+      </c>
+      <c r="AH11">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12">
@@ -1558,6 +1663,15 @@
       <c r="AE12">
         <v>0</v>
       </c>
+      <c r="AF12">
+        <v>0</v>
+      </c>
+      <c r="AG12">
+        <v>0</v>
+      </c>
+      <c r="AH12">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13">
@@ -1653,6 +1767,15 @@
       <c r="AE13">
         <v>38.5110019221</v>
       </c>
+      <c r="AF13">
+        <v>55.8808590596</v>
+      </c>
+      <c r="AG13">
+        <v>69.97903018229999</v>
+      </c>
+      <c r="AH13">
+        <v>87.1682587289</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14">
@@ -1748,6 +1871,15 @@
       <c r="AE14">
         <v>0</v>
       </c>
+      <c r="AF14">
+        <v>0</v>
+      </c>
+      <c r="AG14">
+        <v>0</v>
+      </c>
+      <c r="AH14">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15">
@@ -1843,6 +1975,15 @@
       <c r="AE15">
         <v>0</v>
       </c>
+      <c r="AF15">
+        <v>0</v>
+      </c>
+      <c r="AG15">
+        <v>0</v>
+      </c>
+      <c r="AH15">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16">
@@ -1938,6 +2079,15 @@
       <c r="AE16">
         <v>0</v>
       </c>
+      <c r="AF16">
+        <v>0</v>
+      </c>
+      <c r="AG16">
+        <v>0</v>
+      </c>
+      <c r="AH16">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17">
@@ -2033,6 +2183,15 @@
       <c r="AE17">
         <v>49.7084271884</v>
       </c>
+      <c r="AF17">
+        <v>71.51811290969999</v>
+      </c>
+      <c r="AG17">
+        <v>83.4898792445</v>
+      </c>
+      <c r="AH17">
+        <v>94.83043631629999</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18">
@@ -2128,6 +2287,15 @@
       <c r="AE18">
         <v>60.545914894</v>
       </c>
+      <c r="AF18">
+        <v>74.51979790576</v>
+      </c>
+      <c r="AG18">
+        <v>86.63974060347</v>
+      </c>
+      <c r="AH18">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19">
@@ -2223,6 +2391,15 @@
       <c r="AE19">
         <v>0</v>
       </c>
+      <c r="AF19">
+        <v>0</v>
+      </c>
+      <c r="AG19">
+        <v>0</v>
+      </c>
+      <c r="AH19">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20">
@@ -2318,6 +2495,15 @@
       <c r="AE20">
         <v>0</v>
       </c>
+      <c r="AF20">
+        <v>0</v>
+      </c>
+      <c r="AG20">
+        <v>0</v>
+      </c>
+      <c r="AH20">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21">
@@ -2413,6 +2599,15 @@
       <c r="AE21">
         <v>0</v>
       </c>
+      <c r="AF21">
+        <v>0</v>
+      </c>
+      <c r="AG21">
+        <v>0</v>
+      </c>
+      <c r="AH21">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22">
@@ -2508,6 +2703,15 @@
       <c r="AE22">
         <v>46.765308828</v>
       </c>
+      <c r="AF22">
+        <v>60.851160999</v>
+      </c>
+      <c r="AG22">
+        <v>75.42470776499999</v>
+      </c>
+      <c r="AH22">
+        <v>85.755232096</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23">
@@ -2603,6 +2807,15 @@
       <c r="AE23">
         <v>88.28189068</v>
       </c>
+      <c r="AF23">
+        <v>113.053870372</v>
+      </c>
+      <c r="AG23">
+        <v>136.9123724667</v>
+      </c>
+      <c r="AH23">
+        <v>156.0485786097</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24">
@@ -2698,6 +2911,15 @@
       <c r="AE24">
         <v>59.18477003</v>
       </c>
+      <c r="AF24">
+        <v>75.196236946</v>
+      </c>
+      <c r="AG24">
+        <v>89.062112793</v>
+      </c>
+      <c r="AH24">
+        <v>106.651700849</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25">
@@ -2793,6 +3015,15 @@
       <c r="AE25">
         <v>0</v>
       </c>
+      <c r="AF25">
+        <v>0</v>
+      </c>
+      <c r="AG25">
+        <v>0</v>
+      </c>
+      <c r="AH25">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26">
@@ -2888,6 +3119,15 @@
       <c r="AE26">
         <v>0</v>
       </c>
+      <c r="AF26">
+        <v>0</v>
+      </c>
+      <c r="AG26">
+        <v>0</v>
+      </c>
+      <c r="AH26">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27">
@@ -2983,6 +3223,15 @@
       <c r="AE27">
         <v>0</v>
       </c>
+      <c r="AF27">
+        <v>0</v>
+      </c>
+      <c r="AG27">
+        <v>0</v>
+      </c>
+      <c r="AH27">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28">
@@ -3078,6 +3327,15 @@
       <c r="AE28">
         <v>59.452279021</v>
       </c>
+      <c r="AF28">
+        <v>75.513032749</v>
+      </c>
+      <c r="AG28">
+        <v>94.486585324</v>
+      </c>
+      <c r="AH28">
+        <v>115.689266338</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29">
@@ -3173,6 +3431,15 @@
       <c r="AE29">
         <v>26.3823350634</v>
       </c>
+      <c r="AF29">
+        <v>43.7300336234</v>
+      </c>
+      <c r="AG29">
+        <v>68.1845941214</v>
+      </c>
+      <c r="AH29">
+        <v>85.9006444444</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30">
@@ -3268,6 +3535,15 @@
       <c r="AE30">
         <v>43.1434960101</v>
       </c>
+      <c r="AF30">
+        <v>57.8923168888</v>
+      </c>
+      <c r="AG30">
+        <v>79.8039617264</v>
+      </c>
+      <c r="AH30">
+        <v>97.59974628339999</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31">
@@ -3363,6 +3639,15 @@
       <c r="AE31">
         <v>60.0486597332</v>
       </c>
+      <c r="AF31">
+        <v>80.48688252620001</v>
+      </c>
+      <c r="AG31">
+        <v>81.5736840917</v>
+      </c>
+      <c r="AH31">
+        <v>83.6186979527</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32">
@@ -3458,6 +3743,15 @@
       <c r="AE32">
         <v>59.797433178</v>
       </c>
+      <c r="AF32">
+        <v>81.55335022200001</v>
+      </c>
+      <c r="AG32">
+        <v>93.657725305</v>
+      </c>
+      <c r="AH32">
+        <v>109.372537696</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33">
@@ -3553,6 +3847,15 @@
       <c r="AE33">
         <v>0</v>
       </c>
+      <c r="AF33">
+        <v>0</v>
+      </c>
+      <c r="AG33">
+        <v>0</v>
+      </c>
+      <c r="AH33">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34">
@@ -3648,6 +3951,15 @@
       <c r="AE34">
         <v>81.866519662</v>
       </c>
+      <c r="AF34">
+        <v>106.71652432</v>
+      </c>
+      <c r="AG34">
+        <v>129.559830121</v>
+      </c>
+      <c r="AH34">
+        <v>155.295083402</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35">
@@ -3743,6 +4055,15 @@
       <c r="AE35">
         <v>35.148505659</v>
       </c>
+      <c r="AF35">
+        <v>0</v>
+      </c>
+      <c r="AG35">
+        <v>0</v>
+      </c>
+      <c r="AH35">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36">
@@ -3838,6 +4159,15 @@
       <c r="AE36">
         <v>86.61321055400001</v>
       </c>
+      <c r="AF36">
+        <v>117.346722634</v>
+      </c>
+      <c r="AG36">
+        <v>134.538752376</v>
+      </c>
+      <c r="AH36">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37">
@@ -3933,6 +4263,15 @@
       <c r="AE37">
         <v>0</v>
       </c>
+      <c r="AF37">
+        <v>0</v>
+      </c>
+      <c r="AG37">
+        <v>0</v>
+      </c>
+      <c r="AH37">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38">
@@ -4028,6 +4367,15 @@
       <c r="AE38">
         <v>60.573625189</v>
       </c>
+      <c r="AF38">
+        <v>82.65475698100001</v>
+      </c>
+      <c r="AG38">
+        <v>107.271065678</v>
+      </c>
+      <c r="AH38">
+        <v>130.592298752</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39">
@@ -4123,6 +4471,15 @@
       <c r="AE39">
         <v>68.43206845820001</v>
       </c>
+      <c r="AF39">
+        <v>91.5006471005</v>
+      </c>
+      <c r="AG39">
+        <v>109.0869068761</v>
+      </c>
+      <c r="AH39">
+        <v>127.5684101063</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40">
@@ -4218,6 +4575,15 @@
       <c r="AE40">
         <v>47.956995273</v>
       </c>
+      <c r="AF40">
+        <v>55.375485867</v>
+      </c>
+      <c r="AG40">
+        <v>55.375485867</v>
+      </c>
+      <c r="AH40">
+        <v>55.375485867</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41">
@@ -4313,6 +4679,15 @@
       <c r="AE41">
         <v>0</v>
       </c>
+      <c r="AF41">
+        <v>0</v>
+      </c>
+      <c r="AG41">
+        <v>0</v>
+      </c>
+      <c r="AH41">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42">
@@ -4408,6 +4783,15 @@
       <c r="AE42">
         <v>60.5111875448</v>
       </c>
+      <c r="AF42">
+        <v>79.102341307</v>
+      </c>
+      <c r="AG42">
+        <v>105.3188281953</v>
+      </c>
+      <c r="AH42">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43">
@@ -4503,6 +4887,15 @@
       <c r="AE43">
         <v>0</v>
       </c>
+      <c r="AF43">
+        <v>0</v>
+      </c>
+      <c r="AG43">
+        <v>0</v>
+      </c>
+      <c r="AH43">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44">
@@ -4598,6 +4991,15 @@
       <c r="AE44">
         <v>55.461370928</v>
       </c>
+      <c r="AF44">
+        <v>71.281038159</v>
+      </c>
+      <c r="AG44">
+        <v>88.412876766</v>
+      </c>
+      <c r="AH44">
+        <v>103.163733472</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45">
@@ -4693,6 +5095,15 @@
       <c r="AE45">
         <v>36.861188311</v>
       </c>
+      <c r="AF45">
+        <v>52.705811749</v>
+      </c>
+      <c r="AG45">
+        <v>63.016966618</v>
+      </c>
+      <c r="AH45">
+        <v>73.402168129</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46">
@@ -4788,6 +5199,15 @@
       <c r="AE46">
         <v>43.202783916</v>
       </c>
+      <c r="AF46">
+        <v>51.872209149</v>
+      </c>
+      <c r="AG46">
+        <v>66.26112639500001</v>
+      </c>
+      <c r="AH46">
+        <v>80.42873317900001</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47">
@@ -4883,6 +5303,15 @@
       <c r="AE47">
         <v>55.654138764</v>
       </c>
+      <c r="AF47">
+        <v>75.556626194</v>
+      </c>
+      <c r="AG47">
+        <v>94.40515643099999</v>
+      </c>
+      <c r="AH47">
+        <v>109.044053422</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48">
@@ -4978,6 +5407,15 @@
       <c r="AE48">
         <v>77.401083298</v>
       </c>
+      <c r="AF48">
+        <v>97.624565797</v>
+      </c>
+      <c r="AG48">
+        <v>113.303162893</v>
+      </c>
+      <c r="AH48">
+        <v>137.560560446</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49">
@@ -5073,6 +5511,15 @@
       <c r="AE49">
         <v>0</v>
       </c>
+      <c r="AF49">
+        <v>0</v>
+      </c>
+      <c r="AG49">
+        <v>0</v>
+      </c>
+      <c r="AH49">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50">
@@ -5168,6 +5615,15 @@
       <c r="AE50">
         <v>57.250328895</v>
       </c>
+      <c r="AF50">
+        <v>72.61480394500001</v>
+      </c>
+      <c r="AG50">
+        <v>0</v>
+      </c>
+      <c r="AH50">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51">
@@ -5263,6 +5719,15 @@
       <c r="AE51">
         <v>56.405327607</v>
       </c>
+      <c r="AF51">
+        <v>60.252062814</v>
+      </c>
+      <c r="AG51">
+        <v>76.023184211</v>
+      </c>
+      <c r="AH51">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52">
@@ -5358,6 +5823,15 @@
       <c r="AE52">
         <v>64.08830491000001</v>
       </c>
+      <c r="AF52">
+        <v>83.365981737</v>
+      </c>
+      <c r="AG52">
+        <v>101.725452821</v>
+      </c>
+      <c r="AH52">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53">
@@ -5453,6 +5927,15 @@
       <c r="AE53">
         <v>49.93025029</v>
       </c>
+      <c r="AF53">
+        <v>71.552019311</v>
+      </c>
+      <c r="AG53">
+        <v>92.298918266</v>
+      </c>
+      <c r="AH53">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54">
@@ -5548,6 +6031,15 @@
       <c r="AE54">
         <v>79.99727161</v>
       </c>
+      <c r="AF54">
+        <v>93.87450332909999</v>
+      </c>
+      <c r="AG54">
+        <v>115.232602715</v>
+      </c>
+      <c r="AH54">
+        <v>128.1463967038</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55">
@@ -5643,6 +6135,15 @@
       <c r="AE55">
         <v>52.99454133</v>
       </c>
+      <c r="AF55">
+        <v>75.85890205699999</v>
+      </c>
+      <c r="AG55">
+        <v>0</v>
+      </c>
+      <c r="AH55">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56">
@@ -5738,6 +6239,15 @@
       <c r="AE56">
         <v>99.85351828</v>
       </c>
+      <c r="AF56">
+        <v>118.687446339</v>
+      </c>
+      <c r="AG56">
+        <v>135.011023018</v>
+      </c>
+      <c r="AH56">
+        <v>151.616284415</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57">
@@ -5833,6 +6343,15 @@
       <c r="AE57">
         <v>0</v>
       </c>
+      <c r="AF57">
+        <v>0</v>
+      </c>
+      <c r="AG57">
+        <v>0</v>
+      </c>
+      <c r="AH57">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58">
@@ -5928,6 +6447,15 @@
       <c r="AE58">
         <v>41.794881063</v>
       </c>
+      <c r="AF58">
+        <v>52.447994867</v>
+      </c>
+      <c r="AG58">
+        <v>0</v>
+      </c>
+      <c r="AH58">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59">
@@ -6023,6 +6551,15 @@
       <c r="AE59">
         <v>65.453929522</v>
       </c>
+      <c r="AF59">
+        <v>85.908890035</v>
+      </c>
+      <c r="AG59">
+        <v>104.010235133</v>
+      </c>
+      <c r="AH59">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60">
@@ -6118,6 +6655,15 @@
       <c r="AE60">
         <v>57.0645241494</v>
       </c>
+      <c r="AF60">
+        <v>0</v>
+      </c>
+      <c r="AG60">
+        <v>0</v>
+      </c>
+      <c r="AH60">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61">
@@ -6213,6 +6759,15 @@
       <c r="AE61">
         <v>53.364162061</v>
       </c>
+      <c r="AF61">
+        <v>0</v>
+      </c>
+      <c r="AG61">
+        <v>0</v>
+      </c>
+      <c r="AH61">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62">
@@ -6308,6 +6863,15 @@
       <c r="AE62">
         <v>64.41886128500001</v>
       </c>
+      <c r="AF62">
+        <v>85.88790569299999</v>
+      </c>
+      <c r="AG62">
+        <v>95.810562464</v>
+      </c>
+      <c r="AH62">
+        <v>99.15457831800001</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63">
@@ -6403,6 +6967,15 @@
       <c r="AE63">
         <v>55.3156272122</v>
       </c>
+      <c r="AF63">
+        <v>74.8552253232</v>
+      </c>
+      <c r="AG63">
+        <v>91.9242211235</v>
+      </c>
+      <c r="AH63">
+        <v>107.9400711688</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64">
@@ -6498,6 +7071,15 @@
       <c r="AE64">
         <v>0</v>
       </c>
+      <c r="AF64">
+        <v>0</v>
+      </c>
+      <c r="AG64">
+        <v>0</v>
+      </c>
+      <c r="AH64">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65">
@@ -6593,6 +7175,15 @@
       <c r="AE65">
         <v>40.170302651</v>
       </c>
+      <c r="AF65">
+        <v>58.623882499</v>
+      </c>
+      <c r="AG65">
+        <v>76.571656111</v>
+      </c>
+      <c r="AH65">
+        <v>93.370780098</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66">
@@ -6688,6 +7279,15 @@
       <c r="AE66">
         <v>92.529795609</v>
       </c>
+      <c r="AF66">
+        <v>0</v>
+      </c>
+      <c r="AG66">
+        <v>0</v>
+      </c>
+      <c r="AH66">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67">
@@ -6783,6 +7383,15 @@
       <c r="AE67">
         <v>54.367380646</v>
       </c>
+      <c r="AF67">
+        <v>64.94725393</v>
+      </c>
+      <c r="AG67">
+        <v>80.330597814</v>
+      </c>
+      <c r="AH67">
+        <v>94.596163937</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68">
@@ -6878,6 +7487,15 @@
       <c r="AE68">
         <v>0</v>
       </c>
+      <c r="AF68">
+        <v>0</v>
+      </c>
+      <c r="AG68">
+        <v>0</v>
+      </c>
+      <c r="AH68">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69">
@@ -6973,6 +7591,15 @@
       <c r="AE69">
         <v>95.013650626</v>
       </c>
+      <c r="AF69">
+        <v>127.480112912</v>
+      </c>
+      <c r="AG69">
+        <v>162.091526286</v>
+      </c>
+      <c r="AH69">
+        <v>194.844537196</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70">
@@ -7068,6 +7695,15 @@
       <c r="AE70">
         <v>46.5057401888</v>
       </c>
+      <c r="AF70">
+        <v>70.9797245953</v>
+      </c>
+      <c r="AG70">
+        <v>0</v>
+      </c>
+      <c r="AH70">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71">
@@ -7163,6 +7799,15 @@
       <c r="AE71">
         <v>78.1632026851</v>
       </c>
+      <c r="AF71">
+        <v>95.82696878260001</v>
+      </c>
+      <c r="AG71">
+        <v>119.295739353</v>
+      </c>
+      <c r="AH71">
+        <v>141.0301472726</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72">
@@ -7258,6 +7903,15 @@
       <c r="AE72">
         <v>0</v>
       </c>
+      <c r="AF72">
+        <v>0</v>
+      </c>
+      <c r="AG72">
+        <v>0</v>
+      </c>
+      <c r="AH72">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73">
@@ -7353,6 +8007,15 @@
       <c r="AE73">
         <v>0</v>
       </c>
+      <c r="AF73">
+        <v>0</v>
+      </c>
+      <c r="AG73">
+        <v>0</v>
+      </c>
+      <c r="AH73">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74">
@@ -7448,6 +8111,15 @@
       <c r="AE74">
         <v>86.913658161</v>
       </c>
+      <c r="AF74">
+        <v>101.916427861</v>
+      </c>
+      <c r="AG74">
+        <v>107.917648646</v>
+      </c>
+      <c r="AH74">
+        <v>127.79899625</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75">
@@ -7543,6 +8215,15 @@
       <c r="AE75">
         <v>77.9781933</v>
       </c>
+      <c r="AF75">
+        <v>101.903279745</v>
+      </c>
+      <c r="AG75">
+        <v>123.107824233</v>
+      </c>
+      <c r="AH75">
+        <v>137.905860639</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76">
@@ -7638,6 +8319,15 @@
       <c r="AE76">
         <v>0</v>
       </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77">
@@ -7733,6 +8423,15 @@
       <c r="AE77">
         <v>0</v>
       </c>
+      <c r="AF77">
+        <v>0</v>
+      </c>
+      <c r="AG77">
+        <v>0</v>
+      </c>
+      <c r="AH77">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78">
@@ -7827,6 +8526,15 @@
       </c>
       <c r="AE78">
         <v>80.57376613700001</v>
+      </c>
+      <c r="AF78">
+        <v>106.924648905</v>
+      </c>
+      <c r="AG78">
+        <v>138.208306918</v>
+      </c>
+      <c r="AH78">
+        <v>158.930296279</v>
       </c>
     </row>
   </sheetData>

--- a/summary_tracking.xlsx
+++ b/summary_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH78"/>
+  <dimension ref="A1:AH75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,97 +947,97 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>14681</v>
+        <v>12054</v>
       </c>
       <c r="B6">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="C6">
-        <v>38</v>
+        <v>79</v>
       </c>
       <c r="D6">
-        <v>59</v>
+        <v>124</v>
       </c>
       <c r="E6">
-        <v>163</v>
+        <v>37</v>
       </c>
       <c r="F6">
-        <v>267</v>
+        <v>879</v>
       </c>
       <c r="G6">
-        <v>151</v>
+        <v>80</v>
       </c>
       <c r="H6">
-        <v>239</v>
+        <v>94</v>
       </c>
       <c r="I6">
-        <v>299</v>
+        <v>109</v>
       </c>
       <c r="J6">
-        <v>1681</v>
+        <v>1189</v>
       </c>
       <c r="K6">
-        <v>1781</v>
+        <v>1581</v>
       </c>
       <c r="L6">
-        <v>229</v>
+        <v>853</v>
       </c>
       <c r="M6">
-        <v>126</v>
+        <v>177</v>
       </c>
       <c r="N6">
-        <v>278</v>
+        <v>159</v>
       </c>
       <c r="O6">
-        <v>305</v>
+        <v>153</v>
       </c>
       <c r="P6">
-        <v>281</v>
+        <v>77</v>
       </c>
       <c r="Q6">
-        <v>1.102092503940935</v>
+        <v>0.9352446111799859</v>
       </c>
       <c r="R6">
-        <v>0.315983278195242</v>
+        <v>0.1649412178745595</v>
       </c>
       <c r="S6">
-        <v>682</v>
+        <v>531</v>
       </c>
       <c r="T6">
-        <v>152</v>
+        <v>8</v>
       </c>
       <c r="U6">
-        <v>54</v>
+        <v>134</v>
       </c>
       <c r="V6">
-        <v>282</v>
+        <v>746</v>
       </c>
       <c r="W6">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X6">
-        <v>146</v>
+        <v>34</v>
       </c>
       <c r="Y6">
-        <v>0.02202991838653333</v>
+        <v>0.01855599074310567</v>
       </c>
       <c r="Z6">
-        <v>0.08405118257507331</v>
+        <v>0.1026148635216572</v>
       </c>
       <c r="AA6">
-        <v>66.0897551596</v>
+        <v>55.667972229317</v>
       </c>
       <c r="AB6">
-        <v>57.3229065162</v>
+        <v>54.48849253</v>
       </c>
       <c r="AC6">
-        <v>17.6573046452</v>
+        <v>24.715965426</v>
       </c>
       <c r="AD6">
-        <v>37.2234773939</v>
+        <v>51.07043798</v>
       </c>
       <c r="AE6">
-        <v>51.2659130981</v>
+        <v>0</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1051,94 +1051,94 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>12054</v>
+        <v>14682</v>
       </c>
       <c r="B7">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C7">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="D7">
-        <v>124</v>
+        <v>0</v>
       </c>
       <c r="E7">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>879</v>
+        <v>0</v>
       </c>
       <c r="G7">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="H7">
-        <v>94</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>1189</v>
+        <v>3000</v>
       </c>
       <c r="K7">
-        <v>1581</v>
+        <v>3000</v>
       </c>
       <c r="L7">
-        <v>853</v>
+        <v>0</v>
       </c>
       <c r="M7">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="N7">
-        <v>159</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="P7">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.9352446111799859</v>
+        <v>0</v>
       </c>
       <c r="R7">
-        <v>0.1649412178745595</v>
+        <v>0</v>
       </c>
       <c r="S7">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="T7">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="U7">
-        <v>134</v>
+        <v>0</v>
       </c>
       <c r="V7">
-        <v>746</v>
+        <v>0</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>34</v>
+        <v>0</v>
       </c>
       <c r="Y7">
-        <v>0.01855599074310567</v>
+        <v>0</v>
       </c>
       <c r="Z7">
-        <v>0.1026148635216572</v>
+        <v>0</v>
       </c>
       <c r="AA7">
-        <v>55.667972229317</v>
+        <v>0</v>
       </c>
       <c r="AB7">
-        <v>54.48849253</v>
+        <v>0</v>
       </c>
       <c r="AC7">
-        <v>24.715965426</v>
+        <v>0</v>
       </c>
       <c r="AD7">
-        <v>51.07043798</v>
+        <v>0</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14682</v>
+        <v>14799</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1259,215 +1259,215 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>14799</v>
+        <v>14797</v>
       </c>
       <c r="B9">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D9">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E9">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F9">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="I9">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J9">
-        <v>3000</v>
+        <v>691</v>
       </c>
       <c r="K9">
-        <v>3000</v>
+        <v>915</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="M9">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="Q9">
-        <v>0</v>
+        <v>1.037476939242398</v>
       </c>
       <c r="R9">
-        <v>0</v>
+        <v>0.2922231395836931</v>
       </c>
       <c r="S9">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="T9">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="U9">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V9">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="W9">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X9">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y9">
-        <v>0</v>
+        <v>0.04987388722416667</v>
       </c>
       <c r="Z9">
-        <v>0</v>
+        <v>0.09127822522297298</v>
       </c>
       <c r="AA9">
-        <v>0</v>
+        <v>149.6216616725</v>
       </c>
       <c r="AB9">
-        <v>0</v>
+        <v>135.09177333</v>
       </c>
       <c r="AC9">
-        <v>0</v>
+        <v>19.148443469</v>
       </c>
       <c r="AD9">
-        <v>0</v>
+        <v>48.797402428</v>
       </c>
       <c r="AE9">
-        <v>0</v>
+        <v>76.996396233</v>
       </c>
       <c r="AF9">
-        <v>0</v>
+        <v>97.496614224</v>
       </c>
       <c r="AG9">
-        <v>0</v>
+        <v>116.082207546</v>
       </c>
       <c r="AH9">
-        <v>0</v>
+        <v>134.850822292</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>14797</v>
+        <v>14681</v>
       </c>
       <c r="B10">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C10">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D10">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E10">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="G10">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H10">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>691</v>
+        <v>3000</v>
       </c>
       <c r="K10">
-        <v>915</v>
+        <v>3000</v>
       </c>
       <c r="L10">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="N10">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="P10">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="Q10">
-        <v>1.037476939242398</v>
+        <v>0</v>
       </c>
       <c r="R10">
-        <v>0.2922231395836931</v>
+        <v>0</v>
       </c>
       <c r="S10">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="T10">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="U10">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V10">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="W10">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X10">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Y10">
-        <v>0.04987388722416667</v>
+        <v>0</v>
       </c>
       <c r="Z10">
-        <v>0.09127822522297298</v>
+        <v>0</v>
       </c>
       <c r="AA10">
-        <v>149.6216616725</v>
+        <v>0</v>
       </c>
       <c r="AB10">
-        <v>135.09177333</v>
+        <v>0</v>
       </c>
       <c r="AC10">
-        <v>19.148443469</v>
+        <v>0</v>
       </c>
       <c r="AD10">
-        <v>48.797402428</v>
+        <v>0</v>
       </c>
       <c r="AE10">
-        <v>76.996396233</v>
+        <v>0</v>
       </c>
       <c r="AF10">
-        <v>97.496614224</v>
+        <v>0</v>
       </c>
       <c r="AG10">
-        <v>116.082207546</v>
+        <v>0</v>
       </c>
       <c r="AH10">
-        <v>134.850822292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14681</v>
+        <v>14682</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1571,215 +1571,215 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>14682</v>
+        <v>14684</v>
       </c>
       <c r="B12">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D12">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E12">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F12">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="I12">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="J12">
-        <v>3000</v>
+        <v>376</v>
       </c>
       <c r="K12">
-        <v>3000</v>
+        <v>474</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M12">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="Q12">
-        <v>0</v>
+        <v>1.116595863685669</v>
       </c>
       <c r="R12">
-        <v>0</v>
+        <v>0.3470361553206651</v>
       </c>
       <c r="S12">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="T12">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="U12">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="V12">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="W12">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X12">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Y12">
-        <v>0</v>
+        <v>0.03973758312196667</v>
       </c>
       <c r="Z12">
-        <v>0</v>
+        <v>0.06383915623527397</v>
       </c>
       <c r="AA12">
-        <v>0</v>
+        <v>119.2127493659</v>
       </c>
       <c r="AB12">
-        <v>0</v>
+        <v>111.8462017242</v>
       </c>
       <c r="AC12">
-        <v>0</v>
+        <v>15.9122183813</v>
       </c>
       <c r="AD12">
-        <v>0</v>
+        <v>27.9718832362</v>
       </c>
       <c r="AE12">
-        <v>0</v>
+        <v>38.5110019221</v>
       </c>
       <c r="AF12">
-        <v>0</v>
+        <v>55.8808590596</v>
       </c>
       <c r="AG12">
-        <v>0</v>
+        <v>69.97903018229999</v>
       </c>
       <c r="AH12">
-        <v>0</v>
+        <v>87.1682587289</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>14684</v>
+        <v>12058</v>
       </c>
       <c r="B13">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C13">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D13">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E13">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G13">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H13">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>376</v>
+        <v>3000</v>
       </c>
       <c r="K13">
-        <v>474</v>
+        <v>3000</v>
       </c>
       <c r="L13">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="M13">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="N13">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="P13">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="Q13">
-        <v>1.116595863685669</v>
+        <v>0</v>
       </c>
       <c r="R13">
-        <v>0.3470361553206651</v>
+        <v>0</v>
       </c>
       <c r="S13">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="T13">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="U13">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="V13">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="W13">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X13">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Y13">
-        <v>0.03973758312196667</v>
+        <v>0</v>
       </c>
       <c r="Z13">
-        <v>0.06383915623527397</v>
+        <v>0</v>
       </c>
       <c r="AA13">
-        <v>119.2127493659</v>
+        <v>0</v>
       </c>
       <c r="AB13">
-        <v>111.8462017242</v>
+        <v>0</v>
       </c>
       <c r="AC13">
-        <v>15.9122183813</v>
+        <v>0</v>
       </c>
       <c r="AD13">
-        <v>27.9718832362</v>
+        <v>0</v>
       </c>
       <c r="AE13">
-        <v>38.5110019221</v>
+        <v>0</v>
       </c>
       <c r="AF13">
-        <v>55.8808590596</v>
+        <v>0</v>
       </c>
       <c r="AG13">
-        <v>69.97903018229999</v>
+        <v>0</v>
       </c>
       <c r="AH13">
-        <v>87.1682587289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>12058</v>
+        <v>12056</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>12056</v>
+        <v>12055</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1987,311 +1987,311 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>12055</v>
+        <v>12057</v>
       </c>
       <c r="B16">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C16">
-        <v>0</v>
+        <v>127</v>
       </c>
       <c r="D16">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="E16">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="F16">
-        <v>0</v>
+        <v>347</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="I16">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="J16">
-        <v>3000</v>
+        <v>227</v>
       </c>
       <c r="K16">
-        <v>3000</v>
+        <v>517</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>283</v>
       </c>
       <c r="M16">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>621</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>696</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>583</v>
       </c>
       <c r="Q16">
-        <v>0</v>
+        <v>1.10621807626476</v>
       </c>
       <c r="R16">
-        <v>0</v>
+        <v>0.3630431683813935</v>
       </c>
       <c r="S16">
-        <v>0</v>
+        <v>1484</v>
       </c>
       <c r="T16">
-        <v>0</v>
+        <v>319</v>
       </c>
       <c r="U16">
-        <v>0</v>
+        <v>344</v>
       </c>
       <c r="V16">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="W16">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="X16">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="Y16">
-        <v>0</v>
+        <v>0.04969057011976667</v>
       </c>
       <c r="Z16">
-        <v>0</v>
+        <v>0.09021519322291105</v>
       </c>
       <c r="AA16">
-        <v>0</v>
+        <v>149.0717103593</v>
       </c>
       <c r="AB16">
-        <v>0</v>
+        <v>133.8793467428</v>
       </c>
       <c r="AC16">
-        <v>0</v>
+        <v>10.6611105383</v>
       </c>
       <c r="AD16">
-        <v>0</v>
+        <v>40.309157579</v>
       </c>
       <c r="AE16">
-        <v>0</v>
+        <v>49.7084271884</v>
       </c>
       <c r="AF16">
-        <v>0</v>
+        <v>71.51811290969999</v>
       </c>
       <c r="AG16">
-        <v>0</v>
+        <v>83.4898792445</v>
       </c>
       <c r="AH16">
-        <v>0</v>
+        <v>94.83043631629999</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>12057</v>
+        <v>12059</v>
       </c>
       <c r="B17">
-        <v>30</v>
+        <v>6</v>
       </c>
       <c r="C17">
-        <v>127</v>
+        <v>64</v>
       </c>
       <c r="D17">
-        <v>153</v>
+        <v>131</v>
       </c>
       <c r="E17">
-        <v>308</v>
+        <v>115</v>
       </c>
       <c r="F17">
-        <v>347</v>
+        <v>651</v>
       </c>
       <c r="G17">
-        <v>490</v>
+        <v>184</v>
       </c>
       <c r="H17">
-        <v>516</v>
+        <v>255</v>
       </c>
       <c r="I17">
-        <v>512</v>
+        <v>426</v>
       </c>
       <c r="J17">
-        <v>227</v>
+        <v>1048</v>
       </c>
       <c r="K17">
-        <v>517</v>
+        <v>1168</v>
       </c>
       <c r="L17">
-        <v>283</v>
+        <v>548</v>
       </c>
       <c r="M17">
-        <v>300</v>
+        <v>273</v>
       </c>
       <c r="N17">
-        <v>621</v>
+        <v>291</v>
       </c>
       <c r="O17">
-        <v>696</v>
+        <v>530</v>
       </c>
       <c r="P17">
-        <v>583</v>
+        <v>190</v>
       </c>
       <c r="Q17">
-        <v>1.10621807626476</v>
+        <v>1.033355691111354</v>
       </c>
       <c r="R17">
-        <v>0.3630431683813935</v>
+        <v>0.2698083121064411</v>
       </c>
       <c r="S17">
-        <v>1484</v>
+        <v>1136</v>
       </c>
       <c r="T17">
-        <v>319</v>
+        <v>114</v>
       </c>
       <c r="U17">
-        <v>344</v>
+        <v>72</v>
       </c>
       <c r="V17">
-        <v>230</v>
+        <v>452</v>
       </c>
       <c r="W17">
-        <v>106</v>
+        <v>58</v>
       </c>
       <c r="X17">
-        <v>146</v>
+        <v>226</v>
       </c>
       <c r="Y17">
-        <v>0.04969057011976667</v>
+        <v>0.03179896245454</v>
       </c>
       <c r="Z17">
-        <v>0.09021519322291105</v>
+        <v>0.07820318318661972</v>
       </c>
       <c r="AA17">
-        <v>149.0717103593</v>
+        <v>95.39688736362</v>
       </c>
       <c r="AB17">
-        <v>133.8793467428</v>
+        <v>88.8388161</v>
       </c>
       <c r="AC17">
-        <v>10.6611105383</v>
+        <v>22.449514058</v>
       </c>
       <c r="AD17">
-        <v>40.309157579</v>
+        <v>43.646731293</v>
       </c>
       <c r="AE17">
-        <v>49.7084271884</v>
+        <v>60.545914894</v>
       </c>
       <c r="AF17">
-        <v>71.51811290969999</v>
+        <v>74.51979790576</v>
       </c>
       <c r="AG17">
-        <v>83.4898792445</v>
+        <v>86.63974060347</v>
       </c>
       <c r="AH17">
-        <v>94.83043631629999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>12059</v>
+        <v>12062</v>
       </c>
       <c r="B18">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="C18">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="D18">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="E18">
-        <v>115</v>
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>651</v>
+        <v>0</v>
       </c>
       <c r="G18">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="H18">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>426</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>1048</v>
+        <v>3000</v>
       </c>
       <c r="K18">
-        <v>1168</v>
+        <v>3000</v>
       </c>
       <c r="L18">
-        <v>548</v>
+        <v>0</v>
       </c>
       <c r="M18">
-        <v>273</v>
+        <v>0</v>
       </c>
       <c r="N18">
-        <v>291</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>530</v>
+        <v>0</v>
       </c>
       <c r="P18">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="Q18">
-        <v>1.033355691111354</v>
+        <v>0</v>
       </c>
       <c r="R18">
-        <v>0.2698083121064411</v>
+        <v>0</v>
       </c>
       <c r="S18">
-        <v>1136</v>
+        <v>0</v>
       </c>
       <c r="T18">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="U18">
-        <v>72</v>
+        <v>0</v>
       </c>
       <c r="V18">
-        <v>452</v>
+        <v>0</v>
       </c>
       <c r="W18">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="X18">
-        <v>226</v>
+        <v>0</v>
       </c>
       <c r="Y18">
-        <v>0.03179896245454</v>
+        <v>0</v>
       </c>
       <c r="Z18">
-        <v>0.07820318318661972</v>
+        <v>0</v>
       </c>
       <c r="AA18">
-        <v>95.39688736362</v>
+        <v>0</v>
       </c>
       <c r="AB18">
-        <v>88.8388161</v>
+        <v>0</v>
       </c>
       <c r="AC18">
-        <v>22.449514058</v>
+        <v>0</v>
       </c>
       <c r="AD18">
-        <v>43.646731293</v>
+        <v>0</v>
       </c>
       <c r="AE18">
-        <v>60.545914894</v>
+        <v>0</v>
       </c>
       <c r="AF18">
-        <v>74.51979790576</v>
+        <v>0</v>
       </c>
       <c r="AG18">
-        <v>86.63974060347</v>
+        <v>0</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2299,70 +2299,70 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>12062</v>
+        <v>202301</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F19">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>41</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="I19">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="J19">
-        <v>3000</v>
+        <v>2315</v>
       </c>
       <c r="K19">
-        <v>3000</v>
+        <v>2322</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="M19">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>33</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>73</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Q19">
-        <v>0</v>
+        <v>0.9424864119321534</v>
       </c>
       <c r="R19">
-        <v>0</v>
+        <v>0.1286438680973451</v>
       </c>
       <c r="S19">
-        <v>0</v>
+        <v>182</v>
       </c>
       <c r="T19">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="U19">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="V19">
-        <v>0</v>
+        <v>489</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0</v>
+        <v>0.006298776476466</v>
       </c>
       <c r="Z19">
-        <v>0</v>
+        <v>0.1008517731318681</v>
       </c>
       <c r="AA19">
-        <v>0</v>
+        <v>18.896329429398</v>
       </c>
       <c r="AB19">
-        <v>0</v>
+        <v>18.35502271</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2403,1455 +2403,1455 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>12060</v>
+        <v>202304</v>
       </c>
       <c r="B20">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C20">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="D20">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="E20">
-        <v>23</v>
+        <v>32</v>
       </c>
       <c r="F20">
-        <v>208</v>
+        <v>922</v>
       </c>
       <c r="G20">
-        <v>55</v>
+        <v>157</v>
       </c>
       <c r="H20">
-        <v>224</v>
+        <v>686</v>
       </c>
       <c r="I20">
-        <v>67</v>
+        <v>589</v>
       </c>
       <c r="J20">
-        <v>2346</v>
+        <v>370</v>
       </c>
       <c r="K20">
-        <v>2370</v>
+        <v>521</v>
       </c>
       <c r="L20">
-        <v>163</v>
+        <v>781</v>
       </c>
       <c r="M20">
-        <v>198</v>
+        <v>643</v>
       </c>
       <c r="N20">
-        <v>130</v>
+        <v>260</v>
       </c>
       <c r="O20">
-        <v>54</v>
+        <v>272</v>
       </c>
       <c r="P20">
-        <v>85</v>
+        <v>523</v>
       </c>
       <c r="Q20">
-        <v>1.078310120822857</v>
+        <v>1.068555488103832</v>
       </c>
       <c r="R20">
-        <v>0.3309949946126984</v>
+        <v>0.3137184279669221</v>
       </c>
       <c r="S20">
-        <v>432</v>
+        <v>1274</v>
       </c>
       <c r="T20">
-        <v>112</v>
+        <v>264</v>
       </c>
       <c r="U20">
-        <v>8</v>
+        <v>242</v>
       </c>
       <c r="V20">
-        <v>75</v>
+        <v>458</v>
       </c>
       <c r="W20">
-        <v>3</v>
+        <v>241</v>
       </c>
       <c r="X20">
-        <v>0</v>
+        <v>32</v>
       </c>
       <c r="Y20">
-        <v>0.01888580163034333</v>
+        <v>0.03460135118249633</v>
       </c>
       <c r="Z20">
-        <v>0.1115840989351852</v>
+        <v>0.0734865181711146</v>
       </c>
       <c r="AA20">
-        <v>56.65740489103</v>
+        <v>103.804053547489</v>
       </c>
       <c r="AB20">
-        <v>48.20433074</v>
+        <v>93.62182414999999</v>
       </c>
       <c r="AC20">
-        <v>29.827890139</v>
+        <v>17.914237928</v>
       </c>
       <c r="AD20">
-        <v>0</v>
+        <v>31.961370833</v>
       </c>
       <c r="AE20">
-        <v>0</v>
+        <v>46.765308828</v>
       </c>
       <c r="AF20">
-        <v>0</v>
+        <v>60.851160999</v>
       </c>
       <c r="AG20">
-        <v>0</v>
+        <v>75.42470776499999</v>
       </c>
       <c r="AH20">
-        <v>0</v>
+        <v>85.755232096</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>202301</v>
+        <v>202302</v>
       </c>
       <c r="B21">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="C21">
-        <v>3</v>
+        <v>176</v>
       </c>
       <c r="D21">
-        <v>0</v>
+        <v>129</v>
       </c>
       <c r="E21">
-        <v>2</v>
+        <v>228</v>
       </c>
       <c r="F21">
-        <v>537</v>
+        <v>730</v>
       </c>
       <c r="G21">
-        <v>41</v>
+        <v>269</v>
       </c>
       <c r="H21">
-        <v>30</v>
+        <v>484</v>
       </c>
       <c r="I21">
-        <v>65</v>
+        <v>388</v>
       </c>
       <c r="J21">
-        <v>2315</v>
+        <v>330</v>
       </c>
       <c r="K21">
-        <v>2322</v>
+        <v>559</v>
       </c>
       <c r="L21">
-        <v>531</v>
+        <v>677</v>
       </c>
       <c r="M21">
-        <v>18</v>
+        <v>314</v>
       </c>
       <c r="N21">
-        <v>33</v>
+        <v>541</v>
       </c>
       <c r="O21">
-        <v>73</v>
+        <v>583</v>
       </c>
       <c r="P21">
-        <v>23</v>
+        <v>326</v>
       </c>
       <c r="Q21">
-        <v>0.9424864119321534</v>
+        <v>1.035130606723228</v>
       </c>
       <c r="R21">
-        <v>0.1286438680973451</v>
+        <v>0.2807054798672675</v>
       </c>
       <c r="S21">
-        <v>182</v>
+        <v>1304</v>
       </c>
       <c r="T21">
-        <v>2</v>
+        <v>344</v>
       </c>
       <c r="U21">
-        <v>5</v>
+        <v>162</v>
       </c>
       <c r="V21">
-        <v>489</v>
+        <v>544</v>
       </c>
       <c r="W21">
-        <v>0</v>
+        <v>87</v>
       </c>
       <c r="X21">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="Y21">
-        <v>0.006298776476466</v>
+        <v>0.06091576107936666</v>
       </c>
       <c r="Z21">
-        <v>0.1008517731318681</v>
+        <v>0.1209888493098159</v>
       </c>
       <c r="AA21">
-        <v>18.896329429398</v>
+        <v>182.7472832381</v>
       </c>
       <c r="AB21">
-        <v>18.35502271</v>
+        <v>157.7694595</v>
       </c>
       <c r="AC21">
-        <v>0</v>
+        <v>36.241901116</v>
       </c>
       <c r="AD21">
-        <v>0</v>
+        <v>59.270143417</v>
       </c>
       <c r="AE21">
-        <v>0</v>
+        <v>88.28189068</v>
       </c>
       <c r="AF21">
-        <v>0</v>
+        <v>113.053870372</v>
       </c>
       <c r="AG21">
-        <v>0</v>
+        <v>136.9123724667</v>
       </c>
       <c r="AH21">
-        <v>0</v>
+        <v>156.0485786097</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>202304</v>
+        <v>202303</v>
       </c>
       <c r="B22">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="C22">
-        <v>32</v>
+        <v>131</v>
       </c>
       <c r="D22">
-        <v>58</v>
+        <v>187</v>
       </c>
       <c r="E22">
-        <v>32</v>
+        <v>117</v>
       </c>
       <c r="F22">
-        <v>922</v>
+        <v>456</v>
       </c>
       <c r="G22">
-        <v>157</v>
+        <v>375</v>
       </c>
       <c r="H22">
-        <v>686</v>
+        <v>620</v>
       </c>
       <c r="I22">
-        <v>589</v>
+        <v>713</v>
       </c>
       <c r="J22">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="K22">
-        <v>521</v>
+        <v>371</v>
       </c>
       <c r="L22">
-        <v>781</v>
+        <v>383</v>
       </c>
       <c r="M22">
-        <v>643</v>
+        <v>424</v>
       </c>
       <c r="N22">
-        <v>260</v>
+        <v>755</v>
       </c>
       <c r="O22">
-        <v>272</v>
+        <v>594</v>
       </c>
       <c r="P22">
-        <v>523</v>
+        <v>473</v>
       </c>
       <c r="Q22">
-        <v>1.068555488103832</v>
+        <v>1.107975380604717</v>
       </c>
       <c r="R22">
-        <v>0.3137184279669221</v>
+        <v>0.341349137164321</v>
       </c>
       <c r="S22">
-        <v>1274</v>
+        <v>1775</v>
       </c>
       <c r="T22">
-        <v>264</v>
+        <v>368</v>
       </c>
       <c r="U22">
-        <v>242</v>
+        <v>196</v>
       </c>
       <c r="V22">
-        <v>458</v>
+        <v>256</v>
       </c>
       <c r="W22">
-        <v>241</v>
+        <v>34</v>
       </c>
       <c r="X22">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="Y22">
-        <v>0.03460135118249633</v>
+        <v>0.05058494949169667</v>
       </c>
       <c r="Z22">
-        <v>0.0734865181711146</v>
+        <v>0.0753077102028169</v>
       </c>
       <c r="AA22">
-        <v>103.804053547489</v>
+        <v>151.75484847509</v>
       </c>
       <c r="AB22">
-        <v>93.62182414999999</v>
+        <v>133.67118561</v>
       </c>
       <c r="AC22">
-        <v>17.914237928</v>
+        <v>19.015464144</v>
       </c>
       <c r="AD22">
-        <v>31.961370833</v>
+        <v>39.349311326</v>
       </c>
       <c r="AE22">
-        <v>46.765308828</v>
+        <v>59.18477003</v>
       </c>
       <c r="AF22">
-        <v>60.851160999</v>
+        <v>75.196236946</v>
       </c>
       <c r="AG22">
-        <v>75.42470776499999</v>
+        <v>89.062112793</v>
       </c>
       <c r="AH22">
-        <v>85.755232096</v>
+        <v>106.651700849</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>202302</v>
+        <v>202301</v>
       </c>
       <c r="B23">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="C23">
-        <v>176</v>
+        <v>0</v>
       </c>
       <c r="D23">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="E23">
-        <v>228</v>
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>730</v>
+        <v>0</v>
       </c>
       <c r="G23">
-        <v>269</v>
+        <v>0</v>
       </c>
       <c r="H23">
-        <v>484</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>388</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>330</v>
+        <v>3000</v>
       </c>
       <c r="K23">
-        <v>559</v>
+        <v>3000</v>
       </c>
       <c r="L23">
-        <v>677</v>
+        <v>0</v>
       </c>
       <c r="M23">
-        <v>314</v>
+        <v>0</v>
       </c>
       <c r="N23">
-        <v>541</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="P23">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="Q23">
-        <v>1.035130606723228</v>
+        <v>0</v>
       </c>
       <c r="R23">
-        <v>0.2807054798672675</v>
+        <v>0</v>
       </c>
       <c r="S23">
-        <v>1304</v>
+        <v>0</v>
       </c>
       <c r="T23">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="U23">
-        <v>162</v>
+        <v>0</v>
       </c>
       <c r="V23">
-        <v>544</v>
+        <v>0</v>
       </c>
       <c r="W23">
-        <v>87</v>
+        <v>0</v>
       </c>
       <c r="X23">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="Y23">
-        <v>0.06091576107936666</v>
+        <v>0</v>
       </c>
       <c r="Z23">
-        <v>0.1209888493098159</v>
+        <v>0</v>
       </c>
       <c r="AA23">
-        <v>182.7472832381</v>
+        <v>0</v>
       </c>
       <c r="AB23">
-        <v>157.7694595</v>
+        <v>0</v>
       </c>
       <c r="AC23">
-        <v>36.241901116</v>
+        <v>0</v>
       </c>
       <c r="AD23">
-        <v>59.270143417</v>
+        <v>0</v>
       </c>
       <c r="AE23">
-        <v>88.28189068</v>
+        <v>0</v>
       </c>
       <c r="AF23">
-        <v>113.053870372</v>
+        <v>0</v>
       </c>
       <c r="AG23">
-        <v>136.9123724667</v>
+        <v>0</v>
       </c>
       <c r="AH23">
-        <v>156.0485786097</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>202303</v>
+        <v>12063</v>
       </c>
       <c r="B24">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>131</v>
+        <v>0</v>
       </c>
       <c r="D24">
-        <v>187</v>
+        <v>13</v>
       </c>
       <c r="E24">
-        <v>117</v>
+        <v>33</v>
       </c>
       <c r="F24">
-        <v>456</v>
+        <v>353</v>
       </c>
       <c r="G24">
-        <v>375</v>
+        <v>48</v>
       </c>
       <c r="H24">
-        <v>620</v>
+        <v>266</v>
       </c>
       <c r="I24">
-        <v>713</v>
+        <v>107</v>
       </c>
       <c r="J24">
-        <v>196</v>
+        <v>2132</v>
       </c>
       <c r="K24">
-        <v>371</v>
+        <v>2180</v>
       </c>
       <c r="L24">
-        <v>383</v>
+        <v>324</v>
       </c>
       <c r="M24">
-        <v>424</v>
+        <v>109</v>
       </c>
       <c r="N24">
-        <v>755</v>
+        <v>212</v>
       </c>
       <c r="O24">
-        <v>594</v>
+        <v>116</v>
       </c>
       <c r="P24">
-        <v>473</v>
+        <v>59</v>
       </c>
       <c r="Q24">
-        <v>1.107975380604717</v>
+        <v>1.094100069468537</v>
       </c>
       <c r="R24">
-        <v>0.341349137164321</v>
+        <v>0.2634516539585366</v>
       </c>
       <c r="S24">
-        <v>1775</v>
+        <v>379</v>
       </c>
       <c r="T24">
-        <v>368</v>
+        <v>77</v>
       </c>
       <c r="U24">
-        <v>196</v>
+        <v>45</v>
       </c>
       <c r="V24">
-        <v>256</v>
+        <v>279</v>
       </c>
       <c r="W24">
-        <v>34</v>
+        <v>40</v>
       </c>
       <c r="X24">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="Y24">
-        <v>0.05058494949169667</v>
+        <v>0.01230424893122</v>
       </c>
       <c r="Z24">
-        <v>0.0753077102028169</v>
+        <v>0.08538280807387863</v>
       </c>
       <c r="AA24">
-        <v>151.75484847509</v>
+        <v>36.91274679366</v>
       </c>
       <c r="AB24">
-        <v>133.67118561</v>
+        <v>32.36008426</v>
       </c>
       <c r="AC24">
-        <v>19.015464144</v>
+        <v>21.150624871</v>
       </c>
       <c r="AD24">
-        <v>39.349311326</v>
+        <v>0</v>
       </c>
       <c r="AE24">
-        <v>59.18477003</v>
+        <v>0</v>
       </c>
       <c r="AF24">
-        <v>75.196236946</v>
+        <v>0</v>
       </c>
       <c r="AG24">
-        <v>89.062112793</v>
+        <v>0</v>
       </c>
       <c r="AH24">
-        <v>106.651700849</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>202301</v>
+        <v>14798</v>
       </c>
       <c r="B25">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C25">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="D25">
-        <v>0</v>
+        <v>123</v>
       </c>
       <c r="E25">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="F25">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>485</v>
       </c>
       <c r="I25">
-        <v>0</v>
+        <v>529</v>
       </c>
       <c r="J25">
-        <v>3000</v>
+        <v>594</v>
       </c>
       <c r="K25">
-        <v>3000</v>
+        <v>851</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>433</v>
       </c>
       <c r="M25">
-        <v>0</v>
+        <v>295</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>543</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>602</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>276</v>
       </c>
       <c r="Q25">
-        <v>0</v>
+        <v>1.107746585759237</v>
       </c>
       <c r="R25">
-        <v>0</v>
+        <v>0.3361976791312238</v>
       </c>
       <c r="S25">
-        <v>0</v>
+        <v>1487</v>
       </c>
       <c r="T25">
-        <v>0</v>
+        <v>240</v>
       </c>
       <c r="U25">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="V25">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="W25">
-        <v>0</v>
+        <v>178</v>
       </c>
       <c r="X25">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y25">
-        <v>0</v>
+        <v>0.046657472676631</v>
       </c>
       <c r="Z25">
-        <v>0</v>
+        <v>0.08547346254203093</v>
       </c>
       <c r="AA25">
-        <v>0</v>
+        <v>139.972418029893</v>
       </c>
       <c r="AB25">
-        <v>0</v>
+        <v>127.0990388</v>
       </c>
       <c r="AC25">
-        <v>0</v>
+        <v>21.466465365</v>
       </c>
       <c r="AD25">
-        <v>0</v>
+        <v>38.749649537</v>
       </c>
       <c r="AE25">
-        <v>0</v>
+        <v>59.452279021</v>
       </c>
       <c r="AF25">
-        <v>0</v>
+        <v>75.513032749</v>
       </c>
       <c r="AG25">
-        <v>0</v>
+        <v>94.486585324</v>
       </c>
       <c r="AH25">
-        <v>0</v>
+        <v>115.689266338</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>12061</v>
+        <v>14734</v>
       </c>
       <c r="B26">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="C26">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="D26">
-        <v>0</v>
+        <v>362</v>
       </c>
       <c r="E26">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="F26">
-        <v>0</v>
+        <v>549</v>
       </c>
       <c r="G26">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>330</v>
       </c>
       <c r="I26">
-        <v>0</v>
+        <v>261</v>
       </c>
       <c r="J26">
-        <v>3000</v>
+        <v>711</v>
       </c>
       <c r="K26">
-        <v>3000</v>
+        <v>961</v>
       </c>
       <c r="L26">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="M26">
-        <v>0</v>
+        <v>524</v>
       </c>
       <c r="N26">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="O26">
-        <v>0</v>
+        <v>492</v>
       </c>
       <c r="P26">
-        <v>0</v>
+        <v>236</v>
       </c>
       <c r="Q26">
-        <v>0</v>
+        <v>1.005933516975772</v>
       </c>
       <c r="R26">
-        <v>0</v>
+        <v>0.2267858071608632</v>
       </c>
       <c r="S26">
-        <v>0</v>
+        <v>999</v>
       </c>
       <c r="T26">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="U26">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="V26">
-        <v>0</v>
+        <v>744</v>
       </c>
       <c r="W26">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="X26">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="Y26">
-        <v>0</v>
+        <v>0.032849229367696</v>
       </c>
       <c r="Z26">
-        <v>0</v>
+        <v>0.08851557205205206</v>
       </c>
       <c r="AA26">
-        <v>0</v>
+        <v>98.54768810308801</v>
       </c>
       <c r="AB26">
-        <v>0</v>
+        <v>88.42705648</v>
       </c>
       <c r="AC26">
-        <v>0</v>
+        <v>2.15114823634</v>
       </c>
       <c r="AD26">
-        <v>0</v>
+        <v>24.94342683034</v>
       </c>
       <c r="AE26">
-        <v>0</v>
+        <v>26.3823350634</v>
       </c>
       <c r="AF26">
-        <v>0</v>
+        <v>43.7300336234</v>
       </c>
       <c r="AG26">
-        <v>0</v>
+        <v>68.1845941214</v>
       </c>
       <c r="AH26">
-        <v>0</v>
+        <v>85.9006444444</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>12063</v>
+        <v>14732</v>
       </c>
       <c r="B27">
-        <v>0</v>
+        <v>35</v>
       </c>
       <c r="C27">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="D27">
-        <v>13</v>
+        <v>82</v>
       </c>
       <c r="E27">
-        <v>33</v>
+        <v>161</v>
       </c>
       <c r="F27">
-        <v>353</v>
+        <v>597</v>
       </c>
       <c r="G27">
-        <v>48</v>
+        <v>197</v>
       </c>
       <c r="H27">
-        <v>266</v>
+        <v>221</v>
       </c>
       <c r="I27">
-        <v>107</v>
+        <v>505</v>
       </c>
       <c r="J27">
-        <v>2132</v>
+        <v>929</v>
       </c>
       <c r="K27">
-        <v>2180</v>
+        <v>1077</v>
       </c>
       <c r="L27">
-        <v>324</v>
+        <v>542</v>
       </c>
       <c r="M27">
-        <v>109</v>
+        <v>179</v>
       </c>
       <c r="N27">
-        <v>212</v>
+        <v>320</v>
       </c>
       <c r="O27">
-        <v>116</v>
+        <v>496</v>
       </c>
       <c r="P27">
+        <v>386</v>
+      </c>
+      <c r="Q27">
+        <v>1.045923193693292</v>
+      </c>
+      <c r="R27">
+        <v>0.2834665773296932</v>
+      </c>
+      <c r="S27">
+        <v>1090</v>
+      </c>
+      <c r="T27">
+        <v>146</v>
+      </c>
+      <c r="U27">
+        <v>213</v>
+      </c>
+      <c r="V27">
+        <v>415</v>
+      </c>
+      <c r="W27">
         <v>59</v>
       </c>
-      <c r="Q27">
-        <v>1.094100069468537</v>
-      </c>
-      <c r="R27">
-        <v>0.2634516539585366</v>
-      </c>
-      <c r="S27">
-        <v>379</v>
-      </c>
-      <c r="T27">
-        <v>77</v>
-      </c>
-      <c r="U27">
-        <v>45</v>
-      </c>
-      <c r="V27">
-        <v>279</v>
-      </c>
-      <c r="W27">
-        <v>40</v>
-      </c>
       <c r="X27">
-        <v>31</v>
+        <v>244</v>
       </c>
       <c r="Y27">
-        <v>0.01230424893122</v>
+        <v>0.0348506564375</v>
       </c>
       <c r="Z27">
-        <v>0.08538280807387863</v>
+        <v>0.0878481388680734</v>
       </c>
       <c r="AA27">
-        <v>36.91274679366</v>
+        <v>104.5519693125</v>
       </c>
       <c r="AB27">
-        <v>32.36008426</v>
+        <v>95.75447136619999</v>
       </c>
       <c r="AC27">
-        <v>21.150624871</v>
+        <v>13.3515610168</v>
       </c>
       <c r="AD27">
-        <v>0</v>
+        <v>25.1064083775</v>
       </c>
       <c r="AE27">
-        <v>0</v>
+        <v>43.1434960101</v>
       </c>
       <c r="AF27">
-        <v>0</v>
+        <v>57.8923168888</v>
       </c>
       <c r="AG27">
-        <v>0</v>
+        <v>79.8039617264</v>
       </c>
       <c r="AH27">
-        <v>0</v>
+        <v>97.59974628339999</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>14798</v>
+        <v>14685</v>
       </c>
       <c r="B28">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="C28">
-        <v>81</v>
+        <v>34</v>
       </c>
       <c r="D28">
-        <v>123</v>
+        <v>194</v>
       </c>
       <c r="E28">
-        <v>109</v>
+        <v>518</v>
       </c>
       <c r="F28">
-        <v>485</v>
+        <v>619</v>
       </c>
       <c r="G28">
-        <v>320</v>
+        <v>189</v>
       </c>
       <c r="H28">
-        <v>485</v>
+        <v>287</v>
       </c>
       <c r="I28">
-        <v>529</v>
+        <v>666</v>
       </c>
       <c r="J28">
-        <v>594</v>
+        <v>349</v>
       </c>
       <c r="K28">
-        <v>851</v>
+        <v>483</v>
       </c>
       <c r="L28">
-        <v>433</v>
+        <v>520</v>
       </c>
       <c r="M28">
-        <v>295</v>
+        <v>200</v>
       </c>
       <c r="N28">
-        <v>543</v>
+        <v>446</v>
       </c>
       <c r="O28">
-        <v>602</v>
+        <v>956</v>
       </c>
       <c r="P28">
-        <v>276</v>
+        <v>395</v>
       </c>
       <c r="Q28">
-        <v>1.107746585759237</v>
+        <v>1.068914426546762</v>
       </c>
       <c r="R28">
-        <v>0.3361976791312238</v>
+        <v>0.2483752823929281</v>
       </c>
       <c r="S28">
-        <v>1487</v>
+        <v>1040</v>
       </c>
       <c r="T28">
-        <v>240</v>
+        <v>222</v>
       </c>
       <c r="U28">
-        <v>74</v>
+        <v>309</v>
       </c>
       <c r="V28">
-        <v>170</v>
+        <v>860</v>
       </c>
       <c r="W28">
-        <v>178</v>
+        <v>86</v>
       </c>
       <c r="X28">
-        <v>23</v>
+        <v>516</v>
       </c>
       <c r="Y28">
-        <v>0.046657472676631</v>
+        <v>0.0382530006805</v>
       </c>
       <c r="Z28">
-        <v>0.08547346254203093</v>
+        <v>0.09687377751663462</v>
       </c>
       <c r="AA28">
-        <v>139.972418029893</v>
+        <v>114.7590020415</v>
       </c>
       <c r="AB28">
-        <v>127.0990388</v>
+        <v>100.7487286173</v>
       </c>
       <c r="AC28">
-        <v>21.466465365</v>
+        <v>28.046001174</v>
       </c>
       <c r="AD28">
-        <v>38.749649537</v>
+        <v>37.9506268871</v>
       </c>
       <c r="AE28">
-        <v>59.452279021</v>
+        <v>60.0486597332</v>
       </c>
       <c r="AF28">
-        <v>75.513032749</v>
+        <v>80.48688252620001</v>
       </c>
       <c r="AG28">
-        <v>94.486585324</v>
+        <v>81.5736840917</v>
       </c>
       <c r="AH28">
-        <v>115.689266338</v>
+        <v>83.6186979527</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>14734</v>
+        <v>12065</v>
       </c>
       <c r="B29">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C29">
-        <v>86</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>362</v>
+        <v>219</v>
       </c>
       <c r="E29">
-        <v>271</v>
+        <v>66</v>
       </c>
       <c r="F29">
-        <v>549</v>
+        <v>928</v>
       </c>
       <c r="G29">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H29">
-        <v>330</v>
+        <v>592</v>
       </c>
       <c r="I29">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="J29">
-        <v>711</v>
+        <v>507</v>
       </c>
       <c r="K29">
-        <v>961</v>
+        <v>706</v>
       </c>
       <c r="L29">
-        <v>447</v>
+        <v>773</v>
       </c>
       <c r="M29">
-        <v>524</v>
+        <v>742</v>
       </c>
       <c r="N29">
-        <v>340</v>
+        <v>303</v>
       </c>
       <c r="O29">
-        <v>492</v>
+        <v>265</v>
       </c>
       <c r="P29">
-        <v>236</v>
+        <v>211</v>
       </c>
       <c r="Q29">
-        <v>1.005933516975772</v>
+        <v>1.05825244367367</v>
       </c>
       <c r="R29">
-        <v>0.2267858071608632</v>
+        <v>0.2881861227877071</v>
       </c>
       <c r="S29">
-        <v>999</v>
+        <v>1134</v>
       </c>
       <c r="T29">
-        <v>170</v>
+        <v>504</v>
       </c>
       <c r="U29">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="V29">
-        <v>744</v>
+        <v>140</v>
       </c>
       <c r="W29">
-        <v>9</v>
+        <v>406</v>
       </c>
       <c r="X29">
-        <v>520</v>
+        <v>103</v>
       </c>
       <c r="Y29">
-        <v>0.032849229367696</v>
+        <v>0.042500712179</v>
       </c>
       <c r="Z29">
-        <v>0.08851557205205206</v>
+        <v>0.0925385711622575</v>
       </c>
       <c r="AA29">
-        <v>98.54768810308801</v>
+        <v>127.502136537</v>
       </c>
       <c r="AB29">
-        <v>88.42705648</v>
+        <v>104.938739698</v>
       </c>
       <c r="AC29">
-        <v>2.15114823634</v>
+        <v>19.915678077</v>
       </c>
       <c r="AD29">
-        <v>24.94342683034</v>
+        <v>42.791417306</v>
       </c>
       <c r="AE29">
-        <v>26.3823350634</v>
+        <v>59.797433178</v>
       </c>
       <c r="AF29">
-        <v>43.7300336234</v>
+        <v>81.55335022200001</v>
       </c>
       <c r="AG29">
-        <v>68.1845941214</v>
+        <v>93.657725305</v>
       </c>
       <c r="AH29">
-        <v>85.9006444444</v>
+        <v>109.372537696</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>14732</v>
+        <v>14733</v>
       </c>
       <c r="B30">
-        <v>35</v>
+        <v>0</v>
       </c>
       <c r="C30">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="D30">
-        <v>82</v>
+        <v>0</v>
       </c>
       <c r="E30">
-        <v>161</v>
+        <v>0</v>
       </c>
       <c r="F30">
-        <v>597</v>
+        <v>0</v>
       </c>
       <c r="G30">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H30">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="I30">
-        <v>505</v>
+        <v>0</v>
       </c>
       <c r="J30">
-        <v>929</v>
+        <v>3000</v>
       </c>
       <c r="K30">
-        <v>1077</v>
+        <v>3000</v>
       </c>
       <c r="L30">
-        <v>542</v>
+        <v>0</v>
       </c>
       <c r="M30">
-        <v>179</v>
+        <v>0</v>
       </c>
       <c r="N30">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="O30">
-        <v>496</v>
+        <v>0</v>
       </c>
       <c r="P30">
-        <v>386</v>
+        <v>0</v>
       </c>
       <c r="Q30">
-        <v>1.045923193693292</v>
+        <v>0</v>
       </c>
       <c r="R30">
-        <v>0.2834665773296932</v>
+        <v>0</v>
       </c>
       <c r="S30">
-        <v>1090</v>
+        <v>0</v>
       </c>
       <c r="T30">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="U30">
-        <v>213</v>
+        <v>0</v>
       </c>
       <c r="V30">
-        <v>415</v>
+        <v>0</v>
       </c>
       <c r="W30">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="X30">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="Y30">
-        <v>0.0348506564375</v>
+        <v>0</v>
       </c>
       <c r="Z30">
-        <v>0.0878481388680734</v>
+        <v>0</v>
       </c>
       <c r="AA30">
-        <v>104.5519693125</v>
+        <v>0</v>
       </c>
       <c r="AB30">
-        <v>95.75447136619999</v>
+        <v>0</v>
       </c>
       <c r="AC30">
-        <v>13.3515610168</v>
+        <v>0</v>
       </c>
       <c r="AD30">
-        <v>25.1064083775</v>
+        <v>0</v>
       </c>
       <c r="AE30">
-        <v>43.1434960101</v>
+        <v>0</v>
       </c>
       <c r="AF30">
-        <v>57.8923168888</v>
+        <v>0</v>
       </c>
       <c r="AG30">
-        <v>79.8039617264</v>
+        <v>0</v>
       </c>
       <c r="AH30">
-        <v>97.59974628339999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>14685</v>
+        <v>14739</v>
       </c>
       <c r="B31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C31">
-        <v>34</v>
+        <v>76</v>
       </c>
       <c r="D31">
-        <v>194</v>
+        <v>93</v>
       </c>
       <c r="E31">
-        <v>518</v>
+        <v>120</v>
       </c>
       <c r="F31">
-        <v>619</v>
+        <v>1177</v>
       </c>
       <c r="G31">
-        <v>189</v>
+        <v>157</v>
       </c>
       <c r="H31">
-        <v>287</v>
+        <v>339</v>
       </c>
       <c r="I31">
-        <v>666</v>
+        <v>411</v>
       </c>
       <c r="J31">
-        <v>349</v>
+        <v>371</v>
       </c>
       <c r="K31">
-        <v>483</v>
+        <v>616</v>
       </c>
       <c r="L31">
-        <v>520</v>
+        <v>1011</v>
       </c>
       <c r="M31">
-        <v>200</v>
+        <v>408</v>
       </c>
       <c r="N31">
-        <v>446</v>
+        <v>237</v>
       </c>
       <c r="O31">
-        <v>956</v>
+        <v>351</v>
       </c>
       <c r="P31">
-        <v>395</v>
+        <v>377</v>
       </c>
       <c r="Q31">
-        <v>1.068914426546762</v>
+        <v>1.027057749965436</v>
       </c>
       <c r="R31">
-        <v>0.2483752823929281</v>
+        <v>0.268084745653943</v>
       </c>
       <c r="S31">
-        <v>1040</v>
+        <v>1384</v>
       </c>
       <c r="T31">
-        <v>222</v>
+        <v>351</v>
       </c>
       <c r="U31">
-        <v>309</v>
+        <v>59</v>
       </c>
       <c r="V31">
-        <v>860</v>
+        <v>553</v>
       </c>
       <c r="W31">
-        <v>86</v>
+        <v>37</v>
       </c>
       <c r="X31">
-        <v>516</v>
+        <v>28</v>
       </c>
       <c r="Y31">
-        <v>0.0382530006805</v>
+        <v>0.054168156858</v>
       </c>
       <c r="Z31">
-        <v>0.09687377751663462</v>
+        <v>0.1030347459140173</v>
       </c>
       <c r="AA31">
-        <v>114.7590020415</v>
+        <v>162.504470574</v>
       </c>
       <c r="AB31">
-        <v>100.7487286173</v>
+        <v>142.600088345</v>
       </c>
       <c r="AC31">
-        <v>28.046001174</v>
+        <v>29.681191683</v>
       </c>
       <c r="AD31">
-        <v>37.9506268871</v>
+        <v>56.404641206</v>
       </c>
       <c r="AE31">
-        <v>60.0486597332</v>
+        <v>81.866519662</v>
       </c>
       <c r="AF31">
-        <v>80.48688252620001</v>
+        <v>106.71652432</v>
       </c>
       <c r="AG31">
-        <v>81.5736840917</v>
+        <v>129.559830121</v>
       </c>
       <c r="AH31">
-        <v>83.6186979527</v>
+        <v>155.295083402</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>12065</v>
+        <v>11755</v>
       </c>
       <c r="B32">
-        <v>13</v>
+        <v>3</v>
       </c>
       <c r="C32">
-        <v>49</v>
+        <v>36</v>
       </c>
       <c r="D32">
-        <v>219</v>
+        <v>317</v>
       </c>
       <c r="E32">
-        <v>66</v>
+        <v>29</v>
       </c>
       <c r="F32">
-        <v>928</v>
+        <v>482</v>
       </c>
       <c r="G32">
-        <v>164</v>
+        <v>110</v>
       </c>
       <c r="H32">
-        <v>592</v>
+        <v>193</v>
       </c>
       <c r="I32">
-        <v>263</v>
+        <v>181</v>
       </c>
       <c r="J32">
-        <v>507</v>
+        <v>1531</v>
       </c>
       <c r="K32">
-        <v>706</v>
+        <v>1649</v>
       </c>
       <c r="L32">
-        <v>773</v>
+        <v>438</v>
       </c>
       <c r="M32">
-        <v>742</v>
+        <v>416</v>
       </c>
       <c r="N32">
-        <v>303</v>
+        <v>188</v>
       </c>
       <c r="O32">
-        <v>265</v>
+        <v>188</v>
       </c>
       <c r="P32">
-        <v>211</v>
+        <v>121</v>
       </c>
       <c r="Q32">
-        <v>1.05825244367367</v>
+        <v>0.9943270931566247</v>
       </c>
       <c r="R32">
-        <v>0.2881861227877071</v>
+        <v>0.2127953882871947</v>
       </c>
       <c r="S32">
-        <v>1134</v>
+        <v>694</v>
       </c>
       <c r="T32">
-        <v>504</v>
+        <v>45</v>
       </c>
       <c r="U32">
-        <v>110</v>
+        <v>79</v>
       </c>
       <c r="V32">
-        <v>140</v>
+        <v>525</v>
       </c>
       <c r="W32">
-        <v>406</v>
+        <v>8</v>
       </c>
       <c r="X32">
-        <v>103</v>
+        <v>277</v>
       </c>
       <c r="Y32">
-        <v>0.042500712179</v>
+        <v>0.017401231824</v>
       </c>
       <c r="Z32">
-        <v>0.0925385711622575</v>
+        <v>0.07086278547262248</v>
       </c>
       <c r="AA32">
-        <v>127.502136537</v>
+        <v>52.203695472</v>
       </c>
       <c r="AB32">
-        <v>104.938739698</v>
+        <v>49.178773118</v>
       </c>
       <c r="AC32">
-        <v>19.915678077</v>
+        <v>14.705897088</v>
       </c>
       <c r="AD32">
-        <v>42.791417306</v>
+        <v>16.317423111</v>
       </c>
       <c r="AE32">
-        <v>59.797433178</v>
+        <v>35.148505659</v>
       </c>
       <c r="AF32">
-        <v>81.55335022200001</v>
+        <v>0</v>
       </c>
       <c r="AG32">
-        <v>93.657725305</v>
+        <v>0</v>
       </c>
       <c r="AH32">
-        <v>109.372537696</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>14733</v>
+        <v>14731</v>
       </c>
       <c r="B33">
-        <v>0</v>
+        <v>67</v>
       </c>
       <c r="C33">
-        <v>0</v>
+        <v>208</v>
       </c>
       <c r="D33">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E33">
-        <v>0</v>
+        <v>103</v>
       </c>
       <c r="F33">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="G33">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="I33">
-        <v>0</v>
+        <v>170</v>
       </c>
       <c r="J33">
-        <v>3000</v>
+        <v>1088</v>
       </c>
       <c r="K33">
-        <v>3000</v>
+        <v>1268</v>
       </c>
       <c r="L33">
-        <v>0</v>
+        <v>724</v>
       </c>
       <c r="M33">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="N33">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>237</v>
       </c>
       <c r="P33">
-        <v>0</v>
+        <v>278</v>
       </c>
       <c r="Q33">
-        <v>0</v>
+        <v>0.9612415368990647</v>
       </c>
       <c r="R33">
-        <v>0</v>
+        <v>0.2746333598236143</v>
       </c>
       <c r="S33">
-        <v>0</v>
+        <v>1271</v>
       </c>
       <c r="T33">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="U33">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="V33">
-        <v>0</v>
+        <v>342</v>
       </c>
       <c r="W33">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="X33">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="Y33">
-        <v>0</v>
+        <v>0.04615284263965334</v>
       </c>
       <c r="Z33">
-        <v>0</v>
+        <v>0.1035015911644375</v>
       </c>
       <c r="AA33">
-        <v>0</v>
+        <v>138.45852791896</v>
       </c>
       <c r="AB33">
-        <v>0</v>
+        <v>131.55052237</v>
       </c>
       <c r="AC33">
-        <v>0</v>
+        <v>31.365570623</v>
       </c>
       <c r="AD33">
-        <v>0</v>
+        <v>56.155896495</v>
       </c>
       <c r="AE33">
-        <v>0</v>
+        <v>86.61321055400001</v>
       </c>
       <c r="AF33">
-        <v>0</v>
+        <v>117.346722634</v>
       </c>
       <c r="AG33">
-        <v>0</v>
+        <v>134.538752376</v>
       </c>
       <c r="AH33">
         <v>0</v>
@@ -3859,1663 +3859,1663 @@
     </row>
     <row r="34">
       <c r="A34">
-        <v>14739</v>
+        <v>11756</v>
       </c>
       <c r="B34">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C34">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="D34">
-        <v>93</v>
+        <v>0</v>
       </c>
       <c r="E34">
-        <v>120</v>
+        <v>0</v>
       </c>
       <c r="F34">
-        <v>1177</v>
+        <v>0</v>
       </c>
       <c r="G34">
-        <v>157</v>
+        <v>0</v>
       </c>
       <c r="H34">
-        <v>339</v>
+        <v>0</v>
       </c>
       <c r="I34">
-        <v>411</v>
+        <v>0</v>
       </c>
       <c r="J34">
-        <v>371</v>
+        <v>3000</v>
       </c>
       <c r="K34">
-        <v>616</v>
+        <v>3000</v>
       </c>
       <c r="L34">
-        <v>1011</v>
+        <v>0</v>
       </c>
       <c r="M34">
-        <v>408</v>
+        <v>0</v>
       </c>
       <c r="N34">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="O34">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="P34">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="Q34">
-        <v>1.027057749965436</v>
+        <v>0</v>
       </c>
       <c r="R34">
-        <v>0.268084745653943</v>
+        <v>0</v>
       </c>
       <c r="S34">
-        <v>1384</v>
+        <v>0</v>
       </c>
       <c r="T34">
-        <v>351</v>
+        <v>0</v>
       </c>
       <c r="U34">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="V34">
-        <v>553</v>
+        <v>0</v>
       </c>
       <c r="W34">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="X34">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="Y34">
-        <v>0.054168156858</v>
+        <v>0</v>
       </c>
       <c r="Z34">
-        <v>0.1030347459140173</v>
+        <v>0</v>
       </c>
       <c r="AA34">
-        <v>162.504470574</v>
+        <v>0</v>
       </c>
       <c r="AB34">
-        <v>142.600088345</v>
+        <v>0</v>
       </c>
       <c r="AC34">
-        <v>29.681191683</v>
+        <v>0</v>
       </c>
       <c r="AD34">
-        <v>56.404641206</v>
+        <v>0</v>
       </c>
       <c r="AE34">
-        <v>81.866519662</v>
+        <v>0</v>
       </c>
       <c r="AF34">
-        <v>106.71652432</v>
+        <v>0</v>
       </c>
       <c r="AG34">
-        <v>129.559830121</v>
+        <v>0</v>
       </c>
       <c r="AH34">
-        <v>155.295083402</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>11755</v>
+        <v>12067</v>
       </c>
       <c r="B35">
-        <v>3</v>
+        <v>47</v>
       </c>
       <c r="C35">
-        <v>36</v>
+        <v>199</v>
       </c>
       <c r="D35">
+        <v>136</v>
+      </c>
+      <c r="E35">
+        <v>332</v>
+      </c>
+      <c r="F35">
+        <v>457</v>
+      </c>
+      <c r="G35">
+        <v>353</v>
+      </c>
+      <c r="H35">
+        <v>356</v>
+      </c>
+      <c r="I35">
+        <v>650</v>
+      </c>
+      <c r="J35">
+        <v>105</v>
+      </c>
+      <c r="K35">
+        <v>470</v>
+      </c>
+      <c r="L35">
+        <v>377</v>
+      </c>
+      <c r="M35">
+        <v>318</v>
+      </c>
+      <c r="N35">
+        <v>517</v>
+      </c>
+      <c r="O35">
+        <v>916</v>
+      </c>
+      <c r="P35">
+        <v>402</v>
+      </c>
+      <c r="Q35">
+        <v>1.077236904658103</v>
+      </c>
+      <c r="R35">
+        <v>0.326150542581423</v>
+      </c>
+      <c r="S35">
+        <v>1611</v>
+      </c>
+      <c r="T35">
+        <v>445</v>
+      </c>
+      <c r="U35">
+        <v>105</v>
+      </c>
+      <c r="V35">
         <v>317</v>
       </c>
-      <c r="E35">
-        <v>29</v>
-      </c>
-      <c r="F35">
-        <v>482</v>
-      </c>
-      <c r="G35">
-        <v>110</v>
-      </c>
-      <c r="H35">
-        <v>193</v>
-      </c>
-      <c r="I35">
-        <v>181</v>
-      </c>
-      <c r="J35">
-        <v>1531</v>
-      </c>
-      <c r="K35">
-        <v>1649</v>
-      </c>
-      <c r="L35">
-        <v>438</v>
-      </c>
-      <c r="M35">
-        <v>416</v>
-      </c>
-      <c r="N35">
-        <v>188</v>
-      </c>
-      <c r="O35">
-        <v>188</v>
-      </c>
-      <c r="P35">
-        <v>121</v>
-      </c>
-      <c r="Q35">
-        <v>0.9943270931566247</v>
-      </c>
-      <c r="R35">
-        <v>0.2127953882871947</v>
-      </c>
-      <c r="S35">
-        <v>694</v>
-      </c>
-      <c r="T35">
-        <v>45</v>
-      </c>
-      <c r="U35">
-        <v>79</v>
-      </c>
-      <c r="V35">
-        <v>525</v>
-      </c>
       <c r="W35">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="X35">
-        <v>277</v>
+        <v>255</v>
       </c>
       <c r="Y35">
-        <v>0.017401231824</v>
+        <v>0.06499107722233333</v>
       </c>
       <c r="Z35">
-        <v>0.07086278547262248</v>
+        <v>0.1062482289112353</v>
       </c>
       <c r="AA35">
-        <v>52.203695472</v>
+        <v>194.973231667</v>
       </c>
       <c r="AB35">
-        <v>49.178773118</v>
+        <v>171.165896776</v>
       </c>
       <c r="AC35">
-        <v>14.705897088</v>
+        <v>23.822823375</v>
       </c>
       <c r="AD35">
-        <v>16.317423111</v>
+        <v>36.853143137</v>
       </c>
       <c r="AE35">
-        <v>35.148505659</v>
+        <v>60.573625189</v>
       </c>
       <c r="AF35">
-        <v>0</v>
+        <v>82.65475698100001</v>
       </c>
       <c r="AG35">
-        <v>0</v>
+        <v>107.271065678</v>
       </c>
       <c r="AH35">
-        <v>0</v>
+        <v>130.592298752</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>14731</v>
+        <v>12068</v>
       </c>
       <c r="B36">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="C36">
-        <v>208</v>
+        <v>74</v>
       </c>
       <c r="D36">
-        <v>124</v>
+        <v>46</v>
       </c>
       <c r="E36">
-        <v>103</v>
+        <v>64</v>
       </c>
       <c r="F36">
-        <v>788</v>
+        <v>622</v>
       </c>
       <c r="G36">
-        <v>161</v>
+        <v>257</v>
       </c>
       <c r="H36">
-        <v>111</v>
+        <v>644</v>
       </c>
       <c r="I36">
-        <v>170</v>
+        <v>842</v>
       </c>
       <c r="J36">
-        <v>1088</v>
+        <v>348</v>
       </c>
       <c r="K36">
-        <v>1268</v>
+        <v>422</v>
       </c>
       <c r="L36">
-        <v>724</v>
+        <v>471</v>
       </c>
       <c r="M36">
-        <v>193</v>
+        <v>562</v>
       </c>
       <c r="N36">
-        <v>300</v>
+        <v>374</v>
       </c>
       <c r="O36">
-        <v>237</v>
+        <v>537</v>
       </c>
       <c r="P36">
-        <v>278</v>
+        <v>634</v>
       </c>
       <c r="Q36">
-        <v>0.9612415368990647</v>
+        <v>1.149653439715206</v>
       </c>
       <c r="R36">
-        <v>0.2746333598236143</v>
+        <v>0.3920960078494957</v>
       </c>
       <c r="S36">
-        <v>1271</v>
+        <v>1418</v>
       </c>
       <c r="T36">
-        <v>109</v>
+        <v>772</v>
       </c>
       <c r="U36">
-        <v>8</v>
+        <v>184</v>
       </c>
       <c r="V36">
-        <v>342</v>
+        <v>168</v>
       </c>
       <c r="W36">
-        <v>2</v>
+        <v>36</v>
       </c>
       <c r="X36">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="Y36">
-        <v>0.04615284263965334</v>
+        <v>0.05702314289483333</v>
       </c>
       <c r="Z36">
-        <v>0.1035015911644375</v>
+        <v>0.09207060526629054</v>
       </c>
       <c r="AA36">
-        <v>138.45852791896</v>
+        <v>171.0694286845</v>
       </c>
       <c r="AB36">
-        <v>131.55052237</v>
+        <v>130.5561182676</v>
       </c>
       <c r="AC36">
-        <v>31.365570623</v>
+        <v>28.7279678165</v>
       </c>
       <c r="AD36">
-        <v>56.155896495</v>
+        <v>51.6336505173</v>
       </c>
       <c r="AE36">
-        <v>86.61321055400001</v>
+        <v>68.43206845820001</v>
       </c>
       <c r="AF36">
-        <v>117.346722634</v>
+        <v>91.5006471005</v>
       </c>
       <c r="AG36">
-        <v>134.538752376</v>
+        <v>109.0869068761</v>
       </c>
       <c r="AH36">
-        <v>0</v>
+        <v>127.5684101063</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>11756</v>
+        <v>12065</v>
       </c>
       <c r="B37">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C37">
-        <v>0</v>
+        <v>53</v>
       </c>
       <c r="D37">
-        <v>0</v>
+        <v>55</v>
       </c>
       <c r="E37">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="F37">
-        <v>0</v>
+        <v>480</v>
       </c>
       <c r="G37">
-        <v>0</v>
+        <v>298</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>244</v>
       </c>
       <c r="I37">
-        <v>0</v>
+        <v>227</v>
       </c>
       <c r="J37">
-        <v>3000</v>
+        <v>461</v>
       </c>
       <c r="K37">
-        <v>3000</v>
+        <v>1548</v>
       </c>
       <c r="L37">
-        <v>0</v>
+        <v>457</v>
       </c>
       <c r="M37">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="N37">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="O37">
-        <v>0</v>
+        <v>435</v>
       </c>
       <c r="P37">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="Q37">
-        <v>0</v>
+        <v>1.068454885659091</v>
       </c>
       <c r="R37">
-        <v>0</v>
+        <v>0.2900939295165289</v>
       </c>
       <c r="S37">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="T37">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="U37">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="V37">
-        <v>0</v>
+        <v>391</v>
       </c>
       <c r="W37">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="X37">
-        <v>0</v>
+        <v>105</v>
       </c>
       <c r="Y37">
-        <v>0</v>
+        <v>0.018841648088</v>
       </c>
       <c r="Z37">
-        <v>0</v>
+        <v>0.08271145985199241</v>
       </c>
       <c r="AA37">
-        <v>0</v>
+        <v>56.524944264</v>
       </c>
       <c r="AB37">
-        <v>0</v>
+        <v>43.588939342</v>
       </c>
       <c r="AC37">
-        <v>0</v>
+        <v>13.186941817</v>
       </c>
       <c r="AD37">
-        <v>0</v>
+        <v>31.108939664</v>
       </c>
       <c r="AE37">
-        <v>0</v>
+        <v>47.956995273</v>
       </c>
       <c r="AF37">
-        <v>0</v>
+        <v>55.375485867</v>
       </c>
       <c r="AG37">
-        <v>0</v>
+        <v>55.375485867</v>
       </c>
       <c r="AH37">
-        <v>0</v>
+        <v>55.375485867</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>12067</v>
+        <v>14733</v>
       </c>
       <c r="B38">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="C38">
-        <v>199</v>
+        <v>0</v>
       </c>
       <c r="D38">
-        <v>136</v>
+        <v>0</v>
       </c>
       <c r="E38">
-        <v>332</v>
+        <v>0</v>
       </c>
       <c r="F38">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="G38">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="H38">
-        <v>356</v>
+        <v>0</v>
       </c>
       <c r="I38">
-        <v>650</v>
+        <v>0</v>
       </c>
       <c r="J38">
-        <v>105</v>
+        <v>3000</v>
       </c>
       <c r="K38">
-        <v>470</v>
+        <v>3000</v>
       </c>
       <c r="L38">
-        <v>377</v>
+        <v>0</v>
       </c>
       <c r="M38">
-        <v>318</v>
+        <v>0</v>
       </c>
       <c r="N38">
-        <v>517</v>
+        <v>0</v>
       </c>
       <c r="O38">
-        <v>916</v>
+        <v>0</v>
       </c>
       <c r="P38">
-        <v>402</v>
+        <v>0</v>
       </c>
       <c r="Q38">
-        <v>1.077236904658103</v>
+        <v>0</v>
       </c>
       <c r="R38">
-        <v>0.326150542581423</v>
+        <v>0</v>
       </c>
       <c r="S38">
-        <v>1611</v>
+        <v>0</v>
       </c>
       <c r="T38">
-        <v>445</v>
+        <v>0</v>
       </c>
       <c r="U38">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="V38">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="W38">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="X38">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="Y38">
-        <v>0.06499107722233333</v>
+        <v>0</v>
       </c>
       <c r="Z38">
-        <v>0.1062482289112353</v>
+        <v>0</v>
       </c>
       <c r="AA38">
-        <v>194.973231667</v>
+        <v>0</v>
       </c>
       <c r="AB38">
-        <v>171.165896776</v>
+        <v>0</v>
       </c>
       <c r="AC38">
-        <v>23.822823375</v>
+        <v>0</v>
       </c>
       <c r="AD38">
-        <v>36.853143137</v>
+        <v>0</v>
       </c>
       <c r="AE38">
-        <v>60.573625189</v>
+        <v>0</v>
       </c>
       <c r="AF38">
-        <v>82.65475698100001</v>
+        <v>0</v>
       </c>
       <c r="AG38">
-        <v>107.271065678</v>
+        <v>0</v>
       </c>
       <c r="AH38">
-        <v>130.592298752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>12068</v>
+        <v>14739</v>
       </c>
       <c r="B39">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="C39">
-        <v>74</v>
+        <v>148</v>
       </c>
       <c r="D39">
-        <v>46</v>
+        <v>106</v>
       </c>
       <c r="E39">
-        <v>64</v>
+        <v>96</v>
       </c>
       <c r="F39">
-        <v>622</v>
+        <v>493</v>
       </c>
       <c r="G39">
-        <v>257</v>
+        <v>176</v>
       </c>
       <c r="H39">
-        <v>644</v>
+        <v>212</v>
       </c>
       <c r="I39">
-        <v>842</v>
+        <v>330</v>
       </c>
       <c r="J39">
-        <v>348</v>
+        <v>1262</v>
       </c>
       <c r="K39">
-        <v>422</v>
+        <v>1419</v>
       </c>
       <c r="L39">
-        <v>471</v>
+        <v>423</v>
       </c>
       <c r="M39">
-        <v>562</v>
+        <v>259</v>
       </c>
       <c r="N39">
-        <v>374</v>
+        <v>305</v>
       </c>
       <c r="O39">
-        <v>537</v>
+        <v>285</v>
       </c>
       <c r="P39">
-        <v>634</v>
+        <v>309</v>
       </c>
       <c r="Q39">
-        <v>1.149653439715206</v>
+        <v>1.045519989922454</v>
       </c>
       <c r="R39">
-        <v>0.3920960078494957</v>
+        <v>0.3241832348425047</v>
       </c>
       <c r="S39">
-        <v>1418</v>
+        <v>1064</v>
       </c>
       <c r="T39">
-        <v>772</v>
+        <v>277</v>
       </c>
       <c r="U39">
-        <v>184</v>
+        <v>121</v>
       </c>
       <c r="V39">
-        <v>168</v>
+        <v>84</v>
       </c>
       <c r="W39">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="X39">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="Y39">
-        <v>0.05702314289483333</v>
+        <v>0.0374405314243</v>
       </c>
       <c r="Z39">
-        <v>0.09207060526629054</v>
+        <v>0.0916818051299812</v>
       </c>
       <c r="AA39">
-        <v>171.0694286845</v>
+        <v>112.3215942729</v>
       </c>
       <c r="AB39">
-        <v>130.5561182676</v>
+        <v>97.5494406583</v>
       </c>
       <c r="AC39">
-        <v>28.7279678165</v>
+        <v>24.817617823</v>
       </c>
       <c r="AD39">
-        <v>51.6336505173</v>
+        <v>46.8641091858</v>
       </c>
       <c r="AE39">
-        <v>68.43206845820001</v>
+        <v>60.5111875448</v>
       </c>
       <c r="AF39">
-        <v>91.5006471005</v>
+        <v>79.102341307</v>
       </c>
       <c r="AG39">
-        <v>109.0869068761</v>
+        <v>105.3188281953</v>
       </c>
       <c r="AH39">
-        <v>127.5684101063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>12065</v>
+        <v>14675</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C40">
-        <v>53</v>
+        <v>0</v>
       </c>
       <c r="D40">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E40">
-        <v>80</v>
+        <v>0</v>
       </c>
       <c r="F40">
-        <v>480</v>
+        <v>0</v>
       </c>
       <c r="G40">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="H40">
-        <v>244</v>
+        <v>0</v>
       </c>
       <c r="I40">
-        <v>227</v>
+        <v>0</v>
       </c>
       <c r="J40">
-        <v>461</v>
+        <v>3000</v>
       </c>
       <c r="K40">
-        <v>1548</v>
+        <v>3000</v>
       </c>
       <c r="L40">
-        <v>457</v>
+        <v>0</v>
       </c>
       <c r="M40">
-        <v>52</v>
+        <v>0</v>
       </c>
       <c r="N40">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="O40">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="P40">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="Q40">
-        <v>1.068454885659091</v>
+        <v>0</v>
       </c>
       <c r="R40">
-        <v>0.2900939295165289</v>
+        <v>0</v>
       </c>
       <c r="S40">
-        <v>527</v>
+        <v>0</v>
       </c>
       <c r="T40">
-        <v>285</v>
+        <v>0</v>
       </c>
       <c r="U40">
-        <v>114</v>
+        <v>0</v>
       </c>
       <c r="V40">
-        <v>391</v>
+        <v>0</v>
       </c>
       <c r="W40">
-        <v>135</v>
+        <v>0</v>
       </c>
       <c r="X40">
-        <v>105</v>
+        <v>0</v>
       </c>
       <c r="Y40">
-        <v>0.018841648088</v>
+        <v>0</v>
       </c>
       <c r="Z40">
-        <v>0.08271145985199241</v>
+        <v>0</v>
       </c>
       <c r="AA40">
-        <v>56.524944264</v>
+        <v>0</v>
       </c>
       <c r="AB40">
-        <v>43.588939342</v>
+        <v>0</v>
       </c>
       <c r="AC40">
-        <v>13.186941817</v>
+        <v>0</v>
       </c>
       <c r="AD40">
-        <v>31.108939664</v>
+        <v>0</v>
       </c>
       <c r="AE40">
-        <v>47.956995273</v>
+        <v>0</v>
       </c>
       <c r="AF40">
-        <v>55.375485867</v>
+        <v>0</v>
       </c>
       <c r="AG40">
-        <v>55.375485867</v>
+        <v>0</v>
       </c>
       <c r="AH40">
-        <v>55.375485867</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>14733</v>
+        <v>14672</v>
       </c>
       <c r="B41">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C41">
-        <v>0</v>
+        <v>43</v>
       </c>
       <c r="D41">
-        <v>0</v>
+        <v>65</v>
       </c>
       <c r="E41">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="F41">
-        <v>0</v>
+        <v>921</v>
       </c>
       <c r="G41">
-        <v>0</v>
+        <v>286</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>521</v>
       </c>
       <c r="I41">
-        <v>0</v>
+        <v>558</v>
       </c>
       <c r="J41">
-        <v>3000</v>
+        <v>211</v>
       </c>
       <c r="K41">
-        <v>3000</v>
+        <v>502</v>
       </c>
       <c r="L41">
-        <v>0</v>
+        <v>759</v>
       </c>
       <c r="M41">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="N41">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="O41">
-        <v>0</v>
+        <v>397</v>
       </c>
       <c r="P41">
-        <v>0</v>
+        <v>463</v>
       </c>
       <c r="Q41">
-        <v>0</v>
+        <v>1.099220169823539</v>
       </c>
       <c r="R41">
-        <v>0</v>
+        <v>0.3213519063194555</v>
       </c>
       <c r="S41">
-        <v>0</v>
+        <v>1108</v>
       </c>
       <c r="T41">
-        <v>0</v>
+        <v>692</v>
       </c>
       <c r="U41">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="V41">
-        <v>0</v>
+        <v>403</v>
       </c>
       <c r="W41">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="X41">
-        <v>0</v>
+        <v>50</v>
       </c>
       <c r="Y41">
-        <v>0</v>
+        <v>0.04240698567533333</v>
       </c>
       <c r="Z41">
-        <v>0</v>
+        <v>0.08575051919945849</v>
       </c>
       <c r="AA41">
-        <v>0</v>
+        <v>127.220957026</v>
       </c>
       <c r="AB41">
-        <v>0</v>
+        <v>95.01157527300001</v>
       </c>
       <c r="AC41">
-        <v>0</v>
+        <v>24.109964196</v>
       </c>
       <c r="AD41">
-        <v>0</v>
+        <v>43.963249479</v>
       </c>
       <c r="AE41">
-        <v>0</v>
+        <v>55.461370928</v>
       </c>
       <c r="AF41">
-        <v>0</v>
+        <v>71.281038159</v>
       </c>
       <c r="AG41">
-        <v>0</v>
+        <v>88.412876766</v>
       </c>
       <c r="AH41">
-        <v>0</v>
+        <v>103.163733472</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>14739</v>
+        <v>14673</v>
       </c>
       <c r="B42">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="C42">
-        <v>148</v>
+        <v>17</v>
       </c>
       <c r="D42">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="E42">
-        <v>96</v>
+        <v>611</v>
       </c>
       <c r="F42">
-        <v>493</v>
+        <v>283</v>
       </c>
       <c r="G42">
-        <v>176</v>
+        <v>283</v>
       </c>
       <c r="H42">
-        <v>212</v>
+        <v>435</v>
       </c>
       <c r="I42">
-        <v>330</v>
+        <v>482</v>
       </c>
       <c r="J42">
-        <v>1262</v>
+        <v>266</v>
       </c>
       <c r="K42">
-        <v>1419</v>
+        <v>791</v>
       </c>
       <c r="L42">
-        <v>423</v>
+        <v>217</v>
       </c>
       <c r="M42">
-        <v>259</v>
+        <v>298</v>
       </c>
       <c r="N42">
-        <v>305</v>
+        <v>370</v>
       </c>
       <c r="O42">
-        <v>285</v>
+        <v>793</v>
       </c>
       <c r="P42">
-        <v>309</v>
+        <v>531</v>
       </c>
       <c r="Q42">
-        <v>1.045519989922454</v>
+        <v>1.072720232428158</v>
       </c>
       <c r="R42">
-        <v>0.3241832348425047</v>
+        <v>0.2638337249121774</v>
       </c>
       <c r="S42">
-        <v>1064</v>
+        <v>1261</v>
       </c>
       <c r="T42">
-        <v>277</v>
+        <v>165</v>
       </c>
       <c r="U42">
-        <v>121</v>
+        <v>286</v>
       </c>
       <c r="V42">
-        <v>84</v>
+        <v>492</v>
       </c>
       <c r="W42">
-        <v>35</v>
+        <v>5</v>
       </c>
       <c r="X42">
-        <v>24</v>
+        <v>374</v>
       </c>
       <c r="Y42">
-        <v>0.0374405314243</v>
+        <v>0.03607171990666667</v>
       </c>
       <c r="Z42">
-        <v>0.0916818051299812</v>
+        <v>0.07808098904837431</v>
       </c>
       <c r="AA42">
-        <v>112.3215942729</v>
+        <v>108.21515972</v>
       </c>
       <c r="AB42">
-        <v>97.5494406583</v>
+        <v>98.46012718999999</v>
       </c>
       <c r="AC42">
-        <v>24.817617823</v>
+        <v>16.921563081</v>
       </c>
       <c r="AD42">
-        <v>46.8641091858</v>
+        <v>29.667975369</v>
       </c>
       <c r="AE42">
-        <v>60.5111875448</v>
+        <v>36.861188311</v>
       </c>
       <c r="AF42">
-        <v>79.102341307</v>
+        <v>52.705811749</v>
       </c>
       <c r="AG42">
-        <v>105.3188281953</v>
+        <v>63.016966618</v>
       </c>
       <c r="AH42">
-        <v>0</v>
+        <v>73.402168129</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>14675</v>
+        <v>14671</v>
       </c>
       <c r="B43">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="C43">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="D43">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E43">
-        <v>0</v>
+        <v>83</v>
       </c>
       <c r="F43">
-        <v>0</v>
+        <v>649</v>
       </c>
       <c r="G43">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>308</v>
       </c>
       <c r="I43">
-        <v>0</v>
+        <v>637</v>
       </c>
       <c r="J43">
-        <v>3000</v>
+        <v>635</v>
       </c>
       <c r="K43">
-        <v>3000</v>
+        <v>889</v>
       </c>
       <c r="L43">
-        <v>0</v>
+        <v>527</v>
       </c>
       <c r="M43">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N43">
-        <v>0</v>
+        <v>340</v>
       </c>
       <c r="O43">
-        <v>0</v>
+        <v>425</v>
       </c>
       <c r="P43">
-        <v>0</v>
+        <v>507</v>
       </c>
       <c r="Q43">
-        <v>0</v>
+        <v>1.077372431046518</v>
       </c>
       <c r="R43">
-        <v>0</v>
+        <v>0.3151374594647087</v>
       </c>
       <c r="S43">
-        <v>0</v>
+        <v>1375</v>
       </c>
       <c r="T43">
-        <v>0</v>
+        <v>355</v>
       </c>
       <c r="U43">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="V43">
-        <v>0</v>
+        <v>271</v>
       </c>
       <c r="W43">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="X43">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="Y43">
-        <v>0</v>
+        <v>0.03333940090566666</v>
       </c>
       <c r="Z43">
-        <v>0</v>
+        <v>0.06171376613163636</v>
       </c>
       <c r="AA43">
-        <v>0</v>
+        <v>100.018202717</v>
       </c>
       <c r="AB43">
-        <v>0</v>
+        <v>84.856428431</v>
       </c>
       <c r="AC43">
-        <v>0</v>
+        <v>12.600218785</v>
       </c>
       <c r="AD43">
-        <v>0</v>
+        <v>29.901659148</v>
       </c>
       <c r="AE43">
-        <v>0</v>
+        <v>43.202783916</v>
       </c>
       <c r="AF43">
-        <v>0</v>
+        <v>51.872209149</v>
       </c>
       <c r="AG43">
-        <v>0</v>
+        <v>66.26112639500001</v>
       </c>
       <c r="AH43">
-        <v>0</v>
+        <v>80.42873317900001</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>14672</v>
+        <v>14641</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>35</v>
       </c>
       <c r="C44">
-        <v>43</v>
+        <v>72</v>
       </c>
       <c r="D44">
-        <v>65</v>
+        <v>152</v>
       </c>
       <c r="E44">
-        <v>99</v>
+        <v>84</v>
       </c>
       <c r="F44">
-        <v>921</v>
+        <v>447</v>
       </c>
       <c r="G44">
-        <v>286</v>
+        <v>274</v>
       </c>
       <c r="H44">
-        <v>521</v>
+        <v>527</v>
       </c>
       <c r="I44">
-        <v>558</v>
+        <v>639</v>
       </c>
       <c r="J44">
-        <v>211</v>
+        <v>559</v>
       </c>
       <c r="K44">
-        <v>502</v>
+        <v>770</v>
       </c>
       <c r="L44">
-        <v>759</v>
+        <v>412</v>
       </c>
       <c r="M44">
-        <v>425</v>
+        <v>404</v>
       </c>
       <c r="N44">
-        <v>454</v>
+        <v>482</v>
       </c>
       <c r="O44">
-        <v>397</v>
+        <v>755</v>
       </c>
       <c r="P44">
-        <v>463</v>
+        <v>177</v>
       </c>
       <c r="Q44">
-        <v>1.099220169823539</v>
+        <v>1.155525932695785</v>
       </c>
       <c r="R44">
-        <v>0.3213519063194555</v>
+        <v>0.3630594387816143</v>
       </c>
       <c r="S44">
-        <v>1108</v>
+        <v>1047</v>
       </c>
       <c r="T44">
-        <v>692</v>
+        <v>612</v>
       </c>
       <c r="U44">
-        <v>214</v>
+        <v>128</v>
       </c>
       <c r="V44">
-        <v>403</v>
+        <v>396</v>
       </c>
       <c r="W44">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="X44">
-        <v>50</v>
+        <v>242</v>
       </c>
       <c r="Y44">
-        <v>0.04240698567533333</v>
+        <v>0.04450976237666666</v>
       </c>
       <c r="Z44">
-        <v>0.08575051919945849</v>
+        <v>0.1010468263524355</v>
       </c>
       <c r="AA44">
-        <v>127.220957026</v>
+        <v>133.52928713</v>
       </c>
       <c r="AB44">
-        <v>95.01157527300001</v>
+        <v>105.796027191</v>
       </c>
       <c r="AC44">
-        <v>24.109964196</v>
+        <v>18.142009921</v>
       </c>
       <c r="AD44">
-        <v>43.963249479</v>
+        <v>35.779210981</v>
       </c>
       <c r="AE44">
-        <v>55.461370928</v>
+        <v>55.654138764</v>
       </c>
       <c r="AF44">
-        <v>71.281038159</v>
+        <v>75.556626194</v>
       </c>
       <c r="AG44">
-        <v>88.412876766</v>
+        <v>94.40515643099999</v>
       </c>
       <c r="AH44">
-        <v>103.163733472</v>
+        <v>109.044053422</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>14673</v>
+        <v>202305</v>
       </c>
       <c r="B45">
-        <v>8</v>
+        <v>34</v>
       </c>
       <c r="C45">
-        <v>17</v>
+        <v>104</v>
       </c>
       <c r="D45">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="E45">
-        <v>611</v>
+        <v>193</v>
       </c>
       <c r="F45">
-        <v>283</v>
+        <v>530</v>
       </c>
       <c r="G45">
-        <v>283</v>
+        <v>146</v>
       </c>
       <c r="H45">
-        <v>435</v>
+        <v>342</v>
       </c>
       <c r="I45">
-        <v>482</v>
+        <v>394</v>
       </c>
       <c r="J45">
-        <v>266</v>
+        <v>975</v>
       </c>
       <c r="K45">
-        <v>791</v>
+        <v>1137</v>
       </c>
       <c r="L45">
-        <v>217</v>
+        <v>373</v>
       </c>
       <c r="M45">
-        <v>298</v>
+        <v>325</v>
       </c>
       <c r="N45">
-        <v>370</v>
+        <v>312</v>
       </c>
       <c r="O45">
-        <v>793</v>
+        <v>366</v>
       </c>
       <c r="P45">
-        <v>531</v>
+        <v>487</v>
       </c>
       <c r="Q45">
-        <v>1.072720232428158</v>
+        <v>1.051850130086849</v>
       </c>
       <c r="R45">
-        <v>0.2638337249121774</v>
+        <v>0.3079515840236178</v>
       </c>
       <c r="S45">
-        <v>1261</v>
+        <v>1306</v>
       </c>
       <c r="T45">
-        <v>165</v>
+        <v>118</v>
       </c>
       <c r="U45">
-        <v>286</v>
+        <v>201</v>
       </c>
       <c r="V45">
-        <v>492</v>
+        <v>181</v>
       </c>
       <c r="W45">
-        <v>5</v>
+        <v>57</v>
       </c>
       <c r="X45">
-        <v>374</v>
+        <v>39</v>
       </c>
       <c r="Y45">
-        <v>0.03607171990666667</v>
+        <v>0.04612498890333333</v>
       </c>
       <c r="Z45">
-        <v>0.07808098904837431</v>
+        <v>0.1007828204701378</v>
       </c>
       <c r="AA45">
-        <v>108.21515972</v>
+        <v>138.37496671</v>
       </c>
       <c r="AB45">
-        <v>98.46012718999999</v>
+        <v>131.622363534</v>
       </c>
       <c r="AC45">
-        <v>16.921563081</v>
+        <v>28.605166603</v>
       </c>
       <c r="AD45">
-        <v>29.667975369</v>
+        <v>49.798678411</v>
       </c>
       <c r="AE45">
-        <v>36.861188311</v>
+        <v>77.401083298</v>
       </c>
       <c r="AF45">
-        <v>52.705811749</v>
+        <v>97.624565797</v>
       </c>
       <c r="AG45">
-        <v>63.016966618</v>
+        <v>113.303162893</v>
       </c>
       <c r="AH45">
-        <v>73.402168129</v>
+        <v>137.560560446</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>14671</v>
+        <v>14674</v>
       </c>
       <c r="B46">
-        <v>24</v>
+        <v>6</v>
       </c>
       <c r="C46">
-        <v>85</v>
+        <v>37</v>
       </c>
       <c r="D46">
-        <v>144</v>
+        <v>30</v>
       </c>
       <c r="E46">
-        <v>83</v>
+        <v>69</v>
       </c>
       <c r="F46">
-        <v>649</v>
+        <v>678</v>
       </c>
       <c r="G46">
-        <v>181</v>
+        <v>62</v>
       </c>
       <c r="H46">
-        <v>308</v>
+        <v>121</v>
       </c>
       <c r="I46">
-        <v>637</v>
+        <v>236</v>
       </c>
       <c r="J46">
-        <v>635</v>
+        <v>1712</v>
       </c>
       <c r="K46">
-        <v>889</v>
+        <v>1761</v>
       </c>
       <c r="L46">
-        <v>527</v>
+        <v>625</v>
       </c>
       <c r="M46">
-        <v>312</v>
+        <v>122</v>
       </c>
       <c r="N46">
-        <v>340</v>
+        <v>94</v>
       </c>
       <c r="O46">
-        <v>425</v>
+        <v>255</v>
       </c>
       <c r="P46">
-        <v>507</v>
+        <v>143</v>
       </c>
       <c r="Q46">
-        <v>1.077372431046518</v>
+        <v>1.019410302708798</v>
       </c>
       <c r="R46">
-        <v>0.3151374594647087</v>
+        <v>0.2273146486117837</v>
       </c>
       <c r="S46">
-        <v>1375</v>
+        <v>473</v>
       </c>
       <c r="T46">
-        <v>355</v>
+        <v>203</v>
       </c>
       <c r="U46">
-        <v>80</v>
+        <v>17</v>
       </c>
       <c r="V46">
-        <v>271</v>
+        <v>542</v>
       </c>
       <c r="W46">
-        <v>30</v>
+        <v>4</v>
       </c>
       <c r="X46">
-        <v>177</v>
+        <v>37</v>
       </c>
       <c r="Y46">
-        <v>0.03333940090566666</v>
+        <v>0.02236546031109</v>
       </c>
       <c r="Z46">
-        <v>0.06171376613163636</v>
+        <v>0.1128287805073996</v>
       </c>
       <c r="AA46">
-        <v>100.018202717</v>
+        <v>67.09638093327</v>
       </c>
       <c r="AB46">
-        <v>84.856428431</v>
+        <v>53.36801318</v>
       </c>
       <c r="AC46">
-        <v>12.600218785</v>
+        <v>27.310724662</v>
       </c>
       <c r="AD46">
-        <v>29.901659148</v>
+        <v>54.50623993</v>
       </c>
       <c r="AE46">
-        <v>43.202783916</v>
+        <v>0</v>
       </c>
       <c r="AF46">
-        <v>51.872209149</v>
+        <v>0</v>
       </c>
       <c r="AG46">
-        <v>66.26112639500001</v>
+        <v>0</v>
       </c>
       <c r="AH46">
-        <v>80.42873317900001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>14641</v>
+        <v>14642</v>
       </c>
       <c r="B47">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="C47">
-        <v>72</v>
+        <v>31</v>
       </c>
       <c r="D47">
-        <v>152</v>
+        <v>83</v>
       </c>
       <c r="E47">
-        <v>84</v>
+        <v>19</v>
       </c>
       <c r="F47">
-        <v>447</v>
+        <v>354</v>
       </c>
       <c r="G47">
-        <v>274</v>
+        <v>143</v>
       </c>
       <c r="H47">
-        <v>527</v>
+        <v>280</v>
       </c>
       <c r="I47">
-        <v>639</v>
+        <v>380</v>
       </c>
       <c r="J47">
-        <v>559</v>
+        <v>1649</v>
       </c>
       <c r="K47">
-        <v>770</v>
+        <v>1709</v>
       </c>
       <c r="L47">
-        <v>412</v>
+        <v>277</v>
       </c>
       <c r="M47">
-        <v>404</v>
+        <v>194</v>
       </c>
       <c r="N47">
-        <v>482</v>
+        <v>284</v>
       </c>
       <c r="O47">
-        <v>755</v>
+        <v>282</v>
       </c>
       <c r="P47">
-        <v>177</v>
+        <v>254</v>
       </c>
       <c r="Q47">
-        <v>1.155525932695785</v>
+        <v>1.142367558937723</v>
       </c>
       <c r="R47">
-        <v>0.3630594387816143</v>
+        <v>0.3652159257164989</v>
       </c>
       <c r="S47">
-        <v>1047</v>
+        <v>792</v>
       </c>
       <c r="T47">
-        <v>612</v>
+        <v>329</v>
       </c>
       <c r="U47">
-        <v>128</v>
+        <v>39</v>
       </c>
       <c r="V47">
-        <v>396</v>
+        <v>111</v>
       </c>
       <c r="W47">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="X47">
-        <v>242</v>
+        <v>41</v>
       </c>
       <c r="Y47">
-        <v>0.04450976237666666</v>
+        <v>0.02567024856966667</v>
       </c>
       <c r="Z47">
-        <v>0.1010468263524355</v>
+        <v>0.07736758570328282</v>
       </c>
       <c r="AA47">
-        <v>133.52928713</v>
+        <v>77.01074570900001</v>
       </c>
       <c r="AB47">
-        <v>105.796027191</v>
+        <v>61.275127877</v>
       </c>
       <c r="AC47">
-        <v>18.142009921</v>
+        <v>19.903778161</v>
       </c>
       <c r="AD47">
-        <v>35.779210981</v>
+        <v>38.904220707</v>
       </c>
       <c r="AE47">
-        <v>55.654138764</v>
+        <v>57.250328895</v>
       </c>
       <c r="AF47">
-        <v>75.556626194</v>
+        <v>72.61480394500001</v>
       </c>
       <c r="AG47">
-        <v>94.40515643099999</v>
+        <v>0</v>
       </c>
       <c r="AH47">
-        <v>109.044053422</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>202305</v>
+        <v>202309</v>
       </c>
       <c r="B48">
-        <v>34</v>
+        <v>53</v>
       </c>
       <c r="C48">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="D48">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E48">
-        <v>193</v>
+        <v>433</v>
       </c>
       <c r="F48">
-        <v>530</v>
+        <v>644</v>
       </c>
       <c r="G48">
-        <v>146</v>
+        <v>86</v>
       </c>
       <c r="H48">
-        <v>342</v>
+        <v>205</v>
       </c>
       <c r="I48">
-        <v>394</v>
+        <v>374</v>
       </c>
       <c r="J48">
-        <v>975</v>
+        <v>828</v>
       </c>
       <c r="K48">
-        <v>1137</v>
+        <v>963</v>
       </c>
       <c r="L48">
-        <v>373</v>
+        <v>681</v>
       </c>
       <c r="M48">
-        <v>325</v>
+        <v>178</v>
       </c>
       <c r="N48">
-        <v>312</v>
+        <v>210</v>
       </c>
       <c r="O48">
-        <v>366</v>
+        <v>805</v>
       </c>
       <c r="P48">
-        <v>487</v>
+        <v>163</v>
       </c>
       <c r="Q48">
-        <v>1.051850130086849</v>
+        <v>1.024161253742072</v>
       </c>
       <c r="R48">
-        <v>0.3079515840236178</v>
+        <v>0.2466448382675503</v>
       </c>
       <c r="S48">
-        <v>1306</v>
+        <v>720</v>
       </c>
       <c r="T48">
-        <v>118</v>
+        <v>275</v>
       </c>
       <c r="U48">
-        <v>201</v>
+        <v>269</v>
       </c>
       <c r="V48">
-        <v>181</v>
+        <v>757</v>
       </c>
       <c r="W48">
-        <v>57</v>
+        <v>16</v>
       </c>
       <c r="X48">
-        <v>39</v>
+        <v>282</v>
       </c>
       <c r="Y48">
-        <v>0.04612498890333333</v>
+        <v>0.02928621908233333</v>
       </c>
       <c r="Z48">
-        <v>0.1007828204701378</v>
+        <v>0.1006267827625</v>
       </c>
       <c r="AA48">
-        <v>138.37496671</v>
+        <v>87.858657247</v>
       </c>
       <c r="AB48">
-        <v>131.622363534</v>
+        <v>72.451283589</v>
       </c>
       <c r="AC48">
-        <v>28.605166603</v>
+        <v>26.894201881</v>
       </c>
       <c r="AD48">
-        <v>49.798678411</v>
+        <v>50.323384342</v>
       </c>
       <c r="AE48">
-        <v>77.401083298</v>
+        <v>56.405327607</v>
       </c>
       <c r="AF48">
-        <v>97.624565797</v>
+        <v>60.252062814</v>
       </c>
       <c r="AG48">
-        <v>113.303162893</v>
+        <v>76.023184211</v>
       </c>
       <c r="AH48">
-        <v>137.560560446</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>14674</v>
+        <v>202308</v>
       </c>
       <c r="B49">
-        <v>6</v>
+        <v>23</v>
       </c>
       <c r="C49">
-        <v>37</v>
+        <v>67</v>
       </c>
       <c r="D49">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="E49">
-        <v>69</v>
+        <v>117</v>
       </c>
       <c r="F49">
-        <v>678</v>
+        <v>756</v>
       </c>
       <c r="G49">
-        <v>62</v>
+        <v>84</v>
       </c>
       <c r="H49">
-        <v>121</v>
+        <v>268</v>
       </c>
       <c r="I49">
-        <v>236</v>
+        <v>580</v>
       </c>
       <c r="J49">
-        <v>1712</v>
+        <v>1048</v>
       </c>
       <c r="K49">
-        <v>1761</v>
+        <v>1085</v>
       </c>
       <c r="L49">
-        <v>625</v>
+        <v>695</v>
       </c>
       <c r="M49">
-        <v>122</v>
+        <v>245</v>
       </c>
       <c r="N49">
-        <v>94</v>
+        <v>132</v>
       </c>
       <c r="O49">
-        <v>255</v>
+        <v>419</v>
       </c>
       <c r="P49">
-        <v>143</v>
+        <v>424</v>
       </c>
       <c r="Q49">
-        <v>1.019410302708798</v>
+        <v>1.076639429302768</v>
       </c>
       <c r="R49">
-        <v>0.2273146486117837</v>
+        <v>0.2984660101091384</v>
       </c>
       <c r="S49">
-        <v>473</v>
+        <v>800</v>
       </c>
       <c r="T49">
-        <v>203</v>
+        <v>468</v>
       </c>
       <c r="U49">
+        <v>172</v>
+      </c>
+      <c r="V49">
+        <v>458</v>
+      </c>
+      <c r="W49">
         <v>17</v>
       </c>
-      <c r="V49">
-        <v>542</v>
-      </c>
-      <c r="W49">
-        <v>4</v>
-      </c>
       <c r="X49">
-        <v>37</v>
+        <v>53</v>
       </c>
       <c r="Y49">
-        <v>0.02236546031109</v>
+        <v>0.034436681498</v>
       </c>
       <c r="Z49">
-        <v>0.1128287805073996</v>
+        <v>0.09882537775125</v>
       </c>
       <c r="AA49">
-        <v>67.09638093327</v>
+        <v>103.310044494</v>
       </c>
       <c r="AB49">
-        <v>53.36801318</v>
+        <v>79.060302201</v>
       </c>
       <c r="AC49">
-        <v>27.310724662</v>
+        <v>21.937393705</v>
       </c>
       <c r="AD49">
-        <v>54.50623993</v>
+        <v>42.057313393</v>
       </c>
       <c r="AE49">
-        <v>0</v>
+        <v>64.08830491000001</v>
       </c>
       <c r="AF49">
-        <v>0</v>
+        <v>83.365981737</v>
       </c>
       <c r="AG49">
-        <v>0</v>
+        <v>101.725452821</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -5523,103 +5523,103 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>14642</v>
+        <v>202306</v>
       </c>
       <c r="B50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C50">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D50">
-        <v>83</v>
+        <v>117</v>
       </c>
       <c r="E50">
-        <v>19</v>
+        <v>181</v>
       </c>
       <c r="F50">
-        <v>354</v>
+        <v>249</v>
       </c>
       <c r="G50">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="H50">
-        <v>280</v>
+        <v>450</v>
       </c>
       <c r="I50">
-        <v>380</v>
+        <v>315</v>
       </c>
       <c r="J50">
-        <v>1649</v>
+        <v>1290</v>
       </c>
       <c r="K50">
-        <v>1709</v>
+        <v>1426</v>
       </c>
       <c r="L50">
-        <v>277</v>
+        <v>191</v>
       </c>
       <c r="M50">
-        <v>194</v>
+        <v>250</v>
       </c>
       <c r="N50">
-        <v>284</v>
+        <v>459</v>
       </c>
       <c r="O50">
-        <v>282</v>
+        <v>518</v>
       </c>
       <c r="P50">
-        <v>254</v>
+        <v>156</v>
       </c>
       <c r="Q50">
-        <v>1.142367558937723</v>
+        <v>1.096810383031893</v>
       </c>
       <c r="R50">
-        <v>0.3652159257164989</v>
+        <v>0.3089882636194409</v>
       </c>
       <c r="S50">
-        <v>792</v>
+        <v>805</v>
       </c>
       <c r="T50">
-        <v>329</v>
+        <v>311</v>
       </c>
       <c r="U50">
-        <v>39</v>
+        <v>139</v>
       </c>
       <c r="V50">
-        <v>111</v>
+        <v>316</v>
       </c>
       <c r="W50">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="X50">
-        <v>41</v>
+        <v>262</v>
       </c>
       <c r="Y50">
-        <v>0.02567024856966667</v>
+        <v>0.03415265330833334</v>
       </c>
       <c r="Z50">
-        <v>0.07736758570328282</v>
+        <v>0.1043897665801242</v>
       </c>
       <c r="AA50">
-        <v>77.01074570900001</v>
+        <v>102.457959925</v>
       </c>
       <c r="AB50">
-        <v>61.275127877</v>
+        <v>84.03376209699999</v>
       </c>
       <c r="AC50">
-        <v>19.903778161</v>
+        <v>21.11588718</v>
       </c>
       <c r="AD50">
-        <v>38.904220707</v>
+        <v>42.288387947</v>
       </c>
       <c r="AE50">
-        <v>57.250328895</v>
+        <v>49.93025029</v>
       </c>
       <c r="AF50">
-        <v>72.61480394500001</v>
+        <v>71.552019311</v>
       </c>
       <c r="AG50">
-        <v>0</v>
+        <v>92.298918266</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -5627,207 +5627,207 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>202309</v>
+        <v>202307</v>
       </c>
       <c r="B51">
-        <v>53</v>
+        <v>13</v>
       </c>
       <c r="C51">
-        <v>140</v>
+        <v>59</v>
       </c>
       <c r="D51">
-        <v>102</v>
+        <v>55</v>
       </c>
       <c r="E51">
-        <v>433</v>
+        <v>37</v>
       </c>
       <c r="F51">
-        <v>644</v>
+        <v>797</v>
       </c>
       <c r="G51">
-        <v>86</v>
+        <v>234</v>
       </c>
       <c r="H51">
-        <v>205</v>
+        <v>333</v>
       </c>
       <c r="I51">
-        <v>374</v>
+        <v>483</v>
       </c>
       <c r="J51">
-        <v>828</v>
+        <v>880</v>
       </c>
       <c r="K51">
-        <v>963</v>
+        <v>989</v>
       </c>
       <c r="L51">
-        <v>681</v>
+        <v>663</v>
       </c>
       <c r="M51">
-        <v>178</v>
+        <v>255</v>
       </c>
       <c r="N51">
-        <v>210</v>
+        <v>398</v>
       </c>
       <c r="O51">
-        <v>805</v>
+        <v>231</v>
       </c>
       <c r="P51">
-        <v>163</v>
+        <v>464</v>
       </c>
       <c r="Q51">
-        <v>1.024161253742072</v>
+        <v>1.079795541380706</v>
       </c>
       <c r="R51">
-        <v>0.2466448382675503</v>
+        <v>0.3272960757702635</v>
       </c>
       <c r="S51">
-        <v>720</v>
+        <v>1202</v>
       </c>
       <c r="T51">
-        <v>275</v>
+        <v>355</v>
       </c>
       <c r="U51">
-        <v>269</v>
+        <v>172</v>
       </c>
       <c r="V51">
-        <v>757</v>
+        <v>259</v>
       </c>
       <c r="W51">
-        <v>16</v>
+        <v>23</v>
       </c>
       <c r="X51">
-        <v>282</v>
+        <v>146</v>
       </c>
       <c r="Y51">
-        <v>0.02928621908233333</v>
+        <v>0.04627203602123333</v>
       </c>
       <c r="Z51">
-        <v>0.1006267827625</v>
+        <v>0.100569968577787</v>
       </c>
       <c r="AA51">
-        <v>87.858657247</v>
+        <v>138.8161080637</v>
       </c>
       <c r="AB51">
-        <v>72.451283589</v>
+        <v>120.8851022305</v>
       </c>
       <c r="AC51">
-        <v>26.894201881</v>
+        <v>33.5601492603</v>
       </c>
       <c r="AD51">
-        <v>50.323384342</v>
+        <v>61.2697885623</v>
       </c>
       <c r="AE51">
-        <v>56.405327607</v>
+        <v>79.99727161</v>
       </c>
       <c r="AF51">
-        <v>60.252062814</v>
+        <v>93.87450332909999</v>
       </c>
       <c r="AG51">
-        <v>76.023184211</v>
+        <v>115.232602715</v>
       </c>
       <c r="AH51">
-        <v>0</v>
+        <v>128.1463967038</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>202308</v>
+        <v>202312</v>
       </c>
       <c r="B52">
-        <v>23</v>
+        <v>4</v>
       </c>
       <c r="C52">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D52">
-        <v>20</v>
+        <v>57</v>
       </c>
       <c r="E52">
-        <v>117</v>
+        <v>224</v>
       </c>
       <c r="F52">
-        <v>756</v>
+        <v>886</v>
       </c>
       <c r="G52">
-        <v>84</v>
+        <v>109</v>
       </c>
       <c r="H52">
-        <v>268</v>
+        <v>195</v>
       </c>
       <c r="I52">
-        <v>580</v>
+        <v>447</v>
       </c>
       <c r="J52">
-        <v>1048</v>
+        <v>879</v>
       </c>
       <c r="K52">
-        <v>1085</v>
+        <v>1010</v>
       </c>
       <c r="L52">
-        <v>695</v>
+        <v>845</v>
       </c>
       <c r="M52">
-        <v>245</v>
+        <v>179</v>
       </c>
       <c r="N52">
-        <v>132</v>
+        <v>185</v>
       </c>
       <c r="O52">
-        <v>419</v>
+        <v>511</v>
       </c>
       <c r="P52">
-        <v>424</v>
+        <v>270</v>
       </c>
       <c r="Q52">
-        <v>1.076639429302768</v>
+        <v>1.005732477752864</v>
       </c>
       <c r="R52">
-        <v>0.2984660101091384</v>
+        <v>0.2216953773592965</v>
       </c>
       <c r="S52">
-        <v>800</v>
+        <v>630</v>
       </c>
       <c r="T52">
-        <v>468</v>
+        <v>247</v>
       </c>
       <c r="U52">
-        <v>172</v>
+        <v>285</v>
       </c>
       <c r="V52">
-        <v>458</v>
+        <v>822</v>
       </c>
       <c r="W52">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="X52">
-        <v>53</v>
+        <v>146</v>
       </c>
       <c r="Y52">
-        <v>0.034436681498</v>
+        <v>0.03021372439382367</v>
       </c>
       <c r="Z52">
-        <v>0.09882537775125</v>
+        <v>0.1206385113492063</v>
       </c>
       <c r="AA52">
-        <v>103.310044494</v>
+        <v>90.641173181471</v>
       </c>
       <c r="AB52">
-        <v>79.060302201</v>
+        <v>76.00226215000001</v>
       </c>
       <c r="AC52">
-        <v>21.937393705</v>
+        <v>11.762602788</v>
       </c>
       <c r="AD52">
-        <v>42.057313393</v>
+        <v>25.646720148</v>
       </c>
       <c r="AE52">
-        <v>64.08830491000001</v>
+        <v>52.99454133</v>
       </c>
       <c r="AF52">
-        <v>83.365981737</v>
+        <v>75.85890205699999</v>
       </c>
       <c r="AG52">
-        <v>101.725452821</v>
+        <v>0</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -5835,308 +5835,308 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>202306</v>
+        <v>202310</v>
       </c>
       <c r="B53">
-        <v>6</v>
+        <v>27</v>
       </c>
       <c r="C53">
-        <v>26</v>
+        <v>93</v>
       </c>
       <c r="D53">
-        <v>117</v>
+        <v>296</v>
       </c>
       <c r="E53">
-        <v>181</v>
+        <v>136</v>
       </c>
       <c r="F53">
-        <v>249</v>
+        <v>990</v>
       </c>
       <c r="G53">
-        <v>230</v>
+        <v>113</v>
       </c>
       <c r="H53">
-        <v>450</v>
+        <v>323</v>
       </c>
       <c r="I53">
-        <v>315</v>
+        <v>187</v>
       </c>
       <c r="J53">
-        <v>1290</v>
+        <v>641</v>
       </c>
       <c r="K53">
-        <v>1426</v>
+        <v>835</v>
       </c>
       <c r="L53">
-        <v>191</v>
+        <v>885</v>
       </c>
       <c r="M53">
-        <v>250</v>
+        <v>421</v>
       </c>
       <c r="N53">
-        <v>459</v>
+        <v>413</v>
       </c>
       <c r="O53">
-        <v>518</v>
+        <v>232</v>
       </c>
       <c r="P53">
-        <v>156</v>
+        <v>214</v>
       </c>
       <c r="Q53">
-        <v>1.096810383031893</v>
+        <v>1.001446509255704</v>
       </c>
       <c r="R53">
-        <v>0.3089882636194409</v>
+        <v>0.2452079346360277</v>
       </c>
       <c r="S53">
-        <v>805</v>
+        <v>1075</v>
       </c>
       <c r="T53">
-        <v>311</v>
+        <v>385</v>
       </c>
       <c r="U53">
-        <v>139</v>
+        <v>172</v>
       </c>
       <c r="V53">
-        <v>316</v>
+        <v>514</v>
       </c>
       <c r="W53">
-        <v>3</v>
+        <v>19</v>
       </c>
       <c r="X53">
-        <v>262</v>
+        <v>251</v>
       </c>
       <c r="Y53">
-        <v>0.03415265330833334</v>
+        <v>0.05370352829433334</v>
       </c>
       <c r="Z53">
-        <v>0.1043897665801242</v>
+        <v>0.130149706024186</v>
       </c>
       <c r="AA53">
-        <v>102.457959925</v>
+        <v>161.110584883</v>
       </c>
       <c r="AB53">
-        <v>84.03376209699999</v>
+        <v>139.910933976</v>
       </c>
       <c r="AC53">
-        <v>21.11588718</v>
+        <v>38.423122866</v>
       </c>
       <c r="AD53">
-        <v>42.288387947</v>
+        <v>72.24341297700001</v>
       </c>
       <c r="AE53">
-        <v>49.93025029</v>
+        <v>99.85351828</v>
       </c>
       <c r="AF53">
-        <v>71.552019311</v>
+        <v>118.687446339</v>
       </c>
       <c r="AG53">
-        <v>92.298918266</v>
+        <v>135.011023018</v>
       </c>
       <c r="AH53">
-        <v>0</v>
+        <v>151.616284415</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>202307</v>
+        <v>202311</v>
       </c>
       <c r="B54">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="C54">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D54">
-        <v>55</v>
+        <v>0</v>
       </c>
       <c r="E54">
-        <v>37</v>
+        <v>0</v>
       </c>
       <c r="F54">
-        <v>797</v>
+        <v>0</v>
       </c>
       <c r="G54">
-        <v>234</v>
+        <v>0</v>
       </c>
       <c r="H54">
-        <v>333</v>
+        <v>0</v>
       </c>
       <c r="I54">
-        <v>483</v>
+        <v>0</v>
       </c>
       <c r="J54">
-        <v>880</v>
+        <v>3000</v>
       </c>
       <c r="K54">
-        <v>989</v>
+        <v>3000</v>
       </c>
       <c r="L54">
-        <v>663</v>
+        <v>0</v>
       </c>
       <c r="M54">
-        <v>255</v>
+        <v>0</v>
       </c>
       <c r="N54">
-        <v>398</v>
+        <v>0</v>
       </c>
       <c r="O54">
-        <v>231</v>
+        <v>0</v>
       </c>
       <c r="P54">
-        <v>464</v>
+        <v>0</v>
       </c>
       <c r="Q54">
-        <v>1.079795541380706</v>
+        <v>0</v>
       </c>
       <c r="R54">
-        <v>0.3272960757702635</v>
+        <v>0</v>
       </c>
       <c r="S54">
-        <v>1202</v>
+        <v>0</v>
       </c>
       <c r="T54">
-        <v>355</v>
+        <v>0</v>
       </c>
       <c r="U54">
-        <v>172</v>
+        <v>0</v>
       </c>
       <c r="V54">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="W54">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="X54">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Y54">
-        <v>0.04627203602123333</v>
+        <v>0</v>
       </c>
       <c r="Z54">
-        <v>0.100569968577787</v>
+        <v>0</v>
       </c>
       <c r="AA54">
-        <v>138.8161080637</v>
+        <v>0</v>
       </c>
       <c r="AB54">
-        <v>120.8851022305</v>
+        <v>0</v>
       </c>
       <c r="AC54">
-        <v>33.5601492603</v>
+        <v>0</v>
       </c>
       <c r="AD54">
-        <v>61.2697885623</v>
+        <v>0</v>
       </c>
       <c r="AE54">
-        <v>79.99727161</v>
+        <v>0</v>
       </c>
       <c r="AF54">
-        <v>93.87450332909999</v>
+        <v>0</v>
       </c>
       <c r="AG54">
-        <v>115.232602715</v>
+        <v>0</v>
       </c>
       <c r="AH54">
-        <v>128.1463967038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>202312</v>
+        <v>202313</v>
       </c>
       <c r="B55">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="C55">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="D55">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="E55">
+        <v>42</v>
+      </c>
+      <c r="F55">
+        <v>409</v>
+      </c>
+      <c r="G55">
         <v>224</v>
       </c>
-      <c r="F55">
-        <v>886</v>
-      </c>
-      <c r="G55">
-        <v>109</v>
-      </c>
       <c r="H55">
-        <v>195</v>
+        <v>473</v>
       </c>
       <c r="I55">
-        <v>447</v>
+        <v>322</v>
       </c>
       <c r="J55">
-        <v>879</v>
+        <v>1346</v>
       </c>
       <c r="K55">
-        <v>1010</v>
+        <v>1404</v>
       </c>
       <c r="L55">
-        <v>845</v>
+        <v>348</v>
       </c>
       <c r="M55">
-        <v>179</v>
+        <v>315</v>
       </c>
       <c r="N55">
-        <v>185</v>
+        <v>389</v>
       </c>
       <c r="O55">
-        <v>511</v>
+        <v>344</v>
       </c>
       <c r="P55">
-        <v>270</v>
+        <v>200</v>
       </c>
       <c r="Q55">
-        <v>1.005732477752864</v>
+        <v>1.104164468156767</v>
       </c>
       <c r="R55">
-        <v>0.2216953773592965</v>
+        <v>0.3452742431497494</v>
       </c>
       <c r="S55">
-        <v>630</v>
+        <v>1025</v>
       </c>
       <c r="T55">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="U55">
-        <v>285</v>
+        <v>236</v>
       </c>
       <c r="V55">
-        <v>822</v>
+        <v>77</v>
       </c>
       <c r="W55">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="X55">
-        <v>146</v>
+        <v>1</v>
       </c>
       <c r="Y55">
-        <v>0.03021372439382367</v>
+        <v>0.021573581464</v>
       </c>
       <c r="Z55">
-        <v>0.1206385113492063</v>
+        <v>0.05337911383219512</v>
       </c>
       <c r="AA55">
-        <v>90.641173181471</v>
+        <v>64.720744392</v>
       </c>
       <c r="AB55">
-        <v>76.00226215000001</v>
+        <v>54.713591678</v>
       </c>
       <c r="AC55">
-        <v>11.762602788</v>
+        <v>11.353810386</v>
       </c>
       <c r="AD55">
-        <v>25.646720148</v>
+        <v>26.264182472</v>
       </c>
       <c r="AE55">
-        <v>52.99454133</v>
+        <v>41.794881063</v>
       </c>
       <c r="AF55">
-        <v>75.85890205699999</v>
+        <v>52.447994867</v>
       </c>
       <c r="AG55">
         <v>0</v>
@@ -6147,201 +6147,201 @@
     </row>
     <row r="56">
       <c r="A56">
-        <v>202310</v>
+        <v>202308</v>
       </c>
       <c r="B56">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C56">
-        <v>93</v>
+        <v>71</v>
       </c>
       <c r="D56">
-        <v>296</v>
+        <v>47</v>
       </c>
       <c r="E56">
-        <v>136</v>
+        <v>163</v>
       </c>
       <c r="F56">
-        <v>990</v>
+        <v>668</v>
       </c>
       <c r="G56">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="H56">
-        <v>323</v>
+        <v>305</v>
       </c>
       <c r="I56">
-        <v>187</v>
+        <v>745</v>
       </c>
       <c r="J56">
-        <v>641</v>
+        <v>787</v>
       </c>
       <c r="K56">
-        <v>835</v>
+        <v>886</v>
       </c>
       <c r="L56">
-        <v>885</v>
+        <v>587</v>
       </c>
       <c r="M56">
-        <v>421</v>
+        <v>282</v>
       </c>
       <c r="N56">
-        <v>413</v>
+        <v>168</v>
       </c>
       <c r="O56">
-        <v>232</v>
+        <v>490</v>
       </c>
       <c r="P56">
-        <v>214</v>
+        <v>587</v>
       </c>
       <c r="Q56">
-        <v>1.001446509255704</v>
+        <v>1.09492365969631</v>
       </c>
       <c r="R56">
-        <v>0.2452079346360277</v>
+        <v>0.322250747577578</v>
       </c>
       <c r="S56">
-        <v>1075</v>
+        <v>887</v>
       </c>
       <c r="T56">
-        <v>385</v>
+        <v>579</v>
       </c>
       <c r="U56">
-        <v>172</v>
+        <v>127</v>
       </c>
       <c r="V56">
-        <v>514</v>
+        <v>499</v>
       </c>
       <c r="W56">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="X56">
-        <v>251</v>
+        <v>91</v>
       </c>
       <c r="Y56">
-        <v>0.05370352829433334</v>
+        <v>0.04204032349166666</v>
       </c>
       <c r="Z56">
-        <v>0.130149706024186</v>
+        <v>0.1101116484949267</v>
       </c>
       <c r="AA56">
-        <v>161.110584883</v>
+        <v>126.120970475</v>
       </c>
       <c r="AB56">
-        <v>139.910933976</v>
+        <v>97.669032215</v>
       </c>
       <c r="AC56">
-        <v>38.423122866</v>
+        <v>19.13071726</v>
       </c>
       <c r="AD56">
-        <v>72.24341297700001</v>
+        <v>46.468378901</v>
       </c>
       <c r="AE56">
-        <v>99.85351828</v>
+        <v>65.453929522</v>
       </c>
       <c r="AF56">
-        <v>118.687446339</v>
+        <v>85.908890035</v>
       </c>
       <c r="AG56">
-        <v>135.011023018</v>
+        <v>104.010235133</v>
       </c>
       <c r="AH56">
-        <v>151.616284415</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>202311</v>
+        <v>202307</v>
       </c>
       <c r="B57">
-        <v>0</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>0</v>
+        <v>31</v>
       </c>
       <c r="D57">
-        <v>0</v>
+        <v>47</v>
       </c>
       <c r="E57">
-        <v>0</v>
+        <v>26</v>
       </c>
       <c r="F57">
-        <v>0</v>
+        <v>454</v>
       </c>
       <c r="G57">
-        <v>0</v>
+        <v>130</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>334</v>
       </c>
       <c r="I57">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="J57">
-        <v>3000</v>
+        <v>1525</v>
       </c>
       <c r="K57">
-        <v>3000</v>
+        <v>1583</v>
       </c>
       <c r="L57">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="M57">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="N57">
-        <v>0</v>
+        <v>229</v>
       </c>
       <c r="O57">
-        <v>0</v>
+        <v>320</v>
       </c>
       <c r="P57">
-        <v>0</v>
+        <v>199</v>
       </c>
       <c r="Q57">
-        <v>0</v>
+        <v>1.124587358779111</v>
       </c>
       <c r="R57">
-        <v>0</v>
+        <v>0.3355367099583627</v>
       </c>
       <c r="S57">
-        <v>0</v>
+        <v>735</v>
       </c>
       <c r="T57">
-        <v>0</v>
+        <v>290</v>
       </c>
       <c r="U57">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="V57">
-        <v>0</v>
+        <v>282</v>
       </c>
       <c r="W57">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X57">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="Y57">
-        <v>0</v>
+        <v>0.02569082278236667</v>
       </c>
       <c r="Z57">
-        <v>0</v>
+        <v>0.08457763514476191</v>
       </c>
       <c r="AA57">
-        <v>0</v>
+        <v>77.0724683471</v>
       </c>
       <c r="AB57">
-        <v>0</v>
+        <v>62.1645618314</v>
       </c>
       <c r="AC57">
-        <v>0</v>
+        <v>20.0003532635</v>
       </c>
       <c r="AD57">
-        <v>0</v>
+        <v>38.5517698188</v>
       </c>
       <c r="AE57">
-        <v>0</v>
+        <v>57.0645241494</v>
       </c>
       <c r="AF57">
         <v>0</v>
@@ -6355,100 +6355,100 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>202313</v>
+        <v>14674</v>
       </c>
       <c r="B58">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="C58">
-        <v>54</v>
+        <v>17</v>
       </c>
       <c r="D58">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="E58">
-        <v>42</v>
+        <v>30</v>
       </c>
       <c r="F58">
-        <v>409</v>
+        <v>664</v>
       </c>
       <c r="G58">
-        <v>224</v>
+        <v>112</v>
       </c>
       <c r="H58">
-        <v>473</v>
+        <v>279</v>
       </c>
       <c r="I58">
-        <v>322</v>
+        <v>479</v>
       </c>
       <c r="J58">
-        <v>1346</v>
+        <v>1302</v>
       </c>
       <c r="K58">
-        <v>1404</v>
+        <v>1371</v>
       </c>
       <c r="L58">
-        <v>348</v>
+        <v>590</v>
       </c>
       <c r="M58">
-        <v>315</v>
+        <v>129</v>
       </c>
       <c r="N58">
-        <v>389</v>
+        <v>312</v>
       </c>
       <c r="O58">
-        <v>344</v>
+        <v>326</v>
       </c>
       <c r="P58">
-        <v>200</v>
+        <v>272</v>
       </c>
       <c r="Q58">
-        <v>1.104164468156767</v>
+        <v>1.081894773225169</v>
       </c>
       <c r="R58">
-        <v>0.3452742431497494</v>
+        <v>0.2723093109318601</v>
       </c>
       <c r="S58">
-        <v>1025</v>
+        <v>625</v>
       </c>
       <c r="T58">
-        <v>238</v>
+        <v>307</v>
       </c>
       <c r="U58">
-        <v>236</v>
+        <v>188</v>
       </c>
       <c r="V58">
-        <v>77</v>
+        <v>502</v>
       </c>
       <c r="W58">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="X58">
-        <v>1</v>
+        <v>25</v>
       </c>
       <c r="Y58">
-        <v>0.021573581464</v>
+        <v>0.022988776283</v>
       </c>
       <c r="Z58">
-        <v>0.05337911383219512</v>
+        <v>0.0843946276144</v>
       </c>
       <c r="AA58">
-        <v>64.720744392</v>
+        <v>68.96632884900001</v>
       </c>
       <c r="AB58">
-        <v>54.713591678</v>
+        <v>52.746642259</v>
       </c>
       <c r="AC58">
-        <v>11.353810386</v>
+        <v>19.518930456</v>
       </c>
       <c r="AD58">
-        <v>26.264182472</v>
+        <v>38.849704067</v>
       </c>
       <c r="AE58">
-        <v>41.794881063</v>
+        <v>53.364162061</v>
       </c>
       <c r="AF58">
-        <v>52.447994867</v>
+        <v>0</v>
       </c>
       <c r="AG58">
         <v>0</v>
@@ -6459,305 +6459,305 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>202308</v>
+        <v>14642</v>
       </c>
       <c r="B59">
-        <v>16</v>
+        <v>52</v>
       </c>
       <c r="C59">
-        <v>71</v>
+        <v>161</v>
       </c>
       <c r="D59">
-        <v>47</v>
+        <v>160</v>
       </c>
       <c r="E59">
-        <v>163</v>
+        <v>398</v>
       </c>
       <c r="F59">
-        <v>668</v>
+        <v>513</v>
       </c>
       <c r="G59">
-        <v>99</v>
+        <v>120</v>
       </c>
       <c r="H59">
-        <v>305</v>
+        <v>264</v>
       </c>
       <c r="I59">
-        <v>745</v>
+        <v>316</v>
       </c>
       <c r="J59">
-        <v>787</v>
+        <v>778</v>
       </c>
       <c r="K59">
-        <v>886</v>
+        <v>1016</v>
       </c>
       <c r="L59">
-        <v>587</v>
+        <v>469</v>
       </c>
       <c r="M59">
-        <v>282</v>
+        <v>398</v>
       </c>
       <c r="N59">
-        <v>168</v>
+        <v>213</v>
       </c>
       <c r="O59">
-        <v>490</v>
+        <v>343</v>
       </c>
       <c r="P59">
-        <v>587</v>
+        <v>561</v>
       </c>
       <c r="Q59">
-        <v>1.09492365969631</v>
+        <v>0.9987936301077621</v>
       </c>
       <c r="R59">
-        <v>0.322250747577578</v>
+        <v>0.2835345737394153</v>
       </c>
       <c r="S59">
-        <v>887</v>
+        <v>1178</v>
       </c>
       <c r="T59">
-        <v>579</v>
+        <v>249</v>
       </c>
       <c r="U59">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="V59">
-        <v>499</v>
+        <v>412</v>
       </c>
       <c r="W59">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="X59">
-        <v>91</v>
+        <v>302</v>
       </c>
       <c r="Y59">
-        <v>0.04204032349166666</v>
+        <v>0.037099377705</v>
       </c>
       <c r="Z59">
-        <v>0.1101116484949267</v>
+        <v>0.08461623573599321</v>
       </c>
       <c r="AA59">
-        <v>126.120970475</v>
+        <v>111.298133115</v>
       </c>
       <c r="AB59">
-        <v>97.669032215</v>
+        <v>99.67792569700001</v>
       </c>
       <c r="AC59">
-        <v>19.13071726</v>
+        <v>15.940092829</v>
       </c>
       <c r="AD59">
-        <v>46.468378901</v>
+        <v>40.413674673</v>
       </c>
       <c r="AE59">
-        <v>65.453929522</v>
+        <v>64.41886128500001</v>
       </c>
       <c r="AF59">
-        <v>85.908890035</v>
+        <v>85.88790569299999</v>
       </c>
       <c r="AG59">
-        <v>104.010235133</v>
+        <v>95.810562464</v>
       </c>
       <c r="AH59">
-        <v>0</v>
+        <v>99.15457831800001</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>202307</v>
+        <v>202305</v>
       </c>
       <c r="B60">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C60">
-        <v>31</v>
+        <v>74</v>
       </c>
       <c r="D60">
-        <v>47</v>
+        <v>128</v>
       </c>
       <c r="E60">
-        <v>26</v>
+        <v>280</v>
       </c>
       <c r="F60">
-        <v>454</v>
+        <v>856</v>
       </c>
       <c r="G60">
-        <v>130</v>
+        <v>190</v>
       </c>
       <c r="H60">
-        <v>334</v>
+        <v>405</v>
       </c>
       <c r="I60">
-        <v>374</v>
+        <v>185</v>
       </c>
       <c r="J60">
-        <v>1525</v>
+        <v>528</v>
       </c>
       <c r="K60">
-        <v>1583</v>
+        <v>863</v>
       </c>
       <c r="L60">
-        <v>392</v>
+        <v>832</v>
       </c>
       <c r="M60">
-        <v>277</v>
+        <v>180</v>
       </c>
       <c r="N60">
-        <v>229</v>
+        <v>506</v>
       </c>
       <c r="O60">
-        <v>320</v>
+        <v>430</v>
       </c>
       <c r="P60">
-        <v>199</v>
+        <v>189</v>
       </c>
       <c r="Q60">
-        <v>1.124587358779111</v>
+        <v>1.024691012798128</v>
       </c>
       <c r="R60">
-        <v>0.3355367099583627</v>
+        <v>0.2327512564272344</v>
       </c>
       <c r="S60">
-        <v>735</v>
+        <v>1236</v>
       </c>
       <c r="T60">
-        <v>290</v>
+        <v>210</v>
       </c>
       <c r="U60">
-        <v>99</v>
+        <v>127</v>
       </c>
       <c r="V60">
-        <v>282</v>
+        <v>560</v>
       </c>
       <c r="W60">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X60">
-        <v>2</v>
+        <v>139</v>
       </c>
       <c r="Y60">
-        <v>0.02569082278236667</v>
+        <v>0.0394719969723</v>
       </c>
       <c r="Z60">
-        <v>0.08457763514476191</v>
+        <v>0.08645107293042072</v>
       </c>
       <c r="AA60">
-        <v>77.0724683471</v>
+        <v>118.4159909169</v>
       </c>
       <c r="AB60">
-        <v>62.1645618314</v>
+        <v>106.853526142</v>
       </c>
       <c r="AC60">
-        <v>20.0003532635</v>
+        <v>17.9512129024</v>
       </c>
       <c r="AD60">
-        <v>38.5517698188</v>
+        <v>35.0458944059</v>
       </c>
       <c r="AE60">
-        <v>57.0645241494</v>
+        <v>55.3156272122</v>
       </c>
       <c r="AF60">
-        <v>0</v>
+        <v>74.8552253232</v>
       </c>
       <c r="AG60">
-        <v>0</v>
+        <v>91.9242211235</v>
       </c>
       <c r="AH60">
-        <v>0</v>
+        <v>107.9400711688</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>14674</v>
+        <v>14675</v>
       </c>
       <c r="B61">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C61">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D61">
-        <v>43</v>
+        <v>0</v>
       </c>
       <c r="E61">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="F61">
-        <v>664</v>
+        <v>0</v>
       </c>
       <c r="G61">
-        <v>112</v>
+        <v>0</v>
       </c>
       <c r="H61">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="I61">
-        <v>479</v>
+        <v>0</v>
       </c>
       <c r="J61">
-        <v>1302</v>
+        <v>3000</v>
       </c>
       <c r="K61">
-        <v>1371</v>
+        <v>3000</v>
       </c>
       <c r="L61">
-        <v>590</v>
+        <v>0</v>
       </c>
       <c r="M61">
-        <v>129</v>
+        <v>0</v>
       </c>
       <c r="N61">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="O61">
-        <v>326</v>
+        <v>0</v>
       </c>
       <c r="P61">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="Q61">
-        <v>1.081894773225169</v>
+        <v>0</v>
       </c>
       <c r="R61">
-        <v>0.2723093109318601</v>
+        <v>0</v>
       </c>
       <c r="S61">
-        <v>625</v>
+        <v>0</v>
       </c>
       <c r="T61">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="U61">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="V61">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="W61">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X61">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="Y61">
-        <v>0.022988776283</v>
+        <v>0</v>
       </c>
       <c r="Z61">
-        <v>0.0843946276144</v>
+        <v>0</v>
       </c>
       <c r="AA61">
-        <v>68.96632884900001</v>
+        <v>0</v>
       </c>
       <c r="AB61">
-        <v>52.746642259</v>
+        <v>0</v>
       </c>
       <c r="AC61">
-        <v>19.518930456</v>
+        <v>0</v>
       </c>
       <c r="AD61">
-        <v>38.849704067</v>
+        <v>0</v>
       </c>
       <c r="AE61">
-        <v>53.364162061</v>
+        <v>0</v>
       </c>
       <c r="AF61">
         <v>0</v>
@@ -6771,932 +6771,932 @@
     </row>
     <row r="62">
       <c r="A62">
-        <v>14642</v>
+        <v>14673</v>
       </c>
       <c r="B62">
-        <v>52</v>
+        <v>17</v>
       </c>
       <c r="C62">
-        <v>161</v>
+        <v>216</v>
       </c>
       <c r="D62">
-        <v>160</v>
+        <v>171</v>
       </c>
       <c r="E62">
-        <v>398</v>
+        <v>498</v>
       </c>
       <c r="F62">
-        <v>513</v>
+        <v>368</v>
       </c>
       <c r="G62">
-        <v>120</v>
+        <v>312</v>
       </c>
       <c r="H62">
-        <v>264</v>
+        <v>210</v>
       </c>
       <c r="I62">
-        <v>316</v>
+        <v>424</v>
       </c>
       <c r="J62">
-        <v>778</v>
+        <v>519</v>
       </c>
       <c r="K62">
-        <v>1016</v>
+        <v>784</v>
       </c>
       <c r="L62">
-        <v>469</v>
+        <v>368</v>
       </c>
       <c r="M62">
-        <v>398</v>
+        <v>191</v>
       </c>
       <c r="N62">
-        <v>213</v>
+        <v>419</v>
       </c>
       <c r="O62">
-        <v>343</v>
+        <v>728</v>
       </c>
       <c r="P62">
-        <v>561</v>
+        <v>510</v>
       </c>
       <c r="Q62">
-        <v>0.9987936301077621</v>
+        <v>1.055198249824007</v>
       </c>
       <c r="R62">
-        <v>0.2835345737394153</v>
+        <v>0.3000558028203971</v>
       </c>
       <c r="S62">
-        <v>1178</v>
+        <v>1314</v>
       </c>
       <c r="T62">
-        <v>249</v>
+        <v>237</v>
       </c>
       <c r="U62">
-        <v>135</v>
+        <v>221</v>
       </c>
       <c r="V62">
-        <v>412</v>
+        <v>433</v>
       </c>
       <c r="W62">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X62">
-        <v>302</v>
+        <v>266</v>
       </c>
       <c r="Y62">
-        <v>0.037099377705</v>
+        <v>0.03968565517433333</v>
       </c>
       <c r="Z62">
-        <v>0.08461623573599321</v>
+        <v>0.08077505495966514</v>
       </c>
       <c r="AA62">
-        <v>111.298133115</v>
+        <v>119.056965523</v>
       </c>
       <c r="AB62">
-        <v>99.67792569700001</v>
+        <v>106.138422217</v>
       </c>
       <c r="AC62">
-        <v>15.940092829</v>
+        <v>13.37032774</v>
       </c>
       <c r="AD62">
-        <v>40.413674673</v>
+        <v>30.293296328</v>
       </c>
       <c r="AE62">
-        <v>64.41886128500001</v>
+        <v>40.170302651</v>
       </c>
       <c r="AF62">
-        <v>85.88790569299999</v>
+        <v>58.623882499</v>
       </c>
       <c r="AG62">
-        <v>95.810562464</v>
+        <v>76.571656111</v>
       </c>
       <c r="AH62">
-        <v>99.15457831800001</v>
+        <v>93.370780098</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>202305</v>
+        <v>11417</v>
       </c>
       <c r="B63">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="C63">
-        <v>74</v>
+        <v>22</v>
       </c>
       <c r="D63">
-        <v>128</v>
+        <v>51</v>
       </c>
       <c r="E63">
-        <v>280</v>
+        <v>76</v>
       </c>
       <c r="F63">
-        <v>856</v>
+        <v>850</v>
       </c>
       <c r="G63">
-        <v>190</v>
+        <v>106</v>
       </c>
       <c r="H63">
-        <v>405</v>
+        <v>272</v>
       </c>
       <c r="I63">
-        <v>185</v>
+        <v>233</v>
       </c>
       <c r="J63">
-        <v>528</v>
+        <v>1287</v>
       </c>
       <c r="K63">
-        <v>863</v>
+        <v>1387</v>
       </c>
       <c r="L63">
-        <v>832</v>
+        <v>777</v>
       </c>
       <c r="M63">
-        <v>180</v>
+        <v>259</v>
       </c>
       <c r="N63">
-        <v>506</v>
+        <v>154</v>
       </c>
       <c r="O63">
-        <v>430</v>
+        <v>209</v>
       </c>
       <c r="P63">
-        <v>189</v>
+        <v>214</v>
       </c>
       <c r="Q63">
-        <v>1.024691012798128</v>
+        <v>1.008238060484067</v>
       </c>
       <c r="R63">
-        <v>0.2327512564272344</v>
+        <v>0.2294368904798512</v>
       </c>
       <c r="S63">
-        <v>1236</v>
+        <v>781</v>
       </c>
       <c r="T63">
-        <v>210</v>
+        <v>177</v>
       </c>
       <c r="U63">
-        <v>127</v>
+        <v>24</v>
       </c>
       <c r="V63">
-        <v>560</v>
+        <v>628</v>
       </c>
       <c r="W63">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="X63">
-        <v>139</v>
+        <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.0394719969723</v>
+        <v>0.036224344478</v>
       </c>
       <c r="Z63">
-        <v>0.08645107293042072</v>
+        <v>0.1274818138809219</v>
       </c>
       <c r="AA63">
-        <v>118.4159909169</v>
+        <v>108.673033434</v>
       </c>
       <c r="AB63">
-        <v>106.853526142</v>
+        <v>99.56329664099999</v>
       </c>
       <c r="AC63">
-        <v>17.9512129024</v>
+        <v>29.381515478</v>
       </c>
       <c r="AD63">
-        <v>35.0458944059</v>
+        <v>61.037862228</v>
       </c>
       <c r="AE63">
-        <v>55.3156272122</v>
+        <v>92.529795609</v>
       </c>
       <c r="AF63">
-        <v>74.8552253232</v>
+        <v>0</v>
       </c>
       <c r="AG63">
-        <v>91.9242211235</v>
+        <v>0</v>
       </c>
       <c r="AH63">
-        <v>107.9400711688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>14675</v>
+        <v>14672</v>
       </c>
       <c r="B64">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C64">
-        <v>0</v>
+        <v>75</v>
       </c>
       <c r="D64">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="E64">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="F64">
-        <v>0</v>
+        <v>460</v>
       </c>
       <c r="G64">
-        <v>0</v>
+        <v>404</v>
       </c>
       <c r="H64">
-        <v>0</v>
+        <v>574</v>
       </c>
       <c r="I64">
-        <v>0</v>
+        <v>333</v>
       </c>
       <c r="J64">
-        <v>3000</v>
+        <v>552</v>
       </c>
       <c r="K64">
-        <v>3000</v>
+        <v>849</v>
       </c>
       <c r="L64">
-        <v>0</v>
+        <v>419</v>
       </c>
       <c r="M64">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="N64">
-        <v>0</v>
+        <v>704</v>
       </c>
       <c r="O64">
-        <v>0</v>
+        <v>568</v>
       </c>
       <c r="P64">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="Q64">
-        <v>0</v>
+        <v>1.135363233527662</v>
       </c>
       <c r="R64">
-        <v>0</v>
+        <v>0.3464872101092515</v>
       </c>
       <c r="S64">
-        <v>0</v>
+        <v>1164</v>
       </c>
       <c r="T64">
-        <v>0</v>
+        <v>514</v>
       </c>
       <c r="U64">
-        <v>0</v>
+        <v>166</v>
       </c>
       <c r="V64">
-        <v>0</v>
+        <v>296</v>
       </c>
       <c r="W64">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X64">
-        <v>0</v>
+        <v>101</v>
       </c>
       <c r="Y64">
-        <v>0</v>
+        <v>0.04009430687</v>
       </c>
       <c r="Z64">
-        <v>0</v>
+        <v>0.08079822245274915</v>
       </c>
       <c r="AA64">
-        <v>0</v>
+        <v>120.28292061</v>
       </c>
       <c r="AB64">
-        <v>0</v>
+        <v>94.04913093499999</v>
       </c>
       <c r="AC64">
-        <v>0</v>
+        <v>24.05669496</v>
       </c>
       <c r="AD64">
-        <v>0</v>
+        <v>37.117964163</v>
       </c>
       <c r="AE64">
-        <v>0</v>
+        <v>54.367380646</v>
       </c>
       <c r="AF64">
-        <v>0</v>
+        <v>64.94725393</v>
       </c>
       <c r="AG64">
-        <v>0</v>
+        <v>80.330597814</v>
       </c>
       <c r="AH64">
-        <v>0</v>
+        <v>94.596163937</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>14673</v>
+        <v>202311</v>
       </c>
       <c r="B65">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C65">
-        <v>216</v>
+        <v>0</v>
       </c>
       <c r="D65">
-        <v>171</v>
+        <v>0</v>
       </c>
       <c r="E65">
-        <v>498</v>
+        <v>0</v>
       </c>
       <c r="F65">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="G65">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="H65">
-        <v>210</v>
+        <v>0</v>
       </c>
       <c r="I65">
-        <v>424</v>
+        <v>0</v>
       </c>
       <c r="J65">
-        <v>519</v>
+        <v>3000</v>
       </c>
       <c r="K65">
-        <v>784</v>
+        <v>3000</v>
       </c>
       <c r="L65">
-        <v>368</v>
+        <v>0</v>
       </c>
       <c r="M65">
-        <v>191</v>
+        <v>0</v>
       </c>
       <c r="N65">
-        <v>419</v>
+        <v>0</v>
       </c>
       <c r="O65">
-        <v>728</v>
+        <v>0</v>
       </c>
       <c r="P65">
-        <v>510</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>1.055198249824007</v>
+        <v>0</v>
       </c>
       <c r="R65">
-        <v>0.3000558028203971</v>
+        <v>0</v>
       </c>
       <c r="S65">
-        <v>1314</v>
+        <v>0</v>
       </c>
       <c r="T65">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="U65">
-        <v>221</v>
+        <v>0</v>
       </c>
       <c r="V65">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="W65">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X65">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="Y65">
-        <v>0.03968565517433333</v>
+        <v>0</v>
       </c>
       <c r="Z65">
-        <v>0.08077505495966514</v>
+        <v>0</v>
       </c>
       <c r="AA65">
-        <v>119.056965523</v>
+        <v>0</v>
       </c>
       <c r="AB65">
-        <v>106.138422217</v>
+        <v>0</v>
       </c>
       <c r="AC65">
-        <v>13.37032774</v>
+        <v>0</v>
       </c>
       <c r="AD65">
-        <v>30.293296328</v>
+        <v>0</v>
       </c>
       <c r="AE65">
-        <v>40.170302651</v>
+        <v>0</v>
       </c>
       <c r="AF65">
-        <v>58.623882499</v>
+        <v>0</v>
       </c>
       <c r="AG65">
-        <v>76.571656111</v>
+        <v>0</v>
       </c>
       <c r="AH65">
-        <v>93.370780098</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>11417</v>
+        <v>11418</v>
       </c>
       <c r="B66">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="C66">
-        <v>22</v>
+        <v>104</v>
       </c>
       <c r="D66">
-        <v>51</v>
+        <v>117</v>
       </c>
       <c r="E66">
-        <v>76</v>
+        <v>196</v>
       </c>
       <c r="F66">
-        <v>850</v>
+        <v>1059</v>
       </c>
       <c r="G66">
-        <v>106</v>
+        <v>197</v>
       </c>
       <c r="H66">
-        <v>272</v>
+        <v>343</v>
       </c>
       <c r="I66">
-        <v>233</v>
+        <v>304</v>
       </c>
       <c r="J66">
-        <v>1287</v>
+        <v>568</v>
       </c>
       <c r="K66">
-        <v>1387</v>
+        <v>652</v>
       </c>
       <c r="L66">
-        <v>777</v>
+        <v>903</v>
       </c>
       <c r="M66">
-        <v>259</v>
+        <v>283</v>
       </c>
       <c r="N66">
-        <v>154</v>
+        <v>378</v>
       </c>
       <c r="O66">
-        <v>209</v>
+        <v>371</v>
       </c>
       <c r="P66">
-        <v>214</v>
+        <v>413</v>
       </c>
       <c r="Q66">
-        <v>1.008238060484067</v>
+        <v>1.024382352321636</v>
       </c>
       <c r="R66">
-        <v>0.2294368904798512</v>
+        <v>0.2650083569058773</v>
       </c>
       <c r="S66">
-        <v>781</v>
+        <v>1493</v>
       </c>
       <c r="T66">
-        <v>177</v>
+        <v>237</v>
       </c>
       <c r="U66">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="V66">
-        <v>628</v>
+        <v>577</v>
       </c>
       <c r="W66">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="X66">
-        <v>0</v>
+        <v>40</v>
       </c>
       <c r="Y66">
-        <v>0.036224344478</v>
+        <v>0.06709461011166666</v>
       </c>
       <c r="Z66">
-        <v>0.1274818138809219</v>
+        <v>0.1231707510468855</v>
       </c>
       <c r="AA66">
-        <v>108.673033434</v>
+        <v>201.283830335</v>
       </c>
       <c r="AB66">
-        <v>99.56329664099999</v>
+        <v>183.893931313</v>
       </c>
       <c r="AC66">
-        <v>29.381515478</v>
+        <v>28.326910864</v>
       </c>
       <c r="AD66">
-        <v>61.037862228</v>
+        <v>62.087398558</v>
       </c>
       <c r="AE66">
-        <v>92.529795609</v>
+        <v>95.013650626</v>
       </c>
       <c r="AF66">
-        <v>0</v>
+        <v>127.480112912</v>
       </c>
       <c r="AG66">
-        <v>0</v>
+        <v>162.091526286</v>
       </c>
       <c r="AH66">
-        <v>0</v>
+        <v>194.844537196</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>14672</v>
+        <v>11416</v>
       </c>
       <c r="B67">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="C67">
-        <v>75</v>
+        <v>59</v>
       </c>
       <c r="D67">
-        <v>144</v>
+        <v>56</v>
       </c>
       <c r="E67">
-        <v>152</v>
+        <v>60</v>
       </c>
       <c r="F67">
-        <v>460</v>
+        <v>643</v>
       </c>
       <c r="G67">
-        <v>404</v>
+        <v>109</v>
       </c>
       <c r="H67">
-        <v>574</v>
+        <v>250</v>
       </c>
       <c r="I67">
-        <v>333</v>
+        <v>230</v>
       </c>
       <c r="J67">
-        <v>552</v>
+        <v>1011</v>
       </c>
       <c r="K67">
-        <v>849</v>
+        <v>1578</v>
       </c>
       <c r="L67">
-        <v>419</v>
+        <v>608</v>
       </c>
       <c r="M67">
-        <v>273</v>
+        <v>203</v>
       </c>
       <c r="N67">
-        <v>704</v>
+        <v>203</v>
       </c>
       <c r="O67">
-        <v>568</v>
+        <v>225</v>
       </c>
       <c r="P67">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="Q67">
-        <v>1.135363233527662</v>
+        <v>1.027763736469901</v>
       </c>
       <c r="R67">
-        <v>0.3464872101092515</v>
+        <v>0.2574604992721519</v>
       </c>
       <c r="S67">
-        <v>1164</v>
+        <v>815</v>
       </c>
       <c r="T67">
-        <v>514</v>
+        <v>177</v>
       </c>
       <c r="U67">
-        <v>166</v>
+        <v>17</v>
       </c>
       <c r="V67">
-        <v>296</v>
+        <v>407</v>
       </c>
       <c r="W67">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="X67">
-        <v>101</v>
+        <v>265</v>
       </c>
       <c r="Y67">
-        <v>0.04009430687</v>
+        <v>0.0284702540854</v>
       </c>
       <c r="Z67">
-        <v>0.08079822245274915</v>
+        <v>0.09383125675104294</v>
       </c>
       <c r="AA67">
-        <v>120.28292061</v>
+        <v>85.4107622562</v>
       </c>
       <c r="AB67">
-        <v>94.04913093499999</v>
+        <v>76.4724742521</v>
       </c>
       <c r="AC67">
-        <v>24.05669496</v>
+        <v>1.0950472179</v>
       </c>
       <c r="AD67">
-        <v>37.117964163</v>
+        <v>24.5105144233</v>
       </c>
       <c r="AE67">
-        <v>54.367380646</v>
+        <v>46.5057401888</v>
       </c>
       <c r="AF67">
-        <v>64.94725393</v>
+        <v>70.9797245953</v>
       </c>
       <c r="AG67">
-        <v>80.330597814</v>
+        <v>0</v>
       </c>
       <c r="AH67">
-        <v>94.596163937</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>202311</v>
+        <v>202310</v>
       </c>
       <c r="B68">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C68">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D68">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E68">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F68">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="G68">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H68">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="I68">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="J68">
-        <v>3000</v>
+        <v>208</v>
       </c>
       <c r="K68">
-        <v>3000</v>
+        <v>366</v>
       </c>
       <c r="L68">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="M68">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="N68">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="O68">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P68">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="Q68">
-        <v>0</v>
+        <v>1.108100885083979</v>
       </c>
       <c r="R68">
-        <v>0</v>
+        <v>0.3300137376845103</v>
       </c>
       <c r="S68">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="T68">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="U68">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="V68">
-        <v>0</v>
+        <v>348</v>
       </c>
       <c r="W68">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X68">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Y68">
-        <v>0</v>
+        <v>0.0595094838029</v>
       </c>
       <c r="Z68">
-        <v>0</v>
+        <v>0.1024035445229662</v>
       </c>
       <c r="AA68">
-        <v>0</v>
+        <v>178.5284514087</v>
       </c>
       <c r="AB68">
-        <v>0</v>
+        <v>142.2385233424</v>
       </c>
       <c r="AC68">
-        <v>0</v>
+        <v>26.9233680485</v>
       </c>
       <c r="AD68">
-        <v>0</v>
+        <v>52.376881969</v>
       </c>
       <c r="AE68">
-        <v>0</v>
+        <v>78.1632026851</v>
       </c>
       <c r="AF68">
-        <v>0</v>
+        <v>95.82696878260001</v>
       </c>
       <c r="AG68">
-        <v>0</v>
+        <v>119.295739353</v>
       </c>
       <c r="AH68">
-        <v>0</v>
+        <v>141.0301472726</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>11418</v>
+        <v>11419</v>
       </c>
       <c r="B69">
-        <v>28</v>
+        <v>0</v>
       </c>
       <c r="C69">
-        <v>104</v>
+        <v>0</v>
       </c>
       <c r="D69">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E69">
-        <v>196</v>
+        <v>0</v>
       </c>
       <c r="F69">
-        <v>1059</v>
+        <v>0</v>
       </c>
       <c r="G69">
-        <v>197</v>
+        <v>0</v>
       </c>
       <c r="H69">
-        <v>343</v>
+        <v>0</v>
       </c>
       <c r="I69">
-        <v>304</v>
+        <v>0</v>
       </c>
       <c r="J69">
-        <v>568</v>
+        <v>3000</v>
       </c>
       <c r="K69">
-        <v>652</v>
+        <v>3000</v>
       </c>
       <c r="L69">
-        <v>903</v>
+        <v>0</v>
       </c>
       <c r="M69">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="N69">
-        <v>378</v>
+        <v>0</v>
       </c>
       <c r="O69">
-        <v>371</v>
+        <v>0</v>
       </c>
       <c r="P69">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="Q69">
-        <v>1.024382352321636</v>
+        <v>0</v>
       </c>
       <c r="R69">
-        <v>0.2650083569058773</v>
+        <v>0</v>
       </c>
       <c r="S69">
-        <v>1493</v>
+        <v>0</v>
       </c>
       <c r="T69">
-        <v>237</v>
+        <v>0</v>
       </c>
       <c r="U69">
-        <v>39</v>
+        <v>0</v>
       </c>
       <c r="V69">
-        <v>577</v>
+        <v>0</v>
       </c>
       <c r="W69">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X69">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="Y69">
-        <v>0.06709461011166666</v>
+        <v>0</v>
       </c>
       <c r="Z69">
-        <v>0.1231707510468855</v>
+        <v>0</v>
       </c>
       <c r="AA69">
-        <v>201.283830335</v>
+        <v>0</v>
       </c>
       <c r="AB69">
-        <v>183.893931313</v>
+        <v>0</v>
       </c>
       <c r="AC69">
-        <v>28.326910864</v>
+        <v>0</v>
       </c>
       <c r="AD69">
-        <v>62.087398558</v>
+        <v>0</v>
       </c>
       <c r="AE69">
-        <v>95.013650626</v>
+        <v>0</v>
       </c>
       <c r="AF69">
-        <v>127.480112912</v>
+        <v>0</v>
       </c>
       <c r="AG69">
-        <v>162.091526286</v>
+        <v>0</v>
       </c>
       <c r="AH69">
-        <v>194.844537196</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>11416</v>
+        <v>11415</v>
       </c>
       <c r="B70">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C70">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D70">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E70">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F70">
-        <v>643</v>
+        <v>388</v>
       </c>
       <c r="G70">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="H70">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I70">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="J70">
-        <v>1011</v>
+        <v>2116</v>
       </c>
       <c r="K70">
-        <v>1578</v>
+        <v>2612</v>
       </c>
       <c r="L70">
-        <v>608</v>
+        <v>388</v>
       </c>
       <c r="M70">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="N70">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="O70">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="P70">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="Q70">
-        <v>1.027763736469901</v>
+        <v>0.8566952836443299</v>
       </c>
       <c r="R70">
-        <v>0.2574604992721519</v>
+        <v>0.0279363200257732</v>
       </c>
       <c r="S70">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="T70">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="U70">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V70">
-        <v>407</v>
+        <v>388</v>
       </c>
       <c r="W70">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X70">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="Y70">
-        <v>0.0284702540854</v>
+        <v>2.2021893988e-05</v>
       </c>
       <c r="Z70">
-        <v>0.09383125675104294</v>
+        <v>0</v>
       </c>
       <c r="AA70">
-        <v>85.4107622562</v>
+        <v>0.06606568196400001</v>
       </c>
       <c r="AB70">
-        <v>76.4724742521</v>
+        <v>0</v>
       </c>
       <c r="AC70">
-        <v>1.0950472179</v>
+        <v>0</v>
       </c>
       <c r="AD70">
-        <v>24.5105144233</v>
+        <v>0</v>
       </c>
       <c r="AE70">
-        <v>46.5057401888</v>
+        <v>0</v>
       </c>
       <c r="AF70">
-        <v>70.9797245953</v>
+        <v>0</v>
       </c>
       <c r="AG70">
         <v>0</v>
@@ -7707,302 +7707,302 @@
     </row>
     <row r="71">
       <c r="A71">
-        <v>202310</v>
+        <v>11417</v>
       </c>
       <c r="B71">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C71">
-        <v>109</v>
+        <v>202</v>
       </c>
       <c r="D71">
-        <v>137</v>
+        <v>181</v>
       </c>
       <c r="E71">
-        <v>192</v>
+        <v>406</v>
       </c>
       <c r="F71">
-        <v>755</v>
+        <v>665</v>
       </c>
       <c r="G71">
-        <v>215</v>
+        <v>155</v>
       </c>
       <c r="H71">
-        <v>490</v>
+        <v>341</v>
       </c>
       <c r="I71">
-        <v>714</v>
+        <v>358</v>
       </c>
       <c r="J71">
-        <v>208</v>
+        <v>302</v>
       </c>
       <c r="K71">
-        <v>366</v>
+        <v>671</v>
       </c>
       <c r="L71">
-        <v>628</v>
+        <v>608</v>
       </c>
       <c r="M71">
-        <v>462</v>
+        <v>251</v>
       </c>
       <c r="N71">
-        <v>409</v>
+        <v>470</v>
       </c>
       <c r="O71">
-        <v>600</v>
+        <v>606</v>
       </c>
       <c r="P71">
-        <v>535</v>
+        <v>394</v>
       </c>
       <c r="Q71">
-        <v>1.108100885083979</v>
+        <v>1.010798294833147</v>
       </c>
       <c r="R71">
-        <v>0.3300137376845103</v>
+        <v>0.2533186206711035</v>
       </c>
       <c r="S71">
-        <v>1389</v>
+        <v>1246</v>
       </c>
       <c r="T71">
-        <v>665</v>
+        <v>238</v>
       </c>
       <c r="U71">
-        <v>214</v>
+        <v>242</v>
       </c>
       <c r="V71">
-        <v>348</v>
+        <v>601</v>
       </c>
       <c r="W71">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="X71">
-        <v>102</v>
+        <v>359</v>
       </c>
       <c r="Y71">
-        <v>0.0595094838029</v>
+        <v>0.051901830622</v>
       </c>
       <c r="Z71">
-        <v>0.1024035445229662</v>
+        <v>0.1140169832407705</v>
       </c>
       <c r="AA71">
-        <v>178.5284514087</v>
+        <v>155.705491866</v>
       </c>
       <c r="AB71">
-        <v>142.2385233424</v>
+        <v>142.065161118</v>
       </c>
       <c r="AC71">
-        <v>26.9233680485</v>
+        <v>35.947439122</v>
       </c>
       <c r="AD71">
-        <v>52.376881969</v>
+        <v>64.21761419000001</v>
       </c>
       <c r="AE71">
-        <v>78.1632026851</v>
+        <v>86.913658161</v>
       </c>
       <c r="AF71">
-        <v>95.82696878260001</v>
+        <v>101.916427861</v>
       </c>
       <c r="AG71">
-        <v>119.295739353</v>
+        <v>107.917648646</v>
       </c>
       <c r="AH71">
-        <v>141.0301472726</v>
+        <v>127.79899625</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>11419</v>
+        <v>12070</v>
       </c>
       <c r="B72">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C72">
-        <v>0</v>
+        <v>66</v>
       </c>
       <c r="D72">
-        <v>0</v>
+        <v>81</v>
       </c>
       <c r="E72">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="F72">
-        <v>0</v>
+        <v>440</v>
       </c>
       <c r="G72">
-        <v>0</v>
+        <v>354</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>788</v>
       </c>
       <c r="I72">
-        <v>0</v>
+        <v>688</v>
       </c>
       <c r="J72">
-        <v>3000</v>
+        <v>266</v>
       </c>
       <c r="K72">
-        <v>3000</v>
+        <v>362</v>
       </c>
       <c r="L72">
-        <v>0</v>
+        <v>352</v>
       </c>
       <c r="M72">
-        <v>0</v>
+        <v>580</v>
       </c>
       <c r="N72">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="O72">
-        <v>0</v>
+        <v>741</v>
       </c>
       <c r="P72">
-        <v>0</v>
+        <v>413</v>
       </c>
       <c r="Q72">
-        <v>0</v>
+        <v>1.164406503026384</v>
       </c>
       <c r="R72">
-        <v>0</v>
+        <v>0.3726102596406368</v>
       </c>
       <c r="S72">
-        <v>0</v>
+        <v>1310</v>
       </c>
       <c r="T72">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="U72">
-        <v>0</v>
+        <v>95</v>
       </c>
       <c r="V72">
-        <v>0</v>
+        <v>372</v>
       </c>
       <c r="W72">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="X72">
-        <v>0</v>
+        <v>125</v>
       </c>
       <c r="Y72">
-        <v>0</v>
+        <v>0.062181468673</v>
       </c>
       <c r="Z72">
-        <v>0</v>
+        <v>0.1033076172</v>
       </c>
       <c r="AA72">
-        <v>0</v>
+        <v>186.544406019</v>
       </c>
       <c r="AB72">
-        <v>0</v>
+        <v>135.332978532</v>
       </c>
       <c r="AC72">
-        <v>0</v>
+        <v>27.371465134</v>
       </c>
       <c r="AD72">
-        <v>0</v>
+        <v>52.356568712</v>
       </c>
       <c r="AE72">
-        <v>0</v>
+        <v>77.9781933</v>
       </c>
       <c r="AF72">
-        <v>0</v>
+        <v>101.903279745</v>
       </c>
       <c r="AG72">
-        <v>0</v>
+        <v>123.107824233</v>
       </c>
       <c r="AH72">
-        <v>0</v>
+        <v>137.905860639</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>11415</v>
+        <v>12069</v>
       </c>
       <c r="B73">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C73">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="D73">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="E73">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="F73">
-        <v>388</v>
+        <v>629</v>
       </c>
       <c r="G73">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>167</v>
       </c>
       <c r="I73">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="J73">
-        <v>2116</v>
+        <v>1766</v>
       </c>
       <c r="K73">
-        <v>2612</v>
+        <v>1815</v>
       </c>
       <c r="L73">
-        <v>388</v>
+        <v>581</v>
       </c>
       <c r="M73">
-        <v>0</v>
+        <v>139</v>
       </c>
       <c r="N73">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="O73">
-        <v>0</v>
+        <v>169</v>
       </c>
       <c r="P73">
-        <v>0</v>
+        <v>104</v>
       </c>
       <c r="Q73">
-        <v>0.8566952836443299</v>
+        <v>0.9856517652212659</v>
       </c>
       <c r="R73">
-        <v>0.0279363200257732</v>
+        <v>0.2160462492025317</v>
       </c>
       <c r="S73">
-        <v>0</v>
+        <v>552</v>
       </c>
       <c r="T73">
-        <v>0</v>
+        <v>99</v>
       </c>
       <c r="U73">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="V73">
-        <v>388</v>
+        <v>471</v>
       </c>
       <c r="W73">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X73">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="Y73">
-        <v>2.2021893988e-05</v>
+        <v>0.02638500274793667</v>
       </c>
       <c r="Z73">
-        <v>0</v>
+        <v>0.1280770227355073</v>
       </c>
       <c r="AA73">
-        <v>0.06606568196400001</v>
+        <v>79.15500824381</v>
       </c>
       <c r="AB73">
-        <v>0</v>
+        <v>70.69851654999999</v>
       </c>
       <c r="AC73">
-        <v>0</v>
+        <v>34.634018101</v>
       </c>
       <c r="AD73">
-        <v>0</v>
+        <v>65.970035173</v>
       </c>
       <c r="AE73">
         <v>0</v>
@@ -8019,521 +8019,209 @@
     </row>
     <row r="74">
       <c r="A74">
-        <v>11417</v>
+        <v>202309</v>
       </c>
       <c r="B74">
-        <v>21</v>
+        <v>4</v>
       </c>
       <c r="C74">
-        <v>202</v>
+        <v>7</v>
       </c>
       <c r="D74">
-        <v>181</v>
+        <v>4</v>
       </c>
       <c r="E74">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="F74">
-        <v>665</v>
+        <v>1767</v>
       </c>
       <c r="G74">
-        <v>155</v>
+        <v>27</v>
       </c>
       <c r="H74">
-        <v>341</v>
+        <v>31</v>
       </c>
       <c r="I74">
-        <v>358</v>
+        <v>60</v>
       </c>
       <c r="J74">
-        <v>302</v>
+        <v>1036</v>
       </c>
       <c r="K74">
-        <v>671</v>
+        <v>1100</v>
       </c>
       <c r="L74">
-        <v>608</v>
+        <v>1766</v>
       </c>
       <c r="M74">
-        <v>251</v>
+        <v>19</v>
       </c>
       <c r="N74">
-        <v>470</v>
+        <v>38</v>
       </c>
       <c r="O74">
-        <v>606</v>
+        <v>41</v>
       </c>
       <c r="P74">
-        <v>394</v>
+        <v>36</v>
       </c>
       <c r="Q74">
-        <v>1.010798294833147</v>
+        <v>0.8767911432329474</v>
       </c>
       <c r="R74">
-        <v>0.2533186206711035</v>
+        <v>0.07115432117789473</v>
       </c>
       <c r="S74">
-        <v>1246</v>
+        <v>162</v>
       </c>
       <c r="T74">
-        <v>238</v>
+        <v>17</v>
       </c>
       <c r="U74">
-        <v>242</v>
+        <v>4</v>
       </c>
       <c r="V74">
-        <v>601</v>
+        <v>1715</v>
       </c>
       <c r="W74">
         <v>2</v>
       </c>
       <c r="X74">
-        <v>359</v>
+        <v>12</v>
       </c>
       <c r="Y74">
-        <v>0.051901830622</v>
+        <v>0.004957337164945667</v>
       </c>
       <c r="Z74">
-        <v>0.1140169832407705</v>
+        <v>0.08255573728395062</v>
       </c>
       <c r="AA74">
-        <v>155.705491866</v>
+        <v>14.872011494837</v>
       </c>
       <c r="AB74">
-        <v>142.065161118</v>
+        <v>13.37402944</v>
       </c>
       <c r="AC74">
-        <v>35.947439122</v>
+        <v>0</v>
       </c>
       <c r="AD74">
-        <v>64.21761419000001</v>
+        <v>0</v>
       </c>
       <c r="AE74">
-        <v>86.913658161</v>
+        <v>0</v>
       </c>
       <c r="AF74">
-        <v>101.916427861</v>
+        <v>0</v>
       </c>
       <c r="AG74">
-        <v>107.917648646</v>
+        <v>0</v>
       </c>
       <c r="AH74">
-        <v>127.79899625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>12070</v>
+        <v>12071</v>
       </c>
       <c r="B75">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C75">
-        <v>66</v>
+        <v>165</v>
       </c>
       <c r="D75">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="E75">
-        <v>204</v>
+        <v>246</v>
       </c>
       <c r="F75">
-        <v>440</v>
+        <v>339</v>
       </c>
       <c r="G75">
-        <v>354</v>
+        <v>252</v>
       </c>
       <c r="H75">
-        <v>788</v>
+        <v>585</v>
       </c>
       <c r="I75">
-        <v>688</v>
+        <v>483</v>
       </c>
       <c r="J75">
-        <v>266</v>
+        <v>371</v>
       </c>
       <c r="K75">
-        <v>362</v>
+        <v>777</v>
       </c>
       <c r="L75">
-        <v>352</v>
+        <v>276</v>
       </c>
       <c r="M75">
-        <v>580</v>
+        <v>437</v>
       </c>
       <c r="N75">
-        <v>552</v>
+        <v>502</v>
       </c>
       <c r="O75">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="P75">
-        <v>413</v>
+        <v>309</v>
       </c>
       <c r="Q75">
-        <v>1.164406503026384</v>
+        <v>1.115940357567431</v>
       </c>
       <c r="R75">
-        <v>0.3726102596406368</v>
+        <v>0.357009343071525</v>
       </c>
       <c r="S75">
-        <v>1310</v>
+        <v>1427</v>
       </c>
       <c r="T75">
-        <v>850</v>
+        <v>490</v>
       </c>
       <c r="U75">
-        <v>95</v>
+        <v>114</v>
       </c>
       <c r="V75">
-        <v>372</v>
+        <v>187</v>
       </c>
       <c r="W75">
-        <v>11</v>
+        <v>5</v>
       </c>
       <c r="X75">
-        <v>125</v>
+        <v>115</v>
       </c>
       <c r="Y75">
-        <v>0.062181468673</v>
+        <v>0.06347816744133333</v>
       </c>
       <c r="Z75">
-        <v>0.1033076172</v>
+        <v>0.1100214333721093</v>
       </c>
       <c r="AA75">
-        <v>186.544406019</v>
+        <v>190.434502324</v>
       </c>
       <c r="AB75">
-        <v>135.332978532</v>
+        <v>157.000585422</v>
       </c>
       <c r="AC75">
-        <v>27.371465134</v>
+        <v>26.338606439</v>
       </c>
       <c r="AD75">
-        <v>52.356568712</v>
+        <v>56.209735733</v>
       </c>
       <c r="AE75">
-        <v>77.9781933</v>
+        <v>80.57376613700001</v>
       </c>
       <c r="AF75">
-        <v>101.903279745</v>
+        <v>106.924648905</v>
       </c>
       <c r="AG75">
-        <v>123.107824233</v>
+        <v>138.208306918</v>
       </c>
       <c r="AH75">
-        <v>137.905860639</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76">
-        <v>12069</v>
-      </c>
-      <c r="B76">
-        <v>10</v>
-      </c>
-      <c r="C76">
-        <v>46</v>
-      </c>
-      <c r="D76">
-        <v>76</v>
-      </c>
-      <c r="E76">
-        <v>57</v>
-      </c>
-      <c r="F76">
-        <v>629</v>
-      </c>
-      <c r="G76">
-        <v>80</v>
-      </c>
-      <c r="H76">
-        <v>167</v>
-      </c>
-      <c r="I76">
-        <v>120</v>
-      </c>
-      <c r="J76">
-        <v>1766</v>
-      </c>
-      <c r="K76">
-        <v>1815</v>
-      </c>
-      <c r="L76">
-        <v>581</v>
-      </c>
-      <c r="M76">
-        <v>139</v>
-      </c>
-      <c r="N76">
-        <v>192</v>
-      </c>
-      <c r="O76">
-        <v>169</v>
-      </c>
-      <c r="P76">
-        <v>104</v>
-      </c>
-      <c r="Q76">
-        <v>0.9856517652212659</v>
-      </c>
-      <c r="R76">
-        <v>0.2160462492025317</v>
-      </c>
-      <c r="S76">
-        <v>552</v>
-      </c>
-      <c r="T76">
-        <v>99</v>
-      </c>
-      <c r="U76">
-        <v>62</v>
-      </c>
-      <c r="V76">
-        <v>471</v>
-      </c>
-      <c r="W76">
-        <v>1</v>
-      </c>
-      <c r="X76">
-        <v>12</v>
-      </c>
-      <c r="Y76">
-        <v>0.02638500274793667</v>
-      </c>
-      <c r="Z76">
-        <v>0.1280770227355073</v>
-      </c>
-      <c r="AA76">
-        <v>79.15500824381</v>
-      </c>
-      <c r="AB76">
-        <v>70.69851654999999</v>
-      </c>
-      <c r="AC76">
-        <v>34.634018101</v>
-      </c>
-      <c r="AD76">
-        <v>65.970035173</v>
-      </c>
-      <c r="AE76">
-        <v>0</v>
-      </c>
-      <c r="AF76">
-        <v>0</v>
-      </c>
-      <c r="AG76">
-        <v>0</v>
-      </c>
-      <c r="AH76">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77">
-        <v>202309</v>
-      </c>
-      <c r="B77">
-        <v>4</v>
-      </c>
-      <c r="C77">
-        <v>7</v>
-      </c>
-      <c r="D77">
-        <v>4</v>
-      </c>
-      <c r="E77">
-        <v>0</v>
-      </c>
-      <c r="F77">
-        <v>1767</v>
-      </c>
-      <c r="G77">
-        <v>27</v>
-      </c>
-      <c r="H77">
-        <v>31</v>
-      </c>
-      <c r="I77">
-        <v>60</v>
-      </c>
-      <c r="J77">
-        <v>1036</v>
-      </c>
-      <c r="K77">
-        <v>1100</v>
-      </c>
-      <c r="L77">
-        <v>1766</v>
-      </c>
-      <c r="M77">
-        <v>19</v>
-      </c>
-      <c r="N77">
-        <v>38</v>
-      </c>
-      <c r="O77">
-        <v>41</v>
-      </c>
-      <c r="P77">
-        <v>36</v>
-      </c>
-      <c r="Q77">
-        <v>0.8767911432329474</v>
-      </c>
-      <c r="R77">
-        <v>0.07115432117789473</v>
-      </c>
-      <c r="S77">
-        <v>162</v>
-      </c>
-      <c r="T77">
-        <v>17</v>
-      </c>
-      <c r="U77">
-        <v>4</v>
-      </c>
-      <c r="V77">
-        <v>1715</v>
-      </c>
-      <c r="W77">
-        <v>2</v>
-      </c>
-      <c r="X77">
-        <v>12</v>
-      </c>
-      <c r="Y77">
-        <v>0.004957337164945667</v>
-      </c>
-      <c r="Z77">
-        <v>0.08255573728395062</v>
-      </c>
-      <c r="AA77">
-        <v>14.872011494837</v>
-      </c>
-      <c r="AB77">
-        <v>13.37402944</v>
-      </c>
-      <c r="AC77">
-        <v>0</v>
-      </c>
-      <c r="AD77">
-        <v>0</v>
-      </c>
-      <c r="AE77">
-        <v>0</v>
-      </c>
-      <c r="AF77">
-        <v>0</v>
-      </c>
-      <c r="AG77">
-        <v>0</v>
-      </c>
-      <c r="AH77">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78">
-        <v>12071</v>
-      </c>
-      <c r="B78">
-        <v>28</v>
-      </c>
-      <c r="C78">
-        <v>165</v>
-      </c>
-      <c r="D78">
-        <v>125</v>
-      </c>
-      <c r="E78">
-        <v>246</v>
-      </c>
-      <c r="F78">
-        <v>339</v>
-      </c>
-      <c r="G78">
-        <v>252</v>
-      </c>
-      <c r="H78">
-        <v>585</v>
-      </c>
-      <c r="I78">
-        <v>483</v>
-      </c>
-      <c r="J78">
-        <v>371</v>
-      </c>
-      <c r="K78">
-        <v>777</v>
-      </c>
-      <c r="L78">
-        <v>276</v>
-      </c>
-      <c r="M78">
-        <v>437</v>
-      </c>
-      <c r="N78">
-        <v>502</v>
-      </c>
-      <c r="O78">
-        <v>699</v>
-      </c>
-      <c r="P78">
-        <v>309</v>
-      </c>
-      <c r="Q78">
-        <v>1.115940357567431</v>
-      </c>
-      <c r="R78">
-        <v>0.357009343071525</v>
-      </c>
-      <c r="S78">
-        <v>1427</v>
-      </c>
-      <c r="T78">
-        <v>490</v>
-      </c>
-      <c r="U78">
-        <v>114</v>
-      </c>
-      <c r="V78">
-        <v>187</v>
-      </c>
-      <c r="W78">
-        <v>5</v>
-      </c>
-      <c r="X78">
-        <v>115</v>
-      </c>
-      <c r="Y78">
-        <v>0.06347816744133333</v>
-      </c>
-      <c r="Z78">
-        <v>0.1100214333721093</v>
-      </c>
-      <c r="AA78">
-        <v>190.434502324</v>
-      </c>
-      <c r="AB78">
-        <v>157.000585422</v>
-      </c>
-      <c r="AC78">
-        <v>26.338606439</v>
-      </c>
-      <c r="AD78">
-        <v>56.209735733</v>
-      </c>
-      <c r="AE78">
-        <v>80.57376613700001</v>
-      </c>
-      <c r="AF78">
-        <v>106.924648905</v>
-      </c>
-      <c r="AG78">
-        <v>138.208306918</v>
-      </c>
-      <c r="AH78">
         <v>158.930296279</v>
       </c>
     </row>

--- a/summary_tracking.xlsx
+++ b/summary_tracking.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AH75"/>
+  <dimension ref="A1:AH77"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -947,97 +947,97 @@
     </row>
     <row r="6">
       <c r="A6">
-        <v>12054</v>
+        <v>14681</v>
       </c>
       <c r="B6">
-        <v>17</v>
+        <v>3</v>
       </c>
       <c r="C6">
-        <v>79</v>
+        <v>38</v>
       </c>
       <c r="D6">
-        <v>124</v>
+        <v>59</v>
       </c>
       <c r="E6">
-        <v>37</v>
+        <v>163</v>
       </c>
       <c r="F6">
-        <v>879</v>
+        <v>267</v>
       </c>
       <c r="G6">
-        <v>80</v>
+        <v>151</v>
       </c>
       <c r="H6">
-        <v>94</v>
+        <v>239</v>
       </c>
       <c r="I6">
-        <v>109</v>
+        <v>299</v>
       </c>
       <c r="J6">
-        <v>1189</v>
+        <v>1681</v>
       </c>
       <c r="K6">
-        <v>1581</v>
+        <v>1781</v>
       </c>
       <c r="L6">
-        <v>853</v>
+        <v>229</v>
       </c>
       <c r="M6">
-        <v>177</v>
+        <v>126</v>
       </c>
       <c r="N6">
-        <v>159</v>
+        <v>278</v>
       </c>
       <c r="O6">
-        <v>153</v>
+        <v>305</v>
       </c>
       <c r="P6">
-        <v>77</v>
+        <v>281</v>
       </c>
       <c r="Q6">
-        <v>0.9352446111799859</v>
+        <v>1.102092503940935</v>
       </c>
       <c r="R6">
-        <v>0.1649412178745595</v>
+        <v>0.315983278195242</v>
       </c>
       <c r="S6">
-        <v>531</v>
+        <v>682</v>
       </c>
       <c r="T6">
-        <v>8</v>
+        <v>152</v>
       </c>
       <c r="U6">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="V6">
-        <v>746</v>
+        <v>282</v>
       </c>
       <c r="W6">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X6">
-        <v>34</v>
+        <v>146</v>
       </c>
       <c r="Y6">
-        <v>0.01855599074310567</v>
+        <v>0.02202991838653333</v>
       </c>
       <c r="Z6">
-        <v>0.1026148635216572</v>
+        <v>0.08405118257507331</v>
       </c>
       <c r="AA6">
-        <v>55.667972229317</v>
+        <v>66.0897551596</v>
       </c>
       <c r="AB6">
-        <v>54.48849253</v>
+        <v>57.3229065162</v>
       </c>
       <c r="AC6">
-        <v>24.715965426</v>
+        <v>17.6573046452</v>
       </c>
       <c r="AD6">
-        <v>51.07043798</v>
+        <v>37.2234773939</v>
       </c>
       <c r="AE6">
-        <v>0</v>
+        <v>51.2659130981</v>
       </c>
       <c r="AF6">
         <v>0</v>
@@ -1051,94 +1051,94 @@
     </row>
     <row r="7">
       <c r="A7">
-        <v>14682</v>
+        <v>12054</v>
       </c>
       <c r="B7">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="D7">
-        <v>0</v>
+        <v>124</v>
       </c>
       <c r="E7">
-        <v>0</v>
+        <v>37</v>
       </c>
       <c r="F7">
-        <v>0</v>
+        <v>879</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>80</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>94</v>
       </c>
       <c r="I7">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="J7">
-        <v>3000</v>
+        <v>1189</v>
       </c>
       <c r="K7">
-        <v>3000</v>
+        <v>1581</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>853</v>
       </c>
       <c r="M7">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>159</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>153</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>77</v>
       </c>
       <c r="Q7">
-        <v>0</v>
+        <v>0.9352446111799859</v>
       </c>
       <c r="R7">
-        <v>0</v>
+        <v>0.1649412178745595</v>
       </c>
       <c r="S7">
-        <v>0</v>
+        <v>531</v>
       </c>
       <c r="T7">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="U7">
-        <v>0</v>
+        <v>134</v>
       </c>
       <c r="V7">
-        <v>0</v>
+        <v>746</v>
       </c>
       <c r="W7">
         <v>0</v>
       </c>
       <c r="X7">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="Y7">
-        <v>0</v>
+        <v>0.01855599074310567</v>
       </c>
       <c r="Z7">
-        <v>0</v>
+        <v>0.1026148635216572</v>
       </c>
       <c r="AA7">
-        <v>0</v>
+        <v>55.667972229317</v>
       </c>
       <c r="AB7">
-        <v>0</v>
+        <v>54.48849253</v>
       </c>
       <c r="AC7">
-        <v>0</v>
+        <v>24.715965426</v>
       </c>
       <c r="AD7">
-        <v>0</v>
+        <v>51.07043798</v>
       </c>
       <c r="AE7">
         <v>0</v>
@@ -1155,7 +1155,7 @@
     </row>
     <row r="8">
       <c r="A8">
-        <v>14799</v>
+        <v>14682</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -1259,215 +1259,215 @@
     </row>
     <row r="9">
       <c r="A9">
-        <v>14797</v>
+        <v>14799</v>
       </c>
       <c r="B9">
-        <v>25</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>117</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>731</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>361</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>392</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>691</v>
+        <v>3000</v>
       </c>
       <c r="K9">
-        <v>915</v>
+        <v>3000</v>
       </c>
       <c r="L9">
-        <v>617</v>
+        <v>0</v>
       </c>
       <c r="M9">
-        <v>312</v>
+        <v>0</v>
       </c>
       <c r="N9">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>431</v>
+        <v>0</v>
       </c>
       <c r="P9">
-        <v>346</v>
+        <v>0</v>
       </c>
       <c r="Q9">
-        <v>1.037476939242398</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>0.2922231395836931</v>
+        <v>0</v>
       </c>
       <c r="S9">
-        <v>1480</v>
+        <v>0</v>
       </c>
       <c r="T9">
-        <v>246</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V9">
-        <v>307</v>
+        <v>0</v>
       </c>
       <c r="W9">
-        <v>7</v>
+        <v>0</v>
       </c>
       <c r="X9">
-        <v>85</v>
+        <v>0</v>
       </c>
       <c r="Y9">
-        <v>0.04987388722416667</v>
+        <v>0</v>
       </c>
       <c r="Z9">
-        <v>0.09127822522297298</v>
+        <v>0</v>
       </c>
       <c r="AA9">
-        <v>149.6216616725</v>
+        <v>0</v>
       </c>
       <c r="AB9">
-        <v>135.09177333</v>
+        <v>0</v>
       </c>
       <c r="AC9">
-        <v>19.148443469</v>
+        <v>0</v>
       </c>
       <c r="AD9">
-        <v>48.797402428</v>
+        <v>0</v>
       </c>
       <c r="AE9">
-        <v>76.996396233</v>
+        <v>0</v>
       </c>
       <c r="AF9">
-        <v>97.496614224</v>
+        <v>0</v>
       </c>
       <c r="AG9">
-        <v>116.082207546</v>
+        <v>0</v>
       </c>
       <c r="AH9">
-        <v>134.850822292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>14681</v>
+        <v>14797</v>
       </c>
       <c r="B10">
-        <v>0</v>
+        <v>25</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>90</v>
       </c>
       <c r="D10">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="E10">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="F10">
-        <v>0</v>
+        <v>731</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>361</v>
       </c>
       <c r="I10">
-        <v>0</v>
+        <v>392</v>
       </c>
       <c r="J10">
-        <v>3000</v>
+        <v>691</v>
       </c>
       <c r="K10">
-        <v>3000</v>
+        <v>915</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>617</v>
       </c>
       <c r="M10">
-        <v>0</v>
+        <v>312</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>379</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>346</v>
       </c>
       <c r="Q10">
-        <v>0</v>
+        <v>1.037476939242398</v>
       </c>
       <c r="R10">
-        <v>0</v>
+        <v>0.2922231395836931</v>
       </c>
       <c r="S10">
-        <v>0</v>
+        <v>1480</v>
       </c>
       <c r="T10">
-        <v>0</v>
+        <v>246</v>
       </c>
       <c r="U10">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="V10">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="W10">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="X10">
-        <v>0</v>
+        <v>85</v>
       </c>
       <c r="Y10">
-        <v>0</v>
+        <v>0.04987388722416667</v>
       </c>
       <c r="Z10">
-        <v>0</v>
+        <v>0.09127822522297298</v>
       </c>
       <c r="AA10">
-        <v>0</v>
+        <v>149.6216616725</v>
       </c>
       <c r="AB10">
-        <v>0</v>
+        <v>135.09177333</v>
       </c>
       <c r="AC10">
-        <v>0</v>
+        <v>19.148443469</v>
       </c>
       <c r="AD10">
-        <v>0</v>
+        <v>48.797402428</v>
       </c>
       <c r="AE10">
-        <v>0</v>
+        <v>76.996396233</v>
       </c>
       <c r="AF10">
-        <v>0</v>
+        <v>97.496614224</v>
       </c>
       <c r="AG10">
-        <v>0</v>
+        <v>116.082207546</v>
       </c>
       <c r="AH10">
-        <v>0</v>
+        <v>134.850822292</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>14682</v>
+        <v>14681</v>
       </c>
       <c r="B11">
         <v>0</v>
@@ -1571,215 +1571,215 @@
     </row>
     <row r="12">
       <c r="A12">
-        <v>14684</v>
+        <v>14682</v>
       </c>
       <c r="B12">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="C12">
-        <v>111</v>
+        <v>0</v>
       </c>
       <c r="D12">
-        <v>54</v>
+        <v>0</v>
       </c>
       <c r="E12">
-        <v>190</v>
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="G12">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="H12">
-        <v>609</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>612</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>376</v>
+        <v>3000</v>
       </c>
       <c r="K12">
-        <v>474</v>
+        <v>3000</v>
       </c>
       <c r="L12">
-        <v>390</v>
+        <v>0</v>
       </c>
       <c r="M12">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="N12">
-        <v>631</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>646</v>
+        <v>0</v>
       </c>
       <c r="P12">
-        <v>518</v>
+        <v>0</v>
       </c>
       <c r="Q12">
-        <v>1.116595863685669</v>
+        <v>0</v>
       </c>
       <c r="R12">
-        <v>0.3470361553206651</v>
+        <v>0</v>
       </c>
       <c r="S12">
-        <v>1752</v>
+        <v>0</v>
       </c>
       <c r="T12">
-        <v>152</v>
+        <v>0</v>
       </c>
       <c r="U12">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="V12">
-        <v>268</v>
+        <v>0</v>
       </c>
       <c r="W12">
-        <v>49</v>
+        <v>0</v>
       </c>
       <c r="X12">
-        <v>144</v>
+        <v>0</v>
       </c>
       <c r="Y12">
-        <v>0.03973758312196667</v>
+        <v>0</v>
       </c>
       <c r="Z12">
-        <v>0.06383915623527397</v>
+        <v>0</v>
       </c>
       <c r="AA12">
-        <v>119.2127493659</v>
+        <v>0</v>
       </c>
       <c r="AB12">
-        <v>111.8462017242</v>
+        <v>0</v>
       </c>
       <c r="AC12">
-        <v>15.9122183813</v>
+        <v>0</v>
       </c>
       <c r="AD12">
-        <v>27.9718832362</v>
+        <v>0</v>
       </c>
       <c r="AE12">
-        <v>38.5110019221</v>
+        <v>0</v>
       </c>
       <c r="AF12">
-        <v>55.8808590596</v>
+        <v>0</v>
       </c>
       <c r="AG12">
-        <v>69.97903018229999</v>
+        <v>0</v>
       </c>
       <c r="AH12">
-        <v>87.1682587289</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>12058</v>
+        <v>14684</v>
       </c>
       <c r="B13">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>111</v>
       </c>
       <c r="D13">
-        <v>0</v>
+        <v>54</v>
       </c>
       <c r="E13">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="F13">
-        <v>0</v>
+        <v>512</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>609</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>612</v>
       </c>
       <c r="J13">
-        <v>3000</v>
+        <v>376</v>
       </c>
       <c r="K13">
-        <v>3000</v>
+        <v>474</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>390</v>
       </c>
       <c r="M13">
-        <v>0</v>
+        <v>341</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>631</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>646</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="Q13">
-        <v>0</v>
+        <v>1.116595863685669</v>
       </c>
       <c r="R13">
-        <v>0</v>
+        <v>0.3470361553206651</v>
       </c>
       <c r="S13">
-        <v>0</v>
+        <v>1752</v>
       </c>
       <c r="T13">
-        <v>0</v>
+        <v>152</v>
       </c>
       <c r="U13">
-        <v>0</v>
+        <v>305</v>
       </c>
       <c r="V13">
-        <v>0</v>
+        <v>268</v>
       </c>
       <c r="W13">
-        <v>0</v>
+        <v>49</v>
       </c>
       <c r="X13">
-        <v>0</v>
+        <v>144</v>
       </c>
       <c r="Y13">
-        <v>0</v>
+        <v>0.03973758312196667</v>
       </c>
       <c r="Z13">
-        <v>0</v>
+        <v>0.06383915623527397</v>
       </c>
       <c r="AA13">
-        <v>0</v>
+        <v>119.2127493659</v>
       </c>
       <c r="AB13">
-        <v>0</v>
+        <v>111.8462017242</v>
       </c>
       <c r="AC13">
-        <v>0</v>
+        <v>15.9122183813</v>
       </c>
       <c r="AD13">
-        <v>0</v>
+        <v>27.9718832362</v>
       </c>
       <c r="AE13">
-        <v>0</v>
+        <v>38.5110019221</v>
       </c>
       <c r="AF13">
-        <v>0</v>
+        <v>55.8808590596</v>
       </c>
       <c r="AG13">
-        <v>0</v>
+        <v>69.97903018229999</v>
       </c>
       <c r="AH13">
-        <v>0</v>
+        <v>87.1682587289</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>12056</v>
+        <v>12058</v>
       </c>
       <c r="B14">
         <v>0</v>
@@ -1883,7 +1883,7 @@
     </row>
     <row r="15">
       <c r="A15">
-        <v>12055</v>
+        <v>12056</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -1987,311 +1987,311 @@
     </row>
     <row r="16">
       <c r="A16">
-        <v>12057</v>
+        <v>12055</v>
       </c>
       <c r="B16">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="C16">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="D16">
-        <v>153</v>
+        <v>0</v>
       </c>
       <c r="E16">
-        <v>308</v>
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>347</v>
+        <v>0</v>
       </c>
       <c r="G16">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="H16">
-        <v>516</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>512</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>227</v>
+        <v>3000</v>
       </c>
       <c r="K16">
-        <v>517</v>
+        <v>3000</v>
       </c>
       <c r="L16">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="M16">
-        <v>300</v>
+        <v>0</v>
       </c>
       <c r="N16">
-        <v>621</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>696</v>
+        <v>0</v>
       </c>
       <c r="P16">
-        <v>583</v>
+        <v>0</v>
       </c>
       <c r="Q16">
-        <v>1.10621807626476</v>
+        <v>0</v>
       </c>
       <c r="R16">
-        <v>0.3630431683813935</v>
+        <v>0</v>
       </c>
       <c r="S16">
-        <v>1484</v>
+        <v>0</v>
       </c>
       <c r="T16">
-        <v>319</v>
+        <v>0</v>
       </c>
       <c r="U16">
-        <v>344</v>
+        <v>0</v>
       </c>
       <c r="V16">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="W16">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="X16">
-        <v>146</v>
+        <v>0</v>
       </c>
       <c r="Y16">
-        <v>0.04969057011976667</v>
+        <v>0</v>
       </c>
       <c r="Z16">
-        <v>0.09021519322291105</v>
+        <v>0</v>
       </c>
       <c r="AA16">
-        <v>149.0717103593</v>
+        <v>0</v>
       </c>
       <c r="AB16">
-        <v>133.8793467428</v>
+        <v>0</v>
       </c>
       <c r="AC16">
-        <v>10.6611105383</v>
+        <v>0</v>
       </c>
       <c r="AD16">
-        <v>40.309157579</v>
+        <v>0</v>
       </c>
       <c r="AE16">
-        <v>49.7084271884</v>
+        <v>0</v>
       </c>
       <c r="AF16">
-        <v>71.51811290969999</v>
+        <v>0</v>
       </c>
       <c r="AG16">
-        <v>83.4898792445</v>
+        <v>0</v>
       </c>
       <c r="AH16">
-        <v>94.83043631629999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>12059</v>
+        <v>12057</v>
       </c>
       <c r="B17">
-        <v>6</v>
+        <v>30</v>
       </c>
       <c r="C17">
-        <v>64</v>
+        <v>127</v>
       </c>
       <c r="D17">
-        <v>131</v>
+        <v>153</v>
       </c>
       <c r="E17">
-        <v>115</v>
+        <v>308</v>
       </c>
       <c r="F17">
-        <v>651</v>
+        <v>347</v>
       </c>
       <c r="G17">
-        <v>184</v>
+        <v>490</v>
       </c>
       <c r="H17">
-        <v>255</v>
+        <v>516</v>
       </c>
       <c r="I17">
-        <v>426</v>
+        <v>512</v>
       </c>
       <c r="J17">
-        <v>1048</v>
+        <v>227</v>
       </c>
       <c r="K17">
-        <v>1168</v>
+        <v>517</v>
       </c>
       <c r="L17">
-        <v>548</v>
+        <v>283</v>
       </c>
       <c r="M17">
-        <v>273</v>
+        <v>300</v>
       </c>
       <c r="N17">
-        <v>291</v>
+        <v>621</v>
       </c>
       <c r="O17">
-        <v>530</v>
+        <v>696</v>
       </c>
       <c r="P17">
-        <v>190</v>
+        <v>583</v>
       </c>
       <c r="Q17">
-        <v>1.033355691111354</v>
+        <v>1.10621807626476</v>
       </c>
       <c r="R17">
-        <v>0.2698083121064411</v>
+        <v>0.3630431683813935</v>
       </c>
       <c r="S17">
-        <v>1136</v>
+        <v>1484</v>
       </c>
       <c r="T17">
-        <v>114</v>
+        <v>319</v>
       </c>
       <c r="U17">
-        <v>72</v>
+        <v>344</v>
       </c>
       <c r="V17">
-        <v>452</v>
+        <v>230</v>
       </c>
       <c r="W17">
-        <v>58</v>
+        <v>106</v>
       </c>
       <c r="X17">
-        <v>226</v>
+        <v>146</v>
       </c>
       <c r="Y17">
-        <v>0.03179896245454</v>
+        <v>0.04969057011976667</v>
       </c>
       <c r="Z17">
-        <v>0.07820318318661972</v>
+        <v>0.09021519322291105</v>
       </c>
       <c r="AA17">
-        <v>95.39688736362</v>
+        <v>149.0717103593</v>
       </c>
       <c r="AB17">
-        <v>88.8388161</v>
+        <v>133.8793467428</v>
       </c>
       <c r="AC17">
-        <v>22.449514058</v>
+        <v>10.6611105383</v>
       </c>
       <c r="AD17">
-        <v>43.646731293</v>
+        <v>40.309157579</v>
       </c>
       <c r="AE17">
-        <v>60.545914894</v>
+        <v>49.7084271884</v>
       </c>
       <c r="AF17">
-        <v>74.51979790576</v>
+        <v>71.51811290969999</v>
       </c>
       <c r="AG17">
-        <v>86.63974060347</v>
+        <v>83.4898792445</v>
       </c>
       <c r="AH17">
-        <v>0</v>
+        <v>94.83043631629999</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>12062</v>
+        <v>12059</v>
       </c>
       <c r="B18">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="C18">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="D18">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="E18">
-        <v>0</v>
+        <v>115</v>
       </c>
       <c r="F18">
-        <v>0</v>
+        <v>651</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>255</v>
       </c>
       <c r="I18">
-        <v>0</v>
+        <v>426</v>
       </c>
       <c r="J18">
-        <v>3000</v>
+        <v>1048</v>
       </c>
       <c r="K18">
-        <v>3000</v>
+        <v>1168</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>548</v>
       </c>
       <c r="M18">
-        <v>0</v>
+        <v>273</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>291</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>530</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>190</v>
       </c>
       <c r="Q18">
-        <v>0</v>
+        <v>1.033355691111354</v>
       </c>
       <c r="R18">
-        <v>0</v>
+        <v>0.2698083121064411</v>
       </c>
       <c r="S18">
-        <v>0</v>
+        <v>1136</v>
       </c>
       <c r="T18">
-        <v>0</v>
+        <v>114</v>
       </c>
       <c r="U18">
-        <v>0</v>
+        <v>72</v>
       </c>
       <c r="V18">
-        <v>0</v>
+        <v>452</v>
       </c>
       <c r="W18">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="X18">
-        <v>0</v>
+        <v>226</v>
       </c>
       <c r="Y18">
-        <v>0</v>
+        <v>0.03179896245454</v>
       </c>
       <c r="Z18">
-        <v>0</v>
+        <v>0.07820318318661972</v>
       </c>
       <c r="AA18">
-        <v>0</v>
+        <v>95.39688736362</v>
       </c>
       <c r="AB18">
-        <v>0</v>
+        <v>88.8388161</v>
       </c>
       <c r="AC18">
-        <v>0</v>
+        <v>22.449514058</v>
       </c>
       <c r="AD18">
-        <v>0</v>
+        <v>43.646731293</v>
       </c>
       <c r="AE18">
-        <v>0</v>
+        <v>60.545914894</v>
       </c>
       <c r="AF18">
-        <v>0</v>
+        <v>74.51979790576</v>
       </c>
       <c r="AG18">
-        <v>0</v>
+        <v>86.63974060347</v>
       </c>
       <c r="AH18">
         <v>0</v>
@@ -2299,70 +2299,70 @@
     </row>
     <row r="19">
       <c r="A19">
-        <v>202301</v>
+        <v>12062</v>
       </c>
       <c r="B19">
         <v>0</v>
       </c>
       <c r="C19">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="D19">
         <v>0</v>
       </c>
       <c r="E19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="G19">
-        <v>41</v>
+        <v>0</v>
       </c>
       <c r="H19">
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>65</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>2315</v>
+        <v>3000</v>
       </c>
       <c r="K19">
-        <v>2322</v>
+        <v>3000</v>
       </c>
       <c r="L19">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="M19">
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="N19">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>73</v>
+        <v>0</v>
       </c>
       <c r="P19">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Q19">
-        <v>0.9424864119321534</v>
+        <v>0</v>
       </c>
       <c r="R19">
-        <v>0.1286438680973451</v>
+        <v>0</v>
       </c>
       <c r="S19">
-        <v>182</v>
+        <v>0</v>
       </c>
       <c r="T19">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="U19">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="V19">
-        <v>489</v>
+        <v>0</v>
       </c>
       <c r="W19">
         <v>0</v>
@@ -2371,16 +2371,16 @@
         <v>0</v>
       </c>
       <c r="Y19">
-        <v>0.006298776476466</v>
+        <v>0</v>
       </c>
       <c r="Z19">
-        <v>0.1008517731318681</v>
+        <v>0</v>
       </c>
       <c r="AA19">
-        <v>18.896329429398</v>
+        <v>0</v>
       </c>
       <c r="AB19">
-        <v>18.35502271</v>
+        <v>0</v>
       </c>
       <c r="AC19">
         <v>0</v>
@@ -2403,423 +2403,423 @@
     </row>
     <row r="20">
       <c r="A20">
-        <v>202304</v>
+        <v>202301</v>
       </c>
       <c r="B20">
+        <v>0</v>
+      </c>
+      <c r="C20">
         <v>3</v>
       </c>
-      <c r="C20">
-        <v>32</v>
-      </c>
       <c r="D20">
-        <v>58</v>
+        <v>0</v>
       </c>
       <c r="E20">
-        <v>32</v>
+        <v>2</v>
       </c>
       <c r="F20">
-        <v>922</v>
+        <v>537</v>
       </c>
       <c r="G20">
-        <v>157</v>
+        <v>41</v>
       </c>
       <c r="H20">
-        <v>686</v>
+        <v>30</v>
       </c>
       <c r="I20">
-        <v>589</v>
+        <v>65</v>
       </c>
       <c r="J20">
-        <v>370</v>
+        <v>2315</v>
       </c>
       <c r="K20">
-        <v>521</v>
+        <v>2322</v>
       </c>
       <c r="L20">
-        <v>781</v>
+        <v>531</v>
       </c>
       <c r="M20">
-        <v>643</v>
+        <v>18</v>
       </c>
       <c r="N20">
-        <v>260</v>
+        <v>33</v>
       </c>
       <c r="O20">
-        <v>272</v>
+        <v>73</v>
       </c>
       <c r="P20">
-        <v>523</v>
+        <v>23</v>
       </c>
       <c r="Q20">
-        <v>1.068555488103832</v>
+        <v>0.9424864119321534</v>
       </c>
       <c r="R20">
-        <v>0.3137184279669221</v>
+        <v>0.1286438680973451</v>
       </c>
       <c r="S20">
-        <v>1274</v>
+        <v>182</v>
       </c>
       <c r="T20">
-        <v>264</v>
+        <v>2</v>
       </c>
       <c r="U20">
-        <v>242</v>
+        <v>5</v>
       </c>
       <c r="V20">
-        <v>458</v>
+        <v>489</v>
       </c>
       <c r="W20">
-        <v>241</v>
+        <v>0</v>
       </c>
       <c r="X20">
-        <v>32</v>
+        <v>0</v>
       </c>
       <c r="Y20">
-        <v>0.03460135118249633</v>
+        <v>0.006298776476466</v>
       </c>
       <c r="Z20">
-        <v>0.0734865181711146</v>
+        <v>0.1008517731318681</v>
       </c>
       <c r="AA20">
-        <v>103.804053547489</v>
+        <v>18.896329429398</v>
       </c>
       <c r="AB20">
-        <v>93.62182414999999</v>
+        <v>18.35502271</v>
       </c>
       <c r="AC20">
-        <v>17.914237928</v>
+        <v>0</v>
       </c>
       <c r="AD20">
-        <v>31.961370833</v>
+        <v>0</v>
       </c>
       <c r="AE20">
-        <v>46.765308828</v>
+        <v>0</v>
       </c>
       <c r="AF20">
-        <v>60.851160999</v>
+        <v>0</v>
       </c>
       <c r="AG20">
-        <v>75.42470776499999</v>
+        <v>0</v>
       </c>
       <c r="AH20">
-        <v>85.755232096</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>202302</v>
+        <v>202304</v>
       </c>
       <c r="B21">
-        <v>37</v>
+        <v>3</v>
       </c>
       <c r="C21">
-        <v>176</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>129</v>
+        <v>58</v>
       </c>
       <c r="E21">
-        <v>228</v>
+        <v>32</v>
       </c>
       <c r="F21">
-        <v>730</v>
+        <v>922</v>
       </c>
       <c r="G21">
-        <v>269</v>
+        <v>157</v>
       </c>
       <c r="H21">
-        <v>484</v>
+        <v>686</v>
       </c>
       <c r="I21">
-        <v>388</v>
+        <v>589</v>
       </c>
       <c r="J21">
-        <v>330</v>
+        <v>370</v>
       </c>
       <c r="K21">
-        <v>559</v>
+        <v>521</v>
       </c>
       <c r="L21">
-        <v>677</v>
+        <v>781</v>
       </c>
       <c r="M21">
-        <v>314</v>
+        <v>643</v>
       </c>
       <c r="N21">
-        <v>541</v>
+        <v>260</v>
       </c>
       <c r="O21">
-        <v>583</v>
+        <v>272</v>
       </c>
       <c r="P21">
-        <v>326</v>
+        <v>523</v>
       </c>
       <c r="Q21">
-        <v>1.035130606723228</v>
+        <v>1.068555488103832</v>
       </c>
       <c r="R21">
-        <v>0.2807054798672675</v>
+        <v>0.3137184279669221</v>
       </c>
       <c r="S21">
-        <v>1304</v>
+        <v>1274</v>
       </c>
       <c r="T21">
-        <v>344</v>
+        <v>264</v>
       </c>
       <c r="U21">
-        <v>162</v>
+        <v>242</v>
       </c>
       <c r="V21">
-        <v>544</v>
+        <v>458</v>
       </c>
       <c r="W21">
-        <v>87</v>
+        <v>241</v>
       </c>
       <c r="X21">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="Y21">
-        <v>0.06091576107936666</v>
+        <v>0.03460135118249633</v>
       </c>
       <c r="Z21">
-        <v>0.1209888493098159</v>
+        <v>0.0734865181711146</v>
       </c>
       <c r="AA21">
-        <v>182.7472832381</v>
+        <v>103.804053547489</v>
       </c>
       <c r="AB21">
-        <v>157.7694595</v>
+        <v>93.62182414999999</v>
       </c>
       <c r="AC21">
-        <v>36.241901116</v>
+        <v>17.914237928</v>
       </c>
       <c r="AD21">
-        <v>59.270143417</v>
+        <v>31.961370833</v>
       </c>
       <c r="AE21">
-        <v>88.28189068</v>
+        <v>46.765308828</v>
       </c>
       <c r="AF21">
-        <v>113.053870372</v>
+        <v>60.851160999</v>
       </c>
       <c r="AG21">
-        <v>136.9123724667</v>
+        <v>75.42470776499999</v>
       </c>
       <c r="AH21">
-        <v>156.0485786097</v>
+        <v>85.755232096</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>202303</v>
+        <v>202302</v>
       </c>
       <c r="B22">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C22">
-        <v>131</v>
+        <v>176</v>
       </c>
       <c r="D22">
-        <v>187</v>
+        <v>129</v>
       </c>
       <c r="E22">
-        <v>117</v>
+        <v>228</v>
       </c>
       <c r="F22">
-        <v>456</v>
+        <v>730</v>
       </c>
       <c r="G22">
-        <v>375</v>
+        <v>269</v>
       </c>
       <c r="H22">
-        <v>620</v>
+        <v>484</v>
       </c>
       <c r="I22">
-        <v>713</v>
+        <v>388</v>
       </c>
       <c r="J22">
-        <v>196</v>
+        <v>330</v>
       </c>
       <c r="K22">
-        <v>371</v>
+        <v>559</v>
       </c>
       <c r="L22">
-        <v>383</v>
+        <v>677</v>
       </c>
       <c r="M22">
-        <v>424</v>
+        <v>314</v>
       </c>
       <c r="N22">
-        <v>755</v>
+        <v>541</v>
       </c>
       <c r="O22">
-        <v>594</v>
+        <v>583</v>
       </c>
       <c r="P22">
-        <v>473</v>
+        <v>326</v>
       </c>
       <c r="Q22">
-        <v>1.107975380604717</v>
+        <v>1.035130606723228</v>
       </c>
       <c r="R22">
-        <v>0.341349137164321</v>
+        <v>0.2807054798672675</v>
       </c>
       <c r="S22">
-        <v>1775</v>
+        <v>1304</v>
       </c>
       <c r="T22">
-        <v>368</v>
+        <v>344</v>
       </c>
       <c r="U22">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="V22">
-        <v>256</v>
+        <v>544</v>
       </c>
       <c r="W22">
-        <v>34</v>
+        <v>87</v>
       </c>
       <c r="X22">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="Y22">
-        <v>0.05058494949169667</v>
+        <v>0.06091576107936666</v>
       </c>
       <c r="Z22">
-        <v>0.0753077102028169</v>
+        <v>0.1209888493098159</v>
       </c>
       <c r="AA22">
-        <v>151.75484847509</v>
+        <v>182.7472832381</v>
       </c>
       <c r="AB22">
-        <v>133.67118561</v>
+        <v>157.7694595</v>
       </c>
       <c r="AC22">
-        <v>19.015464144</v>
+        <v>36.241901116</v>
       </c>
       <c r="AD22">
-        <v>39.349311326</v>
+        <v>59.270143417</v>
       </c>
       <c r="AE22">
-        <v>59.18477003</v>
+        <v>88.28189068</v>
       </c>
       <c r="AF22">
-        <v>75.196236946</v>
+        <v>113.053870372</v>
       </c>
       <c r="AG22">
-        <v>89.062112793</v>
+        <v>136.9123724667</v>
       </c>
       <c r="AH22">
-        <v>106.651700849</v>
+        <v>156.0485786097</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>202301</v>
+        <v>202303</v>
       </c>
       <c r="B23">
-        <v>0</v>
+        <v>30</v>
       </c>
       <c r="C23">
-        <v>0</v>
+        <v>131</v>
       </c>
       <c r="D23">
-        <v>0</v>
+        <v>187</v>
       </c>
       <c r="E23">
-        <v>0</v>
+        <v>117</v>
       </c>
       <c r="F23">
-        <v>0</v>
+        <v>456</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>375</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>620</v>
       </c>
       <c r="I23">
-        <v>0</v>
+        <v>713</v>
       </c>
       <c r="J23">
-        <v>3000</v>
+        <v>196</v>
       </c>
       <c r="K23">
-        <v>3000</v>
+        <v>371</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>383</v>
       </c>
       <c r="M23">
-        <v>0</v>
+        <v>424</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>755</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>594</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>473</v>
       </c>
       <c r="Q23">
-        <v>0</v>
+        <v>1.107975380604717</v>
       </c>
       <c r="R23">
-        <v>0</v>
+        <v>0.341349137164321</v>
       </c>
       <c r="S23">
-        <v>0</v>
+        <v>1775</v>
       </c>
       <c r="T23">
-        <v>0</v>
+        <v>368</v>
       </c>
       <c r="U23">
-        <v>0</v>
+        <v>196</v>
       </c>
       <c r="V23">
-        <v>0</v>
+        <v>256</v>
       </c>
       <c r="W23">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="X23">
-        <v>0</v>
+        <v>38</v>
       </c>
       <c r="Y23">
-        <v>0</v>
+        <v>0.05058494949169667</v>
       </c>
       <c r="Z23">
-        <v>0</v>
+        <v>0.0753077102028169</v>
       </c>
       <c r="AA23">
-        <v>0</v>
+        <v>151.75484847509</v>
       </c>
       <c r="AB23">
-        <v>0</v>
+        <v>133.67118561</v>
       </c>
       <c r="AC23">
-        <v>0</v>
+        <v>19.015464144</v>
       </c>
       <c r="AD23">
-        <v>0</v>
+        <v>39.349311326</v>
       </c>
       <c r="AE23">
-        <v>0</v>
+        <v>59.18477003</v>
       </c>
       <c r="AF23">
-        <v>0</v>
+        <v>75.196236946</v>
       </c>
       <c r="AG23">
-        <v>0</v>
+        <v>89.062112793</v>
       </c>
       <c r="AH23">
-        <v>0</v>
+        <v>106.651700849</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>12063</v>
+        <v>202301</v>
       </c>
       <c r="B24">
         <v>0</v>
@@ -2828,82 +2828,82 @@
         <v>0</v>
       </c>
       <c r="D24">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="E24">
-        <v>33</v>
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>353</v>
+        <v>0</v>
       </c>
       <c r="G24">
-        <v>48</v>
+        <v>0</v>
       </c>
       <c r="H24">
-        <v>266</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>107</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>2132</v>
+        <v>3000</v>
       </c>
       <c r="K24">
-        <v>2180</v>
+        <v>3000</v>
       </c>
       <c r="L24">
-        <v>324</v>
+        <v>0</v>
       </c>
       <c r="M24">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="N24">
-        <v>212</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>116</v>
+        <v>0</v>
       </c>
       <c r="P24">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="Q24">
-        <v>1.094100069468537</v>
+        <v>0</v>
       </c>
       <c r="R24">
-        <v>0.2634516539585366</v>
+        <v>0</v>
       </c>
       <c r="S24">
-        <v>379</v>
+        <v>0</v>
       </c>
       <c r="T24">
-        <v>77</v>
+        <v>0</v>
       </c>
       <c r="U24">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="V24">
-        <v>279</v>
+        <v>0</v>
       </c>
       <c r="W24">
-        <v>40</v>
+        <v>0</v>
       </c>
       <c r="X24">
-        <v>31</v>
+        <v>0</v>
       </c>
       <c r="Y24">
-        <v>0.01230424893122</v>
+        <v>0</v>
       </c>
       <c r="Z24">
-        <v>0.08538280807387863</v>
+        <v>0</v>
       </c>
       <c r="AA24">
-        <v>36.91274679366</v>
+        <v>0</v>
       </c>
       <c r="AB24">
-        <v>32.36008426</v>
+        <v>0</v>
       </c>
       <c r="AC24">
-        <v>21.150624871</v>
+        <v>0</v>
       </c>
       <c r="AD24">
         <v>0</v>
@@ -2923,825 +2923,825 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>14798</v>
+        <v>12061</v>
       </c>
       <c r="B25">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="D25">
-        <v>123</v>
+        <v>0</v>
       </c>
       <c r="E25">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="G25">
-        <v>320</v>
+        <v>0</v>
       </c>
       <c r="H25">
-        <v>485</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>529</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>594</v>
+        <v>3000</v>
       </c>
       <c r="K25">
-        <v>851</v>
+        <v>3000</v>
       </c>
       <c r="L25">
-        <v>433</v>
+        <v>0</v>
       </c>
       <c r="M25">
-        <v>295</v>
+        <v>0</v>
       </c>
       <c r="N25">
-        <v>543</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>602</v>
+        <v>0</v>
       </c>
       <c r="P25">
-        <v>276</v>
+        <v>0</v>
       </c>
       <c r="Q25">
-        <v>1.107746585759237</v>
+        <v>0</v>
       </c>
       <c r="R25">
-        <v>0.3361976791312238</v>
+        <v>0</v>
       </c>
       <c r="S25">
-        <v>1487</v>
+        <v>0</v>
       </c>
       <c r="T25">
-        <v>240</v>
+        <v>0</v>
       </c>
       <c r="U25">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="V25">
-        <v>170</v>
+        <v>0</v>
       </c>
       <c r="W25">
-        <v>178</v>
+        <v>0</v>
       </c>
       <c r="X25">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y25">
-        <v>0.046657472676631</v>
+        <v>0</v>
       </c>
       <c r="Z25">
-        <v>0.08547346254203093</v>
+        <v>0</v>
       </c>
       <c r="AA25">
-        <v>139.972418029893</v>
+        <v>0</v>
       </c>
       <c r="AB25">
-        <v>127.0990388</v>
+        <v>0</v>
       </c>
       <c r="AC25">
-        <v>21.466465365</v>
+        <v>0</v>
       </c>
       <c r="AD25">
-        <v>38.749649537</v>
+        <v>0</v>
       </c>
       <c r="AE25">
-        <v>59.452279021</v>
+        <v>0</v>
       </c>
       <c r="AF25">
-        <v>75.513032749</v>
+        <v>0</v>
       </c>
       <c r="AG25">
-        <v>94.486585324</v>
+        <v>0</v>
       </c>
       <c r="AH25">
-        <v>115.689266338</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>14734</v>
+        <v>12063</v>
       </c>
       <c r="B26">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>86</v>
+        <v>0</v>
       </c>
       <c r="D26">
-        <v>362</v>
+        <v>13</v>
       </c>
       <c r="E26">
-        <v>271</v>
+        <v>33</v>
       </c>
       <c r="F26">
-        <v>549</v>
+        <v>353</v>
       </c>
       <c r="G26">
-        <v>169</v>
+        <v>48</v>
       </c>
       <c r="H26">
-        <v>330</v>
+        <v>266</v>
       </c>
       <c r="I26">
-        <v>261</v>
+        <v>107</v>
       </c>
       <c r="J26">
-        <v>711</v>
+        <v>2132</v>
       </c>
       <c r="K26">
-        <v>961</v>
+        <v>2180</v>
       </c>
       <c r="L26">
-        <v>447</v>
+        <v>324</v>
       </c>
       <c r="M26">
-        <v>524</v>
+        <v>109</v>
       </c>
       <c r="N26">
-        <v>340</v>
+        <v>212</v>
       </c>
       <c r="O26">
-        <v>492</v>
+        <v>116</v>
       </c>
       <c r="P26">
-        <v>236</v>
+        <v>59</v>
       </c>
       <c r="Q26">
-        <v>1.005933516975772</v>
+        <v>1.094100069468537</v>
       </c>
       <c r="R26">
-        <v>0.2267858071608632</v>
+        <v>0.2634516539585366</v>
       </c>
       <c r="S26">
-        <v>999</v>
+        <v>379</v>
       </c>
       <c r="T26">
-        <v>170</v>
+        <v>77</v>
       </c>
       <c r="U26">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="V26">
-        <v>744</v>
+        <v>279</v>
       </c>
       <c r="W26">
-        <v>9</v>
+        <v>40</v>
       </c>
       <c r="X26">
-        <v>520</v>
+        <v>31</v>
       </c>
       <c r="Y26">
-        <v>0.032849229367696</v>
+        <v>0.01230424893122</v>
       </c>
       <c r="Z26">
-        <v>0.08851557205205206</v>
+        <v>0.08538280807387863</v>
       </c>
       <c r="AA26">
-        <v>98.54768810308801</v>
+        <v>36.91274679366</v>
       </c>
       <c r="AB26">
-        <v>88.42705648</v>
+        <v>32.36008426</v>
       </c>
       <c r="AC26">
-        <v>2.15114823634</v>
+        <v>21.150624871</v>
       </c>
       <c r="AD26">
-        <v>24.94342683034</v>
+        <v>0</v>
       </c>
       <c r="AE26">
-        <v>26.3823350634</v>
+        <v>0</v>
       </c>
       <c r="AF26">
-        <v>43.7300336234</v>
+        <v>0</v>
       </c>
       <c r="AG26">
-        <v>68.1845941214</v>
+        <v>0</v>
       </c>
       <c r="AH26">
-        <v>85.9006444444</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>14732</v>
+        <v>14798</v>
       </c>
       <c r="B27">
-        <v>35</v>
+        <v>17</v>
       </c>
       <c r="C27">
-        <v>125</v>
+        <v>81</v>
       </c>
       <c r="D27">
-        <v>82</v>
+        <v>123</v>
       </c>
       <c r="E27">
-        <v>161</v>
+        <v>109</v>
       </c>
       <c r="F27">
-        <v>597</v>
+        <v>485</v>
       </c>
       <c r="G27">
-        <v>197</v>
+        <v>320</v>
       </c>
       <c r="H27">
-        <v>221</v>
+        <v>485</v>
       </c>
       <c r="I27">
-        <v>505</v>
+        <v>529</v>
       </c>
       <c r="J27">
-        <v>929</v>
+        <v>594</v>
       </c>
       <c r="K27">
-        <v>1077</v>
+        <v>851</v>
       </c>
       <c r="L27">
-        <v>542</v>
+        <v>433</v>
       </c>
       <c r="M27">
-        <v>179</v>
+        <v>295</v>
       </c>
       <c r="N27">
-        <v>320</v>
+        <v>543</v>
       </c>
       <c r="O27">
-        <v>496</v>
+        <v>602</v>
       </c>
       <c r="P27">
-        <v>386</v>
+        <v>276</v>
       </c>
       <c r="Q27">
-        <v>1.045923193693292</v>
+        <v>1.107746585759237</v>
       </c>
       <c r="R27">
-        <v>0.2834665773296932</v>
+        <v>0.3361976791312238</v>
       </c>
       <c r="S27">
-        <v>1090</v>
+        <v>1487</v>
       </c>
       <c r="T27">
-        <v>146</v>
+        <v>240</v>
       </c>
       <c r="U27">
-        <v>213</v>
+        <v>74</v>
       </c>
       <c r="V27">
-        <v>415</v>
+        <v>170</v>
       </c>
       <c r="W27">
-        <v>59</v>
+        <v>178</v>
       </c>
       <c r="X27">
-        <v>244</v>
+        <v>23</v>
       </c>
       <c r="Y27">
-        <v>0.0348506564375</v>
+        <v>0.046657472676631</v>
       </c>
       <c r="Z27">
-        <v>0.0878481388680734</v>
+        <v>0.08547346254203093</v>
       </c>
       <c r="AA27">
-        <v>104.5519693125</v>
+        <v>139.972418029893</v>
       </c>
       <c r="AB27">
-        <v>95.75447136619999</v>
+        <v>127.0990388</v>
       </c>
       <c r="AC27">
-        <v>13.3515610168</v>
+        <v>21.466465365</v>
       </c>
       <c r="AD27">
-        <v>25.1064083775</v>
+        <v>38.749649537</v>
       </c>
       <c r="AE27">
-        <v>43.1434960101</v>
+        <v>59.452279021</v>
       </c>
       <c r="AF27">
-        <v>57.8923168888</v>
+        <v>75.513032749</v>
       </c>
       <c r="AG27">
-        <v>79.8039617264</v>
+        <v>94.486585324</v>
       </c>
       <c r="AH27">
-        <v>97.59974628339999</v>
+        <v>115.689266338</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>14685</v>
+        <v>14734</v>
       </c>
       <c r="B28">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C28">
-        <v>34</v>
+        <v>86</v>
       </c>
       <c r="D28">
-        <v>194</v>
+        <v>362</v>
       </c>
       <c r="E28">
-        <v>518</v>
+        <v>271</v>
       </c>
       <c r="F28">
-        <v>619</v>
+        <v>549</v>
       </c>
       <c r="G28">
-        <v>189</v>
+        <v>169</v>
       </c>
       <c r="H28">
-        <v>287</v>
+        <v>330</v>
       </c>
       <c r="I28">
-        <v>666</v>
+        <v>261</v>
       </c>
       <c r="J28">
-        <v>349</v>
+        <v>711</v>
       </c>
       <c r="K28">
-        <v>483</v>
+        <v>961</v>
       </c>
       <c r="L28">
+        <v>447</v>
+      </c>
+      <c r="M28">
+        <v>524</v>
+      </c>
+      <c r="N28">
+        <v>340</v>
+      </c>
+      <c r="O28">
+        <v>492</v>
+      </c>
+      <c r="P28">
+        <v>236</v>
+      </c>
+      <c r="Q28">
+        <v>1.005933516975772</v>
+      </c>
+      <c r="R28">
+        <v>0.2267858071608632</v>
+      </c>
+      <c r="S28">
+        <v>999</v>
+      </c>
+      <c r="T28">
+        <v>170</v>
+      </c>
+      <c r="U28">
+        <v>117</v>
+      </c>
+      <c r="V28">
+        <v>744</v>
+      </c>
+      <c r="W28">
+        <v>9</v>
+      </c>
+      <c r="X28">
         <v>520</v>
       </c>
-      <c r="M28">
-        <v>200</v>
-      </c>
-      <c r="N28">
-        <v>446</v>
-      </c>
-      <c r="O28">
-        <v>956</v>
-      </c>
-      <c r="P28">
-        <v>395</v>
-      </c>
-      <c r="Q28">
-        <v>1.068914426546762</v>
-      </c>
-      <c r="R28">
-        <v>0.2483752823929281</v>
-      </c>
-      <c r="S28">
-        <v>1040</v>
-      </c>
-      <c r="T28">
-        <v>222</v>
-      </c>
-      <c r="U28">
-        <v>309</v>
-      </c>
-      <c r="V28">
-        <v>860</v>
-      </c>
-      <c r="W28">
-        <v>86</v>
-      </c>
-      <c r="X28">
-        <v>516</v>
-      </c>
       <c r="Y28">
-        <v>0.0382530006805</v>
+        <v>0.032849229367696</v>
       </c>
       <c r="Z28">
-        <v>0.09687377751663462</v>
+        <v>0.08851557205205206</v>
       </c>
       <c r="AA28">
-        <v>114.7590020415</v>
+        <v>98.54768810308801</v>
       </c>
       <c r="AB28">
-        <v>100.7487286173</v>
+        <v>88.42705648</v>
       </c>
       <c r="AC28">
-        <v>28.046001174</v>
+        <v>2.15114823634</v>
       </c>
       <c r="AD28">
-        <v>37.9506268871</v>
+        <v>24.94342683034</v>
       </c>
       <c r="AE28">
-        <v>60.0486597332</v>
+        <v>26.3823350634</v>
       </c>
       <c r="AF28">
-        <v>80.48688252620001</v>
+        <v>43.7300336234</v>
       </c>
       <c r="AG28">
-        <v>81.5736840917</v>
+        <v>68.1845941214</v>
       </c>
       <c r="AH28">
-        <v>83.6186979527</v>
+        <v>85.9006444444</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>12065</v>
+        <v>14732</v>
       </c>
       <c r="B29">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="C29">
-        <v>49</v>
+        <v>125</v>
       </c>
       <c r="D29">
-        <v>219</v>
+        <v>82</v>
       </c>
       <c r="E29">
-        <v>66</v>
+        <v>161</v>
       </c>
       <c r="F29">
-        <v>928</v>
+        <v>597</v>
       </c>
       <c r="G29">
-        <v>164</v>
+        <v>197</v>
       </c>
       <c r="H29">
-        <v>592</v>
+        <v>221</v>
       </c>
       <c r="I29">
-        <v>263</v>
+        <v>505</v>
       </c>
       <c r="J29">
-        <v>507</v>
+        <v>929</v>
       </c>
       <c r="K29">
-        <v>706</v>
+        <v>1077</v>
       </c>
       <c r="L29">
-        <v>773</v>
+        <v>542</v>
       </c>
       <c r="M29">
-        <v>742</v>
+        <v>179</v>
       </c>
       <c r="N29">
-        <v>303</v>
+        <v>320</v>
       </c>
       <c r="O29">
-        <v>265</v>
+        <v>496</v>
       </c>
       <c r="P29">
-        <v>211</v>
+        <v>386</v>
       </c>
       <c r="Q29">
-        <v>1.05825244367367</v>
+        <v>1.045923193693292</v>
       </c>
       <c r="R29">
-        <v>0.2881861227877071</v>
+        <v>0.2834665773296932</v>
       </c>
       <c r="S29">
-        <v>1134</v>
+        <v>1090</v>
       </c>
       <c r="T29">
-        <v>504</v>
+        <v>146</v>
       </c>
       <c r="U29">
-        <v>110</v>
+        <v>213</v>
       </c>
       <c r="V29">
-        <v>140</v>
+        <v>415</v>
       </c>
       <c r="W29">
-        <v>406</v>
+        <v>59</v>
       </c>
       <c r="X29">
-        <v>103</v>
+        <v>244</v>
       </c>
       <c r="Y29">
-        <v>0.042500712179</v>
+        <v>0.0348506564375</v>
       </c>
       <c r="Z29">
-        <v>0.0925385711622575</v>
+        <v>0.0878481388680734</v>
       </c>
       <c r="AA29">
-        <v>127.502136537</v>
+        <v>104.5519693125</v>
       </c>
       <c r="AB29">
-        <v>104.938739698</v>
+        <v>95.75447136619999</v>
       </c>
       <c r="AC29">
-        <v>19.915678077</v>
+        <v>13.3515610168</v>
       </c>
       <c r="AD29">
-        <v>42.791417306</v>
+        <v>25.1064083775</v>
       </c>
       <c r="AE29">
-        <v>59.797433178</v>
+        <v>43.1434960101</v>
       </c>
       <c r="AF29">
-        <v>81.55335022200001</v>
+        <v>57.8923168888</v>
       </c>
       <c r="AG29">
-        <v>93.657725305</v>
+        <v>79.8039617264</v>
       </c>
       <c r="AH29">
-        <v>109.372537696</v>
+        <v>97.59974628339999</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>14733</v>
+        <v>14685</v>
       </c>
       <c r="B30">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="C30">
-        <v>0</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>0</v>
+        <v>194</v>
       </c>
       <c r="E30">
-        <v>0</v>
+        <v>518</v>
       </c>
       <c r="F30">
-        <v>0</v>
+        <v>619</v>
       </c>
       <c r="G30">
-        <v>0</v>
+        <v>189</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>287</v>
       </c>
       <c r="I30">
-        <v>0</v>
+        <v>666</v>
       </c>
       <c r="J30">
-        <v>3000</v>
+        <v>349</v>
       </c>
       <c r="K30">
-        <v>3000</v>
+        <v>483</v>
       </c>
       <c r="L30">
-        <v>0</v>
+        <v>520</v>
       </c>
       <c r="M30">
-        <v>0</v>
+        <v>200</v>
       </c>
       <c r="N30">
-        <v>0</v>
+        <v>446</v>
       </c>
       <c r="O30">
-        <v>0</v>
+        <v>956</v>
       </c>
       <c r="P30">
-        <v>0</v>
+        <v>395</v>
       </c>
       <c r="Q30">
-        <v>0</v>
+        <v>1.068914426546762</v>
       </c>
       <c r="R30">
-        <v>0</v>
+        <v>0.2483752823929281</v>
       </c>
       <c r="S30">
-        <v>0</v>
+        <v>1040</v>
       </c>
       <c r="T30">
-        <v>0</v>
+        <v>222</v>
       </c>
       <c r="U30">
-        <v>0</v>
+        <v>309</v>
       </c>
       <c r="V30">
-        <v>0</v>
+        <v>860</v>
       </c>
       <c r="W30">
-        <v>0</v>
+        <v>86</v>
       </c>
       <c r="X30">
-        <v>0</v>
+        <v>516</v>
       </c>
       <c r="Y30">
-        <v>0</v>
+        <v>0.0382530006805</v>
       </c>
       <c r="Z30">
-        <v>0</v>
+        <v>0.09687377751663462</v>
       </c>
       <c r="AA30">
-        <v>0</v>
+        <v>114.7590020415</v>
       </c>
       <c r="AB30">
-        <v>0</v>
+        <v>100.7487286173</v>
       </c>
       <c r="AC30">
-        <v>0</v>
+        <v>28.046001174</v>
       </c>
       <c r="AD30">
-        <v>0</v>
+        <v>37.9506268871</v>
       </c>
       <c r="AE30">
-        <v>0</v>
+        <v>60.0486597332</v>
       </c>
       <c r="AF30">
-        <v>0</v>
+        <v>80.48688252620001</v>
       </c>
       <c r="AG30">
-        <v>0</v>
+        <v>81.5736840917</v>
       </c>
       <c r="AH30">
-        <v>0</v>
+        <v>83.6186979527</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>14739</v>
+        <v>12065</v>
       </c>
       <c r="B31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="D31">
-        <v>93</v>
+        <v>219</v>
       </c>
       <c r="E31">
-        <v>120</v>
+        <v>66</v>
       </c>
       <c r="F31">
-        <v>1177</v>
+        <v>928</v>
       </c>
       <c r="G31">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="H31">
-        <v>339</v>
+        <v>592</v>
       </c>
       <c r="I31">
-        <v>411</v>
+        <v>263</v>
       </c>
       <c r="J31">
-        <v>371</v>
+        <v>507</v>
       </c>
       <c r="K31">
-        <v>616</v>
+        <v>706</v>
       </c>
       <c r="L31">
-        <v>1011</v>
+        <v>773</v>
       </c>
       <c r="M31">
-        <v>408</v>
+        <v>742</v>
       </c>
       <c r="N31">
-        <v>237</v>
+        <v>303</v>
       </c>
       <c r="O31">
-        <v>351</v>
+        <v>265</v>
       </c>
       <c r="P31">
-        <v>377</v>
+        <v>211</v>
       </c>
       <c r="Q31">
-        <v>1.027057749965436</v>
+        <v>1.05825244367367</v>
       </c>
       <c r="R31">
-        <v>0.268084745653943</v>
+        <v>0.2881861227877071</v>
       </c>
       <c r="S31">
-        <v>1384</v>
+        <v>1134</v>
       </c>
       <c r="T31">
-        <v>351</v>
+        <v>504</v>
       </c>
       <c r="U31">
-        <v>59</v>
+        <v>110</v>
       </c>
       <c r="V31">
-        <v>553</v>
+        <v>140</v>
       </c>
       <c r="W31">
-        <v>37</v>
+        <v>406</v>
       </c>
       <c r="X31">
-        <v>28</v>
+        <v>103</v>
       </c>
       <c r="Y31">
-        <v>0.054168156858</v>
+        <v>0.042500712179</v>
       </c>
       <c r="Z31">
-        <v>0.1030347459140173</v>
+        <v>0.0925385711622575</v>
       </c>
       <c r="AA31">
-        <v>162.504470574</v>
+        <v>127.502136537</v>
       </c>
       <c r="AB31">
-        <v>142.600088345</v>
+        <v>104.938739698</v>
       </c>
       <c r="AC31">
-        <v>29.681191683</v>
+        <v>19.915678077</v>
       </c>
       <c r="AD31">
-        <v>56.404641206</v>
+        <v>42.791417306</v>
       </c>
       <c r="AE31">
-        <v>81.866519662</v>
+        <v>59.797433178</v>
       </c>
       <c r="AF31">
-        <v>106.71652432</v>
+        <v>81.55335022200001</v>
       </c>
       <c r="AG31">
-        <v>129.559830121</v>
+        <v>93.657725305</v>
       </c>
       <c r="AH31">
-        <v>155.295083402</v>
+        <v>109.372537696</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>11755</v>
+        <v>14733</v>
       </c>
       <c r="B32">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C32">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="D32">
-        <v>317</v>
+        <v>0</v>
       </c>
       <c r="E32">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="F32">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="G32">
-        <v>110</v>
+        <v>0</v>
       </c>
       <c r="H32">
-        <v>193</v>
+        <v>0</v>
       </c>
       <c r="I32">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="J32">
-        <v>1531</v>
+        <v>3000</v>
       </c>
       <c r="K32">
-        <v>1649</v>
+        <v>3000</v>
       </c>
       <c r="L32">
-        <v>438</v>
+        <v>0</v>
       </c>
       <c r="M32">
-        <v>416</v>
+        <v>0</v>
       </c>
       <c r="N32">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="O32">
-        <v>188</v>
+        <v>0</v>
       </c>
       <c r="P32">
-        <v>121</v>
+        <v>0</v>
       </c>
       <c r="Q32">
-        <v>0.9943270931566247</v>
+        <v>0</v>
       </c>
       <c r="R32">
-        <v>0.2127953882871947</v>
+        <v>0</v>
       </c>
       <c r="S32">
-        <v>694</v>
+        <v>0</v>
       </c>
       <c r="T32">
-        <v>45</v>
+        <v>0</v>
       </c>
       <c r="U32">
-        <v>79</v>
+        <v>0</v>
       </c>
       <c r="V32">
-        <v>525</v>
+        <v>0</v>
       </c>
       <c r="W32">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="X32">
-        <v>277</v>
+        <v>0</v>
       </c>
       <c r="Y32">
-        <v>0.017401231824</v>
+        <v>0</v>
       </c>
       <c r="Z32">
-        <v>0.07086278547262248</v>
+        <v>0</v>
       </c>
       <c r="AA32">
-        <v>52.203695472</v>
+        <v>0</v>
       </c>
       <c r="AB32">
-        <v>49.178773118</v>
+        <v>0</v>
       </c>
       <c r="AC32">
-        <v>14.705897088</v>
+        <v>0</v>
       </c>
       <c r="AD32">
-        <v>16.317423111</v>
+        <v>0</v>
       </c>
       <c r="AE32">
-        <v>35.148505659</v>
+        <v>0</v>
       </c>
       <c r="AF32">
         <v>0</v>
@@ -3755,201 +3755,201 @@
     </row>
     <row r="33">
       <c r="A33">
-        <v>14731</v>
+        <v>14739</v>
       </c>
       <c r="B33">
-        <v>67</v>
+        <v>11</v>
       </c>
       <c r="C33">
-        <v>208</v>
+        <v>76</v>
       </c>
       <c r="D33">
-        <v>124</v>
+        <v>93</v>
       </c>
       <c r="E33">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="F33">
-        <v>788</v>
+        <v>1177</v>
       </c>
       <c r="G33">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="H33">
-        <v>111</v>
+        <v>339</v>
       </c>
       <c r="I33">
-        <v>170</v>
+        <v>411</v>
       </c>
       <c r="J33">
-        <v>1088</v>
+        <v>371</v>
       </c>
       <c r="K33">
-        <v>1268</v>
+        <v>616</v>
       </c>
       <c r="L33">
-        <v>724</v>
+        <v>1011</v>
       </c>
       <c r="M33">
-        <v>193</v>
+        <v>408</v>
       </c>
       <c r="N33">
-        <v>300</v>
+        <v>237</v>
       </c>
       <c r="O33">
-        <v>237</v>
+        <v>351</v>
       </c>
       <c r="P33">
-        <v>278</v>
+        <v>377</v>
       </c>
       <c r="Q33">
-        <v>0.9612415368990647</v>
+        <v>1.027057749965436</v>
       </c>
       <c r="R33">
-        <v>0.2746333598236143</v>
+        <v>0.268084745653943</v>
       </c>
       <c r="S33">
-        <v>1271</v>
+        <v>1384</v>
       </c>
       <c r="T33">
-        <v>109</v>
+        <v>351</v>
       </c>
       <c r="U33">
-        <v>8</v>
+        <v>59</v>
       </c>
       <c r="V33">
-        <v>342</v>
+        <v>553</v>
       </c>
       <c r="W33">
-        <v>2</v>
+        <v>37</v>
       </c>
       <c r="X33">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="Y33">
-        <v>0.04615284263965334</v>
+        <v>0.054168156858</v>
       </c>
       <c r="Z33">
-        <v>0.1035015911644375</v>
+        <v>0.1030347459140173</v>
       </c>
       <c r="AA33">
-        <v>138.45852791896</v>
+        <v>162.504470574</v>
       </c>
       <c r="AB33">
-        <v>131.55052237</v>
+        <v>142.600088345</v>
       </c>
       <c r="AC33">
-        <v>31.365570623</v>
+        <v>29.681191683</v>
       </c>
       <c r="AD33">
-        <v>56.155896495</v>
+        <v>56.404641206</v>
       </c>
       <c r="AE33">
-        <v>86.61321055400001</v>
+        <v>81.866519662</v>
       </c>
       <c r="AF33">
-        <v>117.346722634</v>
+        <v>106.71652432</v>
       </c>
       <c r="AG33">
-        <v>134.538752376</v>
+        <v>129.559830121</v>
       </c>
       <c r="AH33">
-        <v>0</v>
+        <v>155.295083402</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>11756</v>
+        <v>11755</v>
       </c>
       <c r="B34">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C34">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="D34">
-        <v>0</v>
+        <v>317</v>
       </c>
       <c r="E34">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="F34">
-        <v>0</v>
+        <v>482</v>
       </c>
       <c r="G34">
-        <v>0</v>
+        <v>110</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>193</v>
       </c>
       <c r="I34">
-        <v>0</v>
+        <v>181</v>
       </c>
       <c r="J34">
-        <v>3000</v>
+        <v>1531</v>
       </c>
       <c r="K34">
-        <v>3000</v>
+        <v>1649</v>
       </c>
       <c r="L34">
-        <v>0</v>
+        <v>438</v>
       </c>
       <c r="M34">
-        <v>0</v>
+        <v>416</v>
       </c>
       <c r="N34">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="O34">
-        <v>0</v>
+        <v>188</v>
       </c>
       <c r="P34">
-        <v>0</v>
+        <v>121</v>
       </c>
       <c r="Q34">
-        <v>0</v>
+        <v>0.9943270931566247</v>
       </c>
       <c r="R34">
-        <v>0</v>
+        <v>0.2127953882871947</v>
       </c>
       <c r="S34">
-        <v>0</v>
+        <v>694</v>
       </c>
       <c r="T34">
-        <v>0</v>
+        <v>45</v>
       </c>
       <c r="U34">
-        <v>0</v>
+        <v>79</v>
       </c>
       <c r="V34">
-        <v>0</v>
+        <v>525</v>
       </c>
       <c r="W34">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="X34">
-        <v>0</v>
+        <v>277</v>
       </c>
       <c r="Y34">
-        <v>0</v>
+        <v>0.017401231824</v>
       </c>
       <c r="Z34">
-        <v>0</v>
+        <v>0.07086278547262248</v>
       </c>
       <c r="AA34">
-        <v>0</v>
+        <v>52.203695472</v>
       </c>
       <c r="AB34">
-        <v>0</v>
+        <v>49.178773118</v>
       </c>
       <c r="AC34">
-        <v>0</v>
+        <v>14.705897088</v>
       </c>
       <c r="AD34">
-        <v>0</v>
+        <v>16.317423111</v>
       </c>
       <c r="AE34">
-        <v>0</v>
+        <v>35.148505659</v>
       </c>
       <c r="AF34">
         <v>0</v>
@@ -3963,527 +3963,527 @@
     </row>
     <row r="35">
       <c r="A35">
-        <v>12067</v>
+        <v>14731</v>
       </c>
       <c r="B35">
-        <v>47</v>
+        <v>67</v>
       </c>
       <c r="C35">
-        <v>199</v>
+        <v>208</v>
       </c>
       <c r="D35">
-        <v>136</v>
+        <v>124</v>
       </c>
       <c r="E35">
-        <v>332</v>
+        <v>103</v>
       </c>
       <c r="F35">
-        <v>457</v>
+        <v>788</v>
       </c>
       <c r="G35">
-        <v>353</v>
+        <v>161</v>
       </c>
       <c r="H35">
-        <v>356</v>
+        <v>111</v>
       </c>
       <c r="I35">
-        <v>650</v>
+        <v>170</v>
       </c>
       <c r="J35">
-        <v>105</v>
+        <v>1088</v>
       </c>
       <c r="K35">
-        <v>470</v>
+        <v>1268</v>
       </c>
       <c r="L35">
-        <v>377</v>
+        <v>724</v>
       </c>
       <c r="M35">
-        <v>318</v>
+        <v>193</v>
       </c>
       <c r="N35">
-        <v>517</v>
+        <v>300</v>
       </c>
       <c r="O35">
-        <v>916</v>
+        <v>237</v>
       </c>
       <c r="P35">
-        <v>402</v>
+        <v>278</v>
       </c>
       <c r="Q35">
-        <v>1.077236904658103</v>
+        <v>0.9612415368990647</v>
       </c>
       <c r="R35">
-        <v>0.326150542581423</v>
+        <v>0.2746333598236143</v>
       </c>
       <c r="S35">
-        <v>1611</v>
+        <v>1271</v>
       </c>
       <c r="T35">
-        <v>445</v>
+        <v>109</v>
       </c>
       <c r="U35">
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="V35">
-        <v>317</v>
+        <v>342</v>
       </c>
       <c r="W35">
-        <v>52</v>
+        <v>2</v>
       </c>
       <c r="X35">
-        <v>255</v>
+        <v>13</v>
       </c>
       <c r="Y35">
-        <v>0.06499107722233333</v>
+        <v>0.04615284263965334</v>
       </c>
       <c r="Z35">
-        <v>0.1062482289112353</v>
+        <v>0.1035015911644375</v>
       </c>
       <c r="AA35">
-        <v>194.973231667</v>
+        <v>138.45852791896</v>
       </c>
       <c r="AB35">
-        <v>171.165896776</v>
+        <v>131.55052237</v>
       </c>
       <c r="AC35">
-        <v>23.822823375</v>
+        <v>31.365570623</v>
       </c>
       <c r="AD35">
-        <v>36.853143137</v>
+        <v>56.155896495</v>
       </c>
       <c r="AE35">
-        <v>60.573625189</v>
+        <v>86.61321055400001</v>
       </c>
       <c r="AF35">
-        <v>82.65475698100001</v>
+        <v>117.346722634</v>
       </c>
       <c r="AG35">
-        <v>107.271065678</v>
+        <v>134.538752376</v>
       </c>
       <c r="AH35">
-        <v>130.592298752</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>12068</v>
+        <v>11756</v>
       </c>
       <c r="B36">
-        <v>29</v>
+        <v>0</v>
       </c>
       <c r="C36">
-        <v>74</v>
+        <v>0</v>
       </c>
       <c r="D36">
-        <v>46</v>
+        <v>0</v>
       </c>
       <c r="E36">
-        <v>64</v>
+        <v>0</v>
       </c>
       <c r="F36">
-        <v>622</v>
+        <v>0</v>
       </c>
       <c r="G36">
-        <v>257</v>
+        <v>0</v>
       </c>
       <c r="H36">
-        <v>644</v>
+        <v>0</v>
       </c>
       <c r="I36">
-        <v>842</v>
+        <v>0</v>
       </c>
       <c r="J36">
-        <v>348</v>
+        <v>3000</v>
       </c>
       <c r="K36">
-        <v>422</v>
+        <v>3000</v>
       </c>
       <c r="L36">
-        <v>471</v>
+        <v>0</v>
       </c>
       <c r="M36">
-        <v>562</v>
+        <v>0</v>
       </c>
       <c r="N36">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="O36">
-        <v>537</v>
+        <v>0</v>
       </c>
       <c r="P36">
-        <v>634</v>
+        <v>0</v>
       </c>
       <c r="Q36">
-        <v>1.149653439715206</v>
+        <v>0</v>
       </c>
       <c r="R36">
-        <v>0.3920960078494957</v>
+        <v>0</v>
       </c>
       <c r="S36">
-        <v>1418</v>
+        <v>0</v>
       </c>
       <c r="T36">
-        <v>772</v>
+        <v>0</v>
       </c>
       <c r="U36">
-        <v>184</v>
+        <v>0</v>
       </c>
       <c r="V36">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="W36">
-        <v>36</v>
+        <v>0</v>
       </c>
       <c r="X36">
-        <v>23</v>
+        <v>0</v>
       </c>
       <c r="Y36">
-        <v>0.05702314289483333</v>
+        <v>0</v>
       </c>
       <c r="Z36">
-        <v>0.09207060526629054</v>
+        <v>0</v>
       </c>
       <c r="AA36">
-        <v>171.0694286845</v>
+        <v>0</v>
       </c>
       <c r="AB36">
-        <v>130.5561182676</v>
+        <v>0</v>
       </c>
       <c r="AC36">
-        <v>28.7279678165</v>
+        <v>0</v>
       </c>
       <c r="AD36">
-        <v>51.6336505173</v>
+        <v>0</v>
       </c>
       <c r="AE36">
-        <v>68.43206845820001</v>
+        <v>0</v>
       </c>
       <c r="AF36">
-        <v>91.5006471005</v>
+        <v>0</v>
       </c>
       <c r="AG36">
-        <v>109.0869068761</v>
+        <v>0</v>
       </c>
       <c r="AH36">
-        <v>127.5684101063</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>12065</v>
+        <v>12067</v>
       </c>
       <c r="B37">
-        <v>15</v>
+        <v>47</v>
       </c>
       <c r="C37">
-        <v>53</v>
+        <v>199</v>
       </c>
       <c r="D37">
-        <v>55</v>
+        <v>136</v>
       </c>
       <c r="E37">
-        <v>80</v>
+        <v>332</v>
       </c>
       <c r="F37">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="G37">
-        <v>298</v>
+        <v>353</v>
       </c>
       <c r="H37">
-        <v>244</v>
+        <v>356</v>
       </c>
       <c r="I37">
-        <v>227</v>
+        <v>650</v>
       </c>
       <c r="J37">
-        <v>461</v>
+        <v>105</v>
       </c>
       <c r="K37">
-        <v>1548</v>
+        <v>470</v>
       </c>
       <c r="L37">
-        <v>457</v>
+        <v>377</v>
       </c>
       <c r="M37">
+        <v>318</v>
+      </c>
+      <c r="N37">
+        <v>517</v>
+      </c>
+      <c r="O37">
+        <v>916</v>
+      </c>
+      <c r="P37">
+        <v>402</v>
+      </c>
+      <c r="Q37">
+        <v>1.077236904658103</v>
+      </c>
+      <c r="R37">
+        <v>0.326150542581423</v>
+      </c>
+      <c r="S37">
+        <v>1611</v>
+      </c>
+      <c r="T37">
+        <v>445</v>
+      </c>
+      <c r="U37">
+        <v>105</v>
+      </c>
+      <c r="V37">
+        <v>317</v>
+      </c>
+      <c r="W37">
         <v>52</v>
       </c>
-      <c r="N37">
-        <v>398</v>
-      </c>
-      <c r="O37">
-        <v>435</v>
-      </c>
-      <c r="P37">
-        <v>110</v>
-      </c>
-      <c r="Q37">
-        <v>1.068454885659091</v>
-      </c>
-      <c r="R37">
-        <v>0.2900939295165289</v>
-      </c>
-      <c r="S37">
-        <v>527</v>
-      </c>
-      <c r="T37">
-        <v>285</v>
-      </c>
-      <c r="U37">
-        <v>114</v>
-      </c>
-      <c r="V37">
-        <v>391</v>
-      </c>
-      <c r="W37">
-        <v>135</v>
-      </c>
       <c r="X37">
-        <v>105</v>
+        <v>255</v>
       </c>
       <c r="Y37">
-        <v>0.018841648088</v>
+        <v>0.06499107722233333</v>
       </c>
       <c r="Z37">
-        <v>0.08271145985199241</v>
+        <v>0.1062482289112353</v>
       </c>
       <c r="AA37">
-        <v>56.524944264</v>
+        <v>194.973231667</v>
       </c>
       <c r="AB37">
-        <v>43.588939342</v>
+        <v>171.165896776</v>
       </c>
       <c r="AC37">
-        <v>13.186941817</v>
+        <v>23.822823375</v>
       </c>
       <c r="AD37">
-        <v>31.108939664</v>
+        <v>36.853143137</v>
       </c>
       <c r="AE37">
-        <v>47.956995273</v>
+        <v>60.573625189</v>
       </c>
       <c r="AF37">
-        <v>55.375485867</v>
+        <v>82.65475698100001</v>
       </c>
       <c r="AG37">
-        <v>55.375485867</v>
+        <v>107.271065678</v>
       </c>
       <c r="AH37">
-        <v>55.375485867</v>
+        <v>130.592298752</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>14733</v>
+        <v>12068</v>
       </c>
       <c r="B38">
-        <v>0</v>
+        <v>29</v>
       </c>
       <c r="C38">
-        <v>0</v>
+        <v>74</v>
       </c>
       <c r="D38">
-        <v>0</v>
+        <v>46</v>
       </c>
       <c r="E38">
-        <v>0</v>
+        <v>64</v>
       </c>
       <c r="F38">
-        <v>0</v>
+        <v>622</v>
       </c>
       <c r="G38">
-        <v>0</v>
+        <v>257</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>644</v>
       </c>
       <c r="I38">
-        <v>0</v>
+        <v>842</v>
       </c>
       <c r="J38">
-        <v>3000</v>
+        <v>348</v>
       </c>
       <c r="K38">
-        <v>3000</v>
+        <v>422</v>
       </c>
       <c r="L38">
-        <v>0</v>
+        <v>471</v>
       </c>
       <c r="M38">
-        <v>0</v>
+        <v>562</v>
       </c>
       <c r="N38">
-        <v>0</v>
+        <v>374</v>
       </c>
       <c r="O38">
-        <v>0</v>
+        <v>537</v>
       </c>
       <c r="P38">
-        <v>0</v>
+        <v>634</v>
       </c>
       <c r="Q38">
-        <v>0</v>
+        <v>1.149653439715206</v>
       </c>
       <c r="R38">
-        <v>0</v>
+        <v>0.3920960078494957</v>
       </c>
       <c r="S38">
-        <v>0</v>
+        <v>1418</v>
       </c>
       <c r="T38">
-        <v>0</v>
+        <v>772</v>
       </c>
       <c r="U38">
-        <v>0</v>
+        <v>184</v>
       </c>
       <c r="V38">
-        <v>0</v>
+        <v>168</v>
       </c>
       <c r="W38">
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="X38">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="Y38">
-        <v>0</v>
+        <v>0.05702314289483333</v>
       </c>
       <c r="Z38">
-        <v>0</v>
+        <v>0.09207060526629054</v>
       </c>
       <c r="AA38">
-        <v>0</v>
+        <v>171.0694286845</v>
       </c>
       <c r="AB38">
-        <v>0</v>
+        <v>130.5561182676</v>
       </c>
       <c r="AC38">
-        <v>0</v>
+        <v>28.7279678165</v>
       </c>
       <c r="AD38">
-        <v>0</v>
+        <v>51.6336505173</v>
       </c>
       <c r="AE38">
-        <v>0</v>
+        <v>68.43206845820001</v>
       </c>
       <c r="AF38">
-        <v>0</v>
+        <v>91.5006471005</v>
       </c>
       <c r="AG38">
-        <v>0</v>
+        <v>109.0869068761</v>
       </c>
       <c r="AH38">
-        <v>0</v>
+        <v>127.5684101063</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>14739</v>
+        <v>12065</v>
       </c>
       <c r="B39">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="C39">
-        <v>148</v>
+        <v>53</v>
       </c>
       <c r="D39">
-        <v>106</v>
+        <v>55</v>
       </c>
       <c r="E39">
-        <v>96</v>
+        <v>80</v>
       </c>
       <c r="F39">
-        <v>493</v>
+        <v>480</v>
       </c>
       <c r="G39">
-        <v>176</v>
+        <v>298</v>
       </c>
       <c r="H39">
-        <v>212</v>
+        <v>244</v>
       </c>
       <c r="I39">
-        <v>330</v>
+        <v>227</v>
       </c>
       <c r="J39">
-        <v>1262</v>
+        <v>461</v>
       </c>
       <c r="K39">
-        <v>1419</v>
+        <v>1548</v>
       </c>
       <c r="L39">
-        <v>423</v>
+        <v>457</v>
       </c>
       <c r="M39">
-        <v>259</v>
+        <v>52</v>
       </c>
       <c r="N39">
-        <v>305</v>
+        <v>398</v>
       </c>
       <c r="O39">
+        <v>435</v>
+      </c>
+      <c r="P39">
+        <v>110</v>
+      </c>
+      <c r="Q39">
+        <v>1.068454885659091</v>
+      </c>
+      <c r="R39">
+        <v>0.2900939295165289</v>
+      </c>
+      <c r="S39">
+        <v>527</v>
+      </c>
+      <c r="T39">
         <v>285</v>
       </c>
-      <c r="P39">
-        <v>309</v>
-      </c>
-      <c r="Q39">
-        <v>1.045519989922454</v>
-      </c>
-      <c r="R39">
-        <v>0.3241832348425047</v>
-      </c>
-      <c r="S39">
-        <v>1064</v>
-      </c>
-      <c r="T39">
-        <v>277</v>
-      </c>
       <c r="U39">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="V39">
-        <v>84</v>
+        <v>391</v>
       </c>
       <c r="W39">
-        <v>35</v>
+        <v>135</v>
       </c>
       <c r="X39">
-        <v>24</v>
+        <v>105</v>
       </c>
       <c r="Y39">
-        <v>0.0374405314243</v>
+        <v>0.018841648088</v>
       </c>
       <c r="Z39">
-        <v>0.0916818051299812</v>
+        <v>0.08271145985199241</v>
       </c>
       <c r="AA39">
-        <v>112.3215942729</v>
+        <v>56.524944264</v>
       </c>
       <c r="AB39">
-        <v>97.5494406583</v>
+        <v>43.588939342</v>
       </c>
       <c r="AC39">
-        <v>24.817617823</v>
+        <v>13.186941817</v>
       </c>
       <c r="AD39">
-        <v>46.8641091858</v>
+        <v>31.108939664</v>
       </c>
       <c r="AE39">
-        <v>60.5111875448</v>
+        <v>47.956995273</v>
       </c>
       <c r="AF39">
-        <v>79.102341307</v>
+        <v>55.375485867</v>
       </c>
       <c r="AG39">
-        <v>105.3188281953</v>
+        <v>55.375485867</v>
       </c>
       <c r="AH39">
-        <v>0</v>
+        <v>55.375485867</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>14675</v>
+        <v>14733</v>
       </c>
       <c r="B40">
         <v>0</v>
@@ -4587,831 +4587,831 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>14672</v>
+        <v>14739</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="C41">
-        <v>43</v>
+        <v>148</v>
       </c>
       <c r="D41">
-        <v>65</v>
+        <v>106</v>
       </c>
       <c r="E41">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F41">
-        <v>921</v>
+        <v>493</v>
       </c>
       <c r="G41">
-        <v>286</v>
+        <v>176</v>
       </c>
       <c r="H41">
-        <v>521</v>
+        <v>212</v>
       </c>
       <c r="I41">
-        <v>558</v>
+        <v>330</v>
       </c>
       <c r="J41">
-        <v>211</v>
+        <v>1262</v>
       </c>
       <c r="K41">
-        <v>502</v>
+        <v>1419</v>
       </c>
       <c r="L41">
-        <v>759</v>
+        <v>423</v>
       </c>
       <c r="M41">
-        <v>425</v>
+        <v>259</v>
       </c>
       <c r="N41">
-        <v>454</v>
+        <v>305</v>
       </c>
       <c r="O41">
-        <v>397</v>
+        <v>285</v>
       </c>
       <c r="P41">
-        <v>463</v>
+        <v>309</v>
       </c>
       <c r="Q41">
-        <v>1.099220169823539</v>
+        <v>1.045519989922454</v>
       </c>
       <c r="R41">
-        <v>0.3213519063194555</v>
+        <v>0.3241832348425047</v>
       </c>
       <c r="S41">
-        <v>1108</v>
+        <v>1064</v>
       </c>
       <c r="T41">
-        <v>692</v>
+        <v>277</v>
       </c>
       <c r="U41">
-        <v>214</v>
+        <v>121</v>
       </c>
       <c r="V41">
-        <v>403</v>
+        <v>84</v>
       </c>
       <c r="W41">
-        <v>81</v>
+        <v>35</v>
       </c>
       <c r="X41">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="Y41">
-        <v>0.04240698567533333</v>
+        <v>0.0374405314243</v>
       </c>
       <c r="Z41">
-        <v>0.08575051919945849</v>
+        <v>0.0916818051299812</v>
       </c>
       <c r="AA41">
-        <v>127.220957026</v>
+        <v>112.3215942729</v>
       </c>
       <c r="AB41">
-        <v>95.01157527300001</v>
+        <v>97.5494406583</v>
       </c>
       <c r="AC41">
-        <v>24.109964196</v>
+        <v>24.817617823</v>
       </c>
       <c r="AD41">
-        <v>43.963249479</v>
+        <v>46.8641091858</v>
       </c>
       <c r="AE41">
-        <v>55.461370928</v>
+        <v>60.5111875448</v>
       </c>
       <c r="AF41">
-        <v>71.281038159</v>
+        <v>79.102341307</v>
       </c>
       <c r="AG41">
-        <v>88.412876766</v>
+        <v>105.3188281953</v>
       </c>
       <c r="AH41">
-        <v>103.163733472</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>14673</v>
+        <v>14675</v>
       </c>
       <c r="B42">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="C42">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="D42">
-        <v>90</v>
+        <v>0</v>
       </c>
       <c r="E42">
-        <v>611</v>
+        <v>0</v>
       </c>
       <c r="F42">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="G42">
-        <v>283</v>
+        <v>0</v>
       </c>
       <c r="H42">
-        <v>435</v>
+        <v>0</v>
       </c>
       <c r="I42">
-        <v>482</v>
+        <v>0</v>
       </c>
       <c r="J42">
-        <v>266</v>
+        <v>3000</v>
       </c>
       <c r="K42">
-        <v>791</v>
+        <v>3000</v>
       </c>
       <c r="L42">
-        <v>217</v>
+        <v>0</v>
       </c>
       <c r="M42">
-        <v>298</v>
+        <v>0</v>
       </c>
       <c r="N42">
-        <v>370</v>
+        <v>0</v>
       </c>
       <c r="O42">
-        <v>793</v>
+        <v>0</v>
       </c>
       <c r="P42">
-        <v>531</v>
+        <v>0</v>
       </c>
       <c r="Q42">
-        <v>1.072720232428158</v>
+        <v>0</v>
       </c>
       <c r="R42">
-        <v>0.2638337249121774</v>
+        <v>0</v>
       </c>
       <c r="S42">
-        <v>1261</v>
+        <v>0</v>
       </c>
       <c r="T42">
-        <v>165</v>
+        <v>0</v>
       </c>
       <c r="U42">
-        <v>286</v>
+        <v>0</v>
       </c>
       <c r="V42">
-        <v>492</v>
+        <v>0</v>
       </c>
       <c r="W42">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="X42">
-        <v>374</v>
+        <v>0</v>
       </c>
       <c r="Y42">
-        <v>0.03607171990666667</v>
+        <v>0</v>
       </c>
       <c r="Z42">
-        <v>0.07808098904837431</v>
+        <v>0</v>
       </c>
       <c r="AA42">
-        <v>108.21515972</v>
+        <v>0</v>
       </c>
       <c r="AB42">
-        <v>98.46012718999999</v>
+        <v>0</v>
       </c>
       <c r="AC42">
-        <v>16.921563081</v>
+        <v>0</v>
       </c>
       <c r="AD42">
-        <v>29.667975369</v>
+        <v>0</v>
       </c>
       <c r="AE42">
-        <v>36.861188311</v>
+        <v>0</v>
       </c>
       <c r="AF42">
-        <v>52.705811749</v>
+        <v>0</v>
       </c>
       <c r="AG42">
-        <v>63.016966618</v>
+        <v>0</v>
       </c>
       <c r="AH42">
-        <v>73.402168129</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>14671</v>
+        <v>14672</v>
       </c>
       <c r="B43">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="D43">
-        <v>144</v>
+        <v>65</v>
       </c>
       <c r="E43">
-        <v>83</v>
+        <v>99</v>
       </c>
       <c r="F43">
-        <v>649</v>
+        <v>921</v>
       </c>
       <c r="G43">
-        <v>181</v>
+        <v>286</v>
       </c>
       <c r="H43">
-        <v>308</v>
+        <v>521</v>
       </c>
       <c r="I43">
-        <v>637</v>
+        <v>558</v>
       </c>
       <c r="J43">
-        <v>635</v>
+        <v>211</v>
       </c>
       <c r="K43">
-        <v>889</v>
+        <v>502</v>
       </c>
       <c r="L43">
-        <v>527</v>
+        <v>759</v>
       </c>
       <c r="M43">
-        <v>312</v>
+        <v>425</v>
       </c>
       <c r="N43">
-        <v>340</v>
+        <v>454</v>
       </c>
       <c r="O43">
-        <v>425</v>
+        <v>397</v>
       </c>
       <c r="P43">
-        <v>507</v>
+        <v>463</v>
       </c>
       <c r="Q43">
-        <v>1.077372431046518</v>
+        <v>1.099220169823539</v>
       </c>
       <c r="R43">
-        <v>0.3151374594647087</v>
+        <v>0.3213519063194555</v>
       </c>
       <c r="S43">
-        <v>1375</v>
+        <v>1108</v>
       </c>
       <c r="T43">
-        <v>355</v>
+        <v>692</v>
       </c>
       <c r="U43">
-        <v>80</v>
+        <v>214</v>
       </c>
       <c r="V43">
-        <v>271</v>
+        <v>403</v>
       </c>
       <c r="W43">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="X43">
-        <v>177</v>
+        <v>50</v>
       </c>
       <c r="Y43">
-        <v>0.03333940090566666</v>
+        <v>0.04240698567533333</v>
       </c>
       <c r="Z43">
-        <v>0.06171376613163636</v>
+        <v>0.08575051919945849</v>
       </c>
       <c r="AA43">
-        <v>100.018202717</v>
+        <v>127.220957026</v>
       </c>
       <c r="AB43">
-        <v>84.856428431</v>
+        <v>95.01157527300001</v>
       </c>
       <c r="AC43">
-        <v>12.600218785</v>
+        <v>24.109964196</v>
       </c>
       <c r="AD43">
-        <v>29.901659148</v>
+        <v>43.963249479</v>
       </c>
       <c r="AE43">
-        <v>43.202783916</v>
+        <v>55.461370928</v>
       </c>
       <c r="AF43">
-        <v>51.872209149</v>
+        <v>71.281038159</v>
       </c>
       <c r="AG43">
-        <v>66.26112639500001</v>
+        <v>88.412876766</v>
       </c>
       <c r="AH43">
-        <v>80.42873317900001</v>
+        <v>103.163733472</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>14641</v>
+        <v>14673</v>
       </c>
       <c r="B44">
-        <v>35</v>
+        <v>8</v>
       </c>
       <c r="C44">
-        <v>72</v>
+        <v>17</v>
       </c>
       <c r="D44">
-        <v>152</v>
+        <v>90</v>
       </c>
       <c r="E44">
-        <v>84</v>
+        <v>611</v>
       </c>
       <c r="F44">
-        <v>447</v>
+        <v>283</v>
       </c>
       <c r="G44">
-        <v>274</v>
+        <v>283</v>
       </c>
       <c r="H44">
-        <v>527</v>
+        <v>435</v>
       </c>
       <c r="I44">
-        <v>639</v>
+        <v>482</v>
       </c>
       <c r="J44">
-        <v>559</v>
+        <v>266</v>
       </c>
       <c r="K44">
-        <v>770</v>
+        <v>791</v>
       </c>
       <c r="L44">
-        <v>412</v>
+        <v>217</v>
       </c>
       <c r="M44">
-        <v>404</v>
+        <v>298</v>
       </c>
       <c r="N44">
-        <v>482</v>
+        <v>370</v>
       </c>
       <c r="O44">
-        <v>755</v>
+        <v>793</v>
       </c>
       <c r="P44">
-        <v>177</v>
+        <v>531</v>
       </c>
       <c r="Q44">
-        <v>1.155525932695785</v>
+        <v>1.072720232428158</v>
       </c>
       <c r="R44">
-        <v>0.3630594387816143</v>
+        <v>0.2638337249121774</v>
       </c>
       <c r="S44">
-        <v>1047</v>
+        <v>1261</v>
       </c>
       <c r="T44">
-        <v>612</v>
+        <v>165</v>
       </c>
       <c r="U44">
-        <v>128</v>
+        <v>286</v>
       </c>
       <c r="V44">
-        <v>396</v>
+        <v>492</v>
       </c>
       <c r="W44">
-        <v>47</v>
+        <v>5</v>
       </c>
       <c r="X44">
-        <v>242</v>
+        <v>374</v>
       </c>
       <c r="Y44">
-        <v>0.04450976237666666</v>
+        <v>0.03607171990666667</v>
       </c>
       <c r="Z44">
-        <v>0.1010468263524355</v>
+        <v>0.07808098904837431</v>
       </c>
       <c r="AA44">
-        <v>133.52928713</v>
+        <v>108.21515972</v>
       </c>
       <c r="AB44">
-        <v>105.796027191</v>
+        <v>98.46012718999999</v>
       </c>
       <c r="AC44">
-        <v>18.142009921</v>
+        <v>16.921563081</v>
       </c>
       <c r="AD44">
-        <v>35.779210981</v>
+        <v>29.667975369</v>
       </c>
       <c r="AE44">
-        <v>55.654138764</v>
+        <v>36.861188311</v>
       </c>
       <c r="AF44">
-        <v>75.556626194</v>
+        <v>52.705811749</v>
       </c>
       <c r="AG44">
-        <v>94.40515643099999</v>
+        <v>63.016966618</v>
       </c>
       <c r="AH44">
-        <v>109.044053422</v>
+        <v>73.402168129</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>202305</v>
+        <v>14671</v>
       </c>
       <c r="B45">
-        <v>34</v>
+        <v>24</v>
       </c>
       <c r="C45">
-        <v>104</v>
+        <v>85</v>
       </c>
       <c r="D45">
-        <v>120</v>
+        <v>144</v>
       </c>
       <c r="E45">
-        <v>193</v>
+        <v>83</v>
       </c>
       <c r="F45">
-        <v>530</v>
+        <v>649</v>
       </c>
       <c r="G45">
-        <v>146</v>
+        <v>181</v>
       </c>
       <c r="H45">
-        <v>342</v>
+        <v>308</v>
       </c>
       <c r="I45">
-        <v>394</v>
+        <v>637</v>
       </c>
       <c r="J45">
-        <v>975</v>
+        <v>635</v>
       </c>
       <c r="K45">
-        <v>1137</v>
+        <v>889</v>
       </c>
       <c r="L45">
-        <v>373</v>
+        <v>527</v>
       </c>
       <c r="M45">
-        <v>325</v>
+        <v>312</v>
       </c>
       <c r="N45">
-        <v>312</v>
+        <v>340</v>
       </c>
       <c r="O45">
-        <v>366</v>
+        <v>425</v>
       </c>
       <c r="P45">
-        <v>487</v>
+        <v>507</v>
       </c>
       <c r="Q45">
-        <v>1.051850130086849</v>
+        <v>1.077372431046518</v>
       </c>
       <c r="R45">
-        <v>0.3079515840236178</v>
+        <v>0.3151374594647087</v>
       </c>
       <c r="S45">
-        <v>1306</v>
+        <v>1375</v>
       </c>
       <c r="T45">
-        <v>118</v>
+        <v>355</v>
       </c>
       <c r="U45">
-        <v>201</v>
+        <v>80</v>
       </c>
       <c r="V45">
-        <v>181</v>
+        <v>271</v>
       </c>
       <c r="W45">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="X45">
-        <v>39</v>
+        <v>177</v>
       </c>
       <c r="Y45">
-        <v>0.04612498890333333</v>
+        <v>0.03333940090566666</v>
       </c>
       <c r="Z45">
-        <v>0.1007828204701378</v>
+        <v>0.06171376613163636</v>
       </c>
       <c r="AA45">
-        <v>138.37496671</v>
+        <v>100.018202717</v>
       </c>
       <c r="AB45">
-        <v>131.622363534</v>
+        <v>84.856428431</v>
       </c>
       <c r="AC45">
-        <v>28.605166603</v>
+        <v>12.600218785</v>
       </c>
       <c r="AD45">
-        <v>49.798678411</v>
+        <v>29.901659148</v>
       </c>
       <c r="AE45">
-        <v>77.401083298</v>
+        <v>43.202783916</v>
       </c>
       <c r="AF45">
-        <v>97.624565797</v>
+        <v>51.872209149</v>
       </c>
       <c r="AG45">
-        <v>113.303162893</v>
+        <v>66.26112639500001</v>
       </c>
       <c r="AH45">
-        <v>137.560560446</v>
+        <v>80.42873317900001</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>14674</v>
+        <v>14641</v>
       </c>
       <c r="B46">
-        <v>6</v>
+        <v>35</v>
       </c>
       <c r="C46">
-        <v>37</v>
+        <v>72</v>
       </c>
       <c r="D46">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="E46">
-        <v>69</v>
+        <v>84</v>
       </c>
       <c r="F46">
-        <v>678</v>
+        <v>447</v>
       </c>
       <c r="G46">
-        <v>62</v>
+        <v>274</v>
       </c>
       <c r="H46">
-        <v>121</v>
+        <v>527</v>
       </c>
       <c r="I46">
-        <v>236</v>
+        <v>639</v>
       </c>
       <c r="J46">
-        <v>1712</v>
+        <v>559</v>
       </c>
       <c r="K46">
-        <v>1761</v>
+        <v>770</v>
       </c>
       <c r="L46">
-        <v>625</v>
+        <v>412</v>
       </c>
       <c r="M46">
-        <v>122</v>
+        <v>404</v>
       </c>
       <c r="N46">
-        <v>94</v>
+        <v>482</v>
       </c>
       <c r="O46">
-        <v>255</v>
+        <v>755</v>
       </c>
       <c r="P46">
-        <v>143</v>
+        <v>177</v>
       </c>
       <c r="Q46">
-        <v>1.019410302708798</v>
+        <v>1.155525932695785</v>
       </c>
       <c r="R46">
-        <v>0.2273146486117837</v>
+        <v>0.3630594387816143</v>
       </c>
       <c r="S46">
-        <v>473</v>
+        <v>1047</v>
       </c>
       <c r="T46">
-        <v>203</v>
+        <v>612</v>
       </c>
       <c r="U46">
-        <v>17</v>
+        <v>128</v>
       </c>
       <c r="V46">
-        <v>542</v>
+        <v>396</v>
       </c>
       <c r="W46">
-        <v>4</v>
+        <v>47</v>
       </c>
       <c r="X46">
-        <v>37</v>
+        <v>242</v>
       </c>
       <c r="Y46">
-        <v>0.02236546031109</v>
+        <v>0.04450976237666666</v>
       </c>
       <c r="Z46">
-        <v>0.1128287805073996</v>
+        <v>0.1010468263524355</v>
       </c>
       <c r="AA46">
-        <v>67.09638093327</v>
+        <v>133.52928713</v>
       </c>
       <c r="AB46">
-        <v>53.36801318</v>
+        <v>105.796027191</v>
       </c>
       <c r="AC46">
-        <v>27.310724662</v>
+        <v>18.142009921</v>
       </c>
       <c r="AD46">
-        <v>54.50623993</v>
+        <v>35.779210981</v>
       </c>
       <c r="AE46">
-        <v>0</v>
+        <v>55.654138764</v>
       </c>
       <c r="AF46">
-        <v>0</v>
+        <v>75.556626194</v>
       </c>
       <c r="AG46">
-        <v>0</v>
+        <v>94.40515643099999</v>
       </c>
       <c r="AH46">
-        <v>0</v>
+        <v>109.044053422</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>14642</v>
+        <v>202305</v>
       </c>
       <c r="B47">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="C47">
-        <v>31</v>
+        <v>104</v>
       </c>
       <c r="D47">
-        <v>83</v>
+        <v>120</v>
       </c>
       <c r="E47">
-        <v>19</v>
+        <v>193</v>
       </c>
       <c r="F47">
-        <v>354</v>
+        <v>530</v>
       </c>
       <c r="G47">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="H47">
-        <v>280</v>
+        <v>342</v>
       </c>
       <c r="I47">
-        <v>380</v>
+        <v>394</v>
       </c>
       <c r="J47">
-        <v>1649</v>
+        <v>975</v>
       </c>
       <c r="K47">
-        <v>1709</v>
+        <v>1137</v>
       </c>
       <c r="L47">
-        <v>277</v>
+        <v>373</v>
       </c>
       <c r="M47">
-        <v>194</v>
+        <v>325</v>
       </c>
       <c r="N47">
-        <v>284</v>
+        <v>312</v>
       </c>
       <c r="O47">
-        <v>282</v>
+        <v>366</v>
       </c>
       <c r="P47">
-        <v>254</v>
+        <v>487</v>
       </c>
       <c r="Q47">
-        <v>1.142367558937723</v>
+        <v>1.051850130086849</v>
       </c>
       <c r="R47">
-        <v>0.3652159257164989</v>
+        <v>0.3079515840236178</v>
       </c>
       <c r="S47">
-        <v>792</v>
+        <v>1306</v>
       </c>
       <c r="T47">
-        <v>329</v>
+        <v>118</v>
       </c>
       <c r="U47">
+        <v>201</v>
+      </c>
+      <c r="V47">
+        <v>181</v>
+      </c>
+      <c r="W47">
+        <v>57</v>
+      </c>
+      <c r="X47">
         <v>39</v>
       </c>
-      <c r="V47">
-        <v>111</v>
-      </c>
-      <c r="W47">
-        <v>20</v>
-      </c>
-      <c r="X47">
-        <v>41</v>
-      </c>
       <c r="Y47">
-        <v>0.02567024856966667</v>
+        <v>0.04612498890333333</v>
       </c>
       <c r="Z47">
-        <v>0.07736758570328282</v>
+        <v>0.1007828204701378</v>
       </c>
       <c r="AA47">
-        <v>77.01074570900001</v>
+        <v>138.37496671</v>
       </c>
       <c r="AB47">
-        <v>61.275127877</v>
+        <v>131.622363534</v>
       </c>
       <c r="AC47">
-        <v>19.903778161</v>
+        <v>28.605166603</v>
       </c>
       <c r="AD47">
-        <v>38.904220707</v>
+        <v>49.798678411</v>
       </c>
       <c r="AE47">
-        <v>57.250328895</v>
+        <v>77.401083298</v>
       </c>
       <c r="AF47">
-        <v>72.61480394500001</v>
+        <v>97.624565797</v>
       </c>
       <c r="AG47">
-        <v>0</v>
+        <v>113.303162893</v>
       </c>
       <c r="AH47">
-        <v>0</v>
+        <v>137.560560446</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>202309</v>
+        <v>14674</v>
       </c>
       <c r="B48">
-        <v>53</v>
+        <v>6</v>
       </c>
       <c r="C48">
-        <v>140</v>
+        <v>37</v>
       </c>
       <c r="D48">
-        <v>102</v>
+        <v>30</v>
       </c>
       <c r="E48">
-        <v>433</v>
+        <v>69</v>
       </c>
       <c r="F48">
-        <v>644</v>
+        <v>678</v>
       </c>
       <c r="G48">
-        <v>86</v>
+        <v>62</v>
       </c>
       <c r="H48">
-        <v>205</v>
+        <v>121</v>
       </c>
       <c r="I48">
-        <v>374</v>
+        <v>236</v>
       </c>
       <c r="J48">
-        <v>828</v>
+        <v>1712</v>
       </c>
       <c r="K48">
-        <v>963</v>
+        <v>1761</v>
       </c>
       <c r="L48">
-        <v>681</v>
+        <v>625</v>
       </c>
       <c r="M48">
-        <v>178</v>
+        <v>122</v>
       </c>
       <c r="N48">
-        <v>210</v>
+        <v>94</v>
       </c>
       <c r="O48">
-        <v>805</v>
+        <v>255</v>
       </c>
       <c r="P48">
-        <v>163</v>
+        <v>143</v>
       </c>
       <c r="Q48">
-        <v>1.024161253742072</v>
+        <v>1.019410302708798</v>
       </c>
       <c r="R48">
-        <v>0.2466448382675503</v>
+        <v>0.2273146486117837</v>
       </c>
       <c r="S48">
-        <v>720</v>
+        <v>473</v>
       </c>
       <c r="T48">
-        <v>275</v>
+        <v>203</v>
       </c>
       <c r="U48">
-        <v>269</v>
+        <v>17</v>
       </c>
       <c r="V48">
-        <v>757</v>
+        <v>542</v>
       </c>
       <c r="W48">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="X48">
-        <v>282</v>
+        <v>37</v>
       </c>
       <c r="Y48">
-        <v>0.02928621908233333</v>
+        <v>0.02236546031109</v>
       </c>
       <c r="Z48">
-        <v>0.1006267827625</v>
+        <v>0.1128287805073996</v>
       </c>
       <c r="AA48">
-        <v>87.858657247</v>
+        <v>67.09638093327</v>
       </c>
       <c r="AB48">
-        <v>72.451283589</v>
+        <v>53.36801318</v>
       </c>
       <c r="AC48">
-        <v>26.894201881</v>
+        <v>27.310724662</v>
       </c>
       <c r="AD48">
-        <v>50.323384342</v>
+        <v>54.50623993</v>
       </c>
       <c r="AE48">
-        <v>56.405327607</v>
+        <v>0</v>
       </c>
       <c r="AF48">
-        <v>60.252062814</v>
+        <v>0</v>
       </c>
       <c r="AG48">
-        <v>76.023184211</v>
+        <v>0</v>
       </c>
       <c r="AH48">
         <v>0</v>
@@ -5419,103 +5419,103 @@
     </row>
     <row r="49">
       <c r="A49">
-        <v>202308</v>
+        <v>14642</v>
       </c>
       <c r="B49">
-        <v>23</v>
+        <v>1</v>
       </c>
       <c r="C49">
-        <v>67</v>
+        <v>31</v>
       </c>
       <c r="D49">
+        <v>83</v>
+      </c>
+      <c r="E49">
+        <v>19</v>
+      </c>
+      <c r="F49">
+        <v>354</v>
+      </c>
+      <c r="G49">
+        <v>143</v>
+      </c>
+      <c r="H49">
+        <v>280</v>
+      </c>
+      <c r="I49">
+        <v>380</v>
+      </c>
+      <c r="J49">
+        <v>1649</v>
+      </c>
+      <c r="K49">
+        <v>1709</v>
+      </c>
+      <c r="L49">
+        <v>277</v>
+      </c>
+      <c r="M49">
+        <v>194</v>
+      </c>
+      <c r="N49">
+        <v>284</v>
+      </c>
+      <c r="O49">
+        <v>282</v>
+      </c>
+      <c r="P49">
+        <v>254</v>
+      </c>
+      <c r="Q49">
+        <v>1.142367558937723</v>
+      </c>
+      <c r="R49">
+        <v>0.3652159257164989</v>
+      </c>
+      <c r="S49">
+        <v>792</v>
+      </c>
+      <c r="T49">
+        <v>329</v>
+      </c>
+      <c r="U49">
+        <v>39</v>
+      </c>
+      <c r="V49">
+        <v>111</v>
+      </c>
+      <c r="W49">
         <v>20</v>
       </c>
-      <c r="E49">
-        <v>117</v>
-      </c>
-      <c r="F49">
-        <v>756</v>
-      </c>
-      <c r="G49">
-        <v>84</v>
-      </c>
-      <c r="H49">
-        <v>268</v>
-      </c>
-      <c r="I49">
-        <v>580</v>
-      </c>
-      <c r="J49">
-        <v>1048</v>
-      </c>
-      <c r="K49">
-        <v>1085</v>
-      </c>
-      <c r="L49">
-        <v>695</v>
-      </c>
-      <c r="M49">
-        <v>245</v>
-      </c>
-      <c r="N49">
-        <v>132</v>
-      </c>
-      <c r="O49">
-        <v>419</v>
-      </c>
-      <c r="P49">
-        <v>424</v>
-      </c>
-      <c r="Q49">
-        <v>1.076639429302768</v>
-      </c>
-      <c r="R49">
-        <v>0.2984660101091384</v>
-      </c>
-      <c r="S49">
-        <v>800</v>
-      </c>
-      <c r="T49">
-        <v>468</v>
-      </c>
-      <c r="U49">
-        <v>172</v>
-      </c>
-      <c r="V49">
-        <v>458</v>
-      </c>
-      <c r="W49">
-        <v>17</v>
-      </c>
       <c r="X49">
-        <v>53</v>
+        <v>41</v>
       </c>
       <c r="Y49">
-        <v>0.034436681498</v>
+        <v>0.02567024856966667</v>
       </c>
       <c r="Z49">
-        <v>0.09882537775125</v>
+        <v>0.07736758570328282</v>
       </c>
       <c r="AA49">
-        <v>103.310044494</v>
+        <v>77.01074570900001</v>
       </c>
       <c r="AB49">
-        <v>79.060302201</v>
+        <v>61.275127877</v>
       </c>
       <c r="AC49">
-        <v>21.937393705</v>
+        <v>19.903778161</v>
       </c>
       <c r="AD49">
-        <v>42.057313393</v>
+        <v>38.904220707</v>
       </c>
       <c r="AE49">
-        <v>64.08830491000001</v>
+        <v>57.250328895</v>
       </c>
       <c r="AF49">
-        <v>83.365981737</v>
+        <v>72.61480394500001</v>
       </c>
       <c r="AG49">
-        <v>101.725452821</v>
+        <v>0</v>
       </c>
       <c r="AH49">
         <v>0</v>
@@ -5523,103 +5523,103 @@
     </row>
     <row r="50">
       <c r="A50">
-        <v>202306</v>
+        <v>202309</v>
       </c>
       <c r="B50">
-        <v>6</v>
+        <v>53</v>
       </c>
       <c r="C50">
-        <v>26</v>
+        <v>140</v>
       </c>
       <c r="D50">
-        <v>117</v>
+        <v>102</v>
       </c>
       <c r="E50">
-        <v>181</v>
+        <v>433</v>
       </c>
       <c r="F50">
-        <v>249</v>
+        <v>644</v>
       </c>
       <c r="G50">
-        <v>230</v>
+        <v>86</v>
       </c>
       <c r="H50">
-        <v>450</v>
+        <v>205</v>
       </c>
       <c r="I50">
-        <v>315</v>
+        <v>374</v>
       </c>
       <c r="J50">
-        <v>1290</v>
+        <v>828</v>
       </c>
       <c r="K50">
-        <v>1426</v>
+        <v>963</v>
       </c>
       <c r="L50">
-        <v>191</v>
+        <v>681</v>
       </c>
       <c r="M50">
-        <v>250</v>
+        <v>178</v>
       </c>
       <c r="N50">
-        <v>459</v>
+        <v>210</v>
       </c>
       <c r="O50">
-        <v>518</v>
+        <v>805</v>
       </c>
       <c r="P50">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="Q50">
-        <v>1.096810383031893</v>
+        <v>1.024161253742072</v>
       </c>
       <c r="R50">
-        <v>0.3089882636194409</v>
+        <v>0.2466448382675503</v>
       </c>
       <c r="S50">
-        <v>805</v>
+        <v>720</v>
       </c>
       <c r="T50">
-        <v>311</v>
+        <v>275</v>
       </c>
       <c r="U50">
-        <v>139</v>
+        <v>269</v>
       </c>
       <c r="V50">
-        <v>316</v>
+        <v>757</v>
       </c>
       <c r="W50">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="X50">
-        <v>262</v>
+        <v>282</v>
       </c>
       <c r="Y50">
-        <v>0.03415265330833334</v>
+        <v>0.02928621908233333</v>
       </c>
       <c r="Z50">
-        <v>0.1043897665801242</v>
+        <v>0.1006267827625</v>
       </c>
       <c r="AA50">
-        <v>102.457959925</v>
+        <v>87.858657247</v>
       </c>
       <c r="AB50">
-        <v>84.03376209699999</v>
+        <v>72.451283589</v>
       </c>
       <c r="AC50">
-        <v>21.11588718</v>
+        <v>26.894201881</v>
       </c>
       <c r="AD50">
-        <v>42.288387947</v>
+        <v>50.323384342</v>
       </c>
       <c r="AE50">
-        <v>49.93025029</v>
+        <v>56.405327607</v>
       </c>
       <c r="AF50">
-        <v>71.552019311</v>
+        <v>60.252062814</v>
       </c>
       <c r="AG50">
-        <v>92.298918266</v>
+        <v>76.023184211</v>
       </c>
       <c r="AH50">
         <v>0</v>
@@ -5627,207 +5627,207 @@
     </row>
     <row r="51">
       <c r="A51">
-        <v>202307</v>
+        <v>202308</v>
       </c>
       <c r="B51">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="C51">
-        <v>59</v>
+        <v>67</v>
       </c>
       <c r="D51">
-        <v>55</v>
+        <v>20</v>
       </c>
       <c r="E51">
-        <v>37</v>
+        <v>117</v>
       </c>
       <c r="F51">
-        <v>797</v>
+        <v>756</v>
       </c>
       <c r="G51">
-        <v>234</v>
+        <v>84</v>
       </c>
       <c r="H51">
-        <v>333</v>
+        <v>268</v>
       </c>
       <c r="I51">
-        <v>483</v>
+        <v>580</v>
       </c>
       <c r="J51">
-        <v>880</v>
+        <v>1048</v>
       </c>
       <c r="K51">
-        <v>989</v>
+        <v>1085</v>
       </c>
       <c r="L51">
-        <v>663</v>
+        <v>695</v>
       </c>
       <c r="M51">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="N51">
-        <v>398</v>
+        <v>132</v>
       </c>
       <c r="O51">
-        <v>231</v>
+        <v>419</v>
       </c>
       <c r="P51">
-        <v>464</v>
+        <v>424</v>
       </c>
       <c r="Q51">
-        <v>1.079795541380706</v>
+        <v>1.076639429302768</v>
       </c>
       <c r="R51">
-        <v>0.3272960757702635</v>
+        <v>0.2984660101091384</v>
       </c>
       <c r="S51">
-        <v>1202</v>
+        <v>800</v>
       </c>
       <c r="T51">
-        <v>355</v>
+        <v>468</v>
       </c>
       <c r="U51">
         <v>172</v>
       </c>
       <c r="V51">
-        <v>259</v>
+        <v>458</v>
       </c>
       <c r="W51">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="X51">
-        <v>146</v>
+        <v>53</v>
       </c>
       <c r="Y51">
-        <v>0.04627203602123333</v>
+        <v>0.034436681498</v>
       </c>
       <c r="Z51">
-        <v>0.100569968577787</v>
+        <v>0.09882537775125</v>
       </c>
       <c r="AA51">
-        <v>138.8161080637</v>
+        <v>103.310044494</v>
       </c>
       <c r="AB51">
-        <v>120.8851022305</v>
+        <v>79.060302201</v>
       </c>
       <c r="AC51">
-        <v>33.5601492603</v>
+        <v>21.937393705</v>
       </c>
       <c r="AD51">
-        <v>61.2697885623</v>
+        <v>42.057313393</v>
       </c>
       <c r="AE51">
-        <v>79.99727161</v>
+        <v>64.08830491000001</v>
       </c>
       <c r="AF51">
-        <v>93.87450332909999</v>
+        <v>83.365981737</v>
       </c>
       <c r="AG51">
-        <v>115.232602715</v>
+        <v>101.725452821</v>
       </c>
       <c r="AH51">
-        <v>128.1463967038</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>202312</v>
+        <v>202306</v>
       </c>
       <c r="B52">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C52">
-        <v>68</v>
+        <v>26</v>
       </c>
       <c r="D52">
-        <v>57</v>
+        <v>117</v>
       </c>
       <c r="E52">
-        <v>224</v>
+        <v>181</v>
       </c>
       <c r="F52">
-        <v>886</v>
+        <v>249</v>
       </c>
       <c r="G52">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="H52">
-        <v>195</v>
+        <v>450</v>
       </c>
       <c r="I52">
-        <v>447</v>
+        <v>315</v>
       </c>
       <c r="J52">
-        <v>879</v>
+        <v>1290</v>
       </c>
       <c r="K52">
-        <v>1010</v>
+        <v>1426</v>
       </c>
       <c r="L52">
-        <v>845</v>
+        <v>191</v>
       </c>
       <c r="M52">
-        <v>179</v>
+        <v>250</v>
       </c>
       <c r="N52">
-        <v>185</v>
+        <v>459</v>
       </c>
       <c r="O52">
-        <v>511</v>
+        <v>518</v>
       </c>
       <c r="P52">
-        <v>270</v>
+        <v>156</v>
       </c>
       <c r="Q52">
-        <v>1.005732477752864</v>
+        <v>1.096810383031893</v>
       </c>
       <c r="R52">
-        <v>0.2216953773592965</v>
+        <v>0.3089882636194409</v>
       </c>
       <c r="S52">
-        <v>630</v>
+        <v>805</v>
       </c>
       <c r="T52">
-        <v>247</v>
+        <v>311</v>
       </c>
       <c r="U52">
-        <v>285</v>
+        <v>139</v>
       </c>
       <c r="V52">
-        <v>822</v>
+        <v>316</v>
       </c>
       <c r="W52">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="X52">
-        <v>146</v>
+        <v>262</v>
       </c>
       <c r="Y52">
-        <v>0.03021372439382367</v>
+        <v>0.03415265330833334</v>
       </c>
       <c r="Z52">
-        <v>0.1206385113492063</v>
+        <v>0.1043897665801242</v>
       </c>
       <c r="AA52">
-        <v>90.641173181471</v>
+        <v>102.457959925</v>
       </c>
       <c r="AB52">
-        <v>76.00226215000001</v>
+        <v>84.03376209699999</v>
       </c>
       <c r="AC52">
-        <v>11.762602788</v>
+        <v>21.11588718</v>
       </c>
       <c r="AD52">
-        <v>25.646720148</v>
+        <v>42.288387947</v>
       </c>
       <c r="AE52">
-        <v>52.99454133</v>
+        <v>49.93025029</v>
       </c>
       <c r="AF52">
-        <v>75.85890205699999</v>
+        <v>71.552019311</v>
       </c>
       <c r="AG52">
-        <v>0</v>
+        <v>92.298918266</v>
       </c>
       <c r="AH52">
         <v>0</v>
@@ -5835,204 +5835,204 @@
     </row>
     <row r="53">
       <c r="A53">
-        <v>202310</v>
+        <v>202307</v>
       </c>
       <c r="B53">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="C53">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="D53">
-        <v>296</v>
+        <v>55</v>
       </c>
       <c r="E53">
-        <v>136</v>
+        <v>37</v>
       </c>
       <c r="F53">
-        <v>990</v>
+        <v>797</v>
       </c>
       <c r="G53">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="H53">
-        <v>323</v>
+        <v>333</v>
       </c>
       <c r="I53">
-        <v>187</v>
+        <v>483</v>
       </c>
       <c r="J53">
-        <v>641</v>
+        <v>880</v>
       </c>
       <c r="K53">
-        <v>835</v>
+        <v>989</v>
       </c>
       <c r="L53">
-        <v>885</v>
+        <v>663</v>
       </c>
       <c r="M53">
-        <v>421</v>
+        <v>255</v>
       </c>
       <c r="N53">
-        <v>413</v>
+        <v>398</v>
       </c>
       <c r="O53">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="P53">
-        <v>214</v>
+        <v>464</v>
       </c>
       <c r="Q53">
-        <v>1.001446509255704</v>
+        <v>1.079795541380706</v>
       </c>
       <c r="R53">
-        <v>0.2452079346360277</v>
+        <v>0.3272960757702635</v>
       </c>
       <c r="S53">
-        <v>1075</v>
+        <v>1202</v>
       </c>
       <c r="T53">
-        <v>385</v>
+        <v>355</v>
       </c>
       <c r="U53">
         <v>172</v>
       </c>
       <c r="V53">
-        <v>514</v>
+        <v>259</v>
       </c>
       <c r="W53">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="X53">
-        <v>251</v>
+        <v>146</v>
       </c>
       <c r="Y53">
-        <v>0.05370352829433334</v>
+        <v>0.04627203602123333</v>
       </c>
       <c r="Z53">
-        <v>0.130149706024186</v>
+        <v>0.100569968577787</v>
       </c>
       <c r="AA53">
-        <v>161.110584883</v>
+        <v>138.8161080637</v>
       </c>
       <c r="AB53">
-        <v>139.910933976</v>
+        <v>120.8851022305</v>
       </c>
       <c r="AC53">
-        <v>38.423122866</v>
+        <v>33.5601492603</v>
       </c>
       <c r="AD53">
-        <v>72.24341297700001</v>
+        <v>61.2697885623</v>
       </c>
       <c r="AE53">
-        <v>99.85351828</v>
+        <v>79.99727161</v>
       </c>
       <c r="AF53">
-        <v>118.687446339</v>
+        <v>93.87450332909999</v>
       </c>
       <c r="AG53">
-        <v>135.011023018</v>
+        <v>115.232602715</v>
       </c>
       <c r="AH53">
-        <v>151.616284415</v>
+        <v>128.1463967038</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>202311</v>
+        <v>202312</v>
       </c>
       <c r="B54">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C54">
-        <v>0</v>
+        <v>68</v>
       </c>
       <c r="D54">
-        <v>0</v>
+        <v>57</v>
       </c>
       <c r="E54">
-        <v>0</v>
+        <v>224</v>
       </c>
       <c r="F54">
-        <v>0</v>
+        <v>886</v>
       </c>
       <c r="G54">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>195</v>
       </c>
       <c r="I54">
-        <v>0</v>
+        <v>447</v>
       </c>
       <c r="J54">
-        <v>3000</v>
+        <v>879</v>
       </c>
       <c r="K54">
-        <v>3000</v>
+        <v>1010</v>
       </c>
       <c r="L54">
-        <v>0</v>
+        <v>845</v>
       </c>
       <c r="M54">
-        <v>0</v>
+        <v>179</v>
       </c>
       <c r="N54">
-        <v>0</v>
+        <v>185</v>
       </c>
       <c r="O54">
-        <v>0</v>
+        <v>511</v>
       </c>
       <c r="P54">
-        <v>0</v>
+        <v>270</v>
       </c>
       <c r="Q54">
-        <v>0</v>
+        <v>1.005732477752864</v>
       </c>
       <c r="R54">
-        <v>0</v>
+        <v>0.2216953773592965</v>
       </c>
       <c r="S54">
-        <v>0</v>
+        <v>630</v>
       </c>
       <c r="T54">
-        <v>0</v>
+        <v>247</v>
       </c>
       <c r="U54">
-        <v>0</v>
+        <v>285</v>
       </c>
       <c r="V54">
-        <v>0</v>
+        <v>822</v>
       </c>
       <c r="W54">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X54">
-        <v>0</v>
+        <v>146</v>
       </c>
       <c r="Y54">
-        <v>0</v>
+        <v>0.03021372439382367</v>
       </c>
       <c r="Z54">
-        <v>0</v>
+        <v>0.1206385113492063</v>
       </c>
       <c r="AA54">
-        <v>0</v>
+        <v>90.641173181471</v>
       </c>
       <c r="AB54">
-        <v>0</v>
+        <v>76.00226215000001</v>
       </c>
       <c r="AC54">
-        <v>0</v>
+        <v>11.762602788</v>
       </c>
       <c r="AD54">
-        <v>0</v>
+        <v>25.646720148</v>
       </c>
       <c r="AE54">
-        <v>0</v>
+        <v>52.99454133</v>
       </c>
       <c r="AF54">
-        <v>0</v>
+        <v>75.85890205699999</v>
       </c>
       <c r="AG54">
         <v>0</v>
@@ -6043,207 +6043,207 @@
     </row>
     <row r="55">
       <c r="A55">
-        <v>202313</v>
+        <v>202310</v>
       </c>
       <c r="B55">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="C55">
-        <v>54</v>
+        <v>93</v>
       </c>
       <c r="D55">
-        <v>61</v>
+        <v>296</v>
       </c>
       <c r="E55">
-        <v>42</v>
+        <v>136</v>
       </c>
       <c r="F55">
-        <v>409</v>
+        <v>990</v>
       </c>
       <c r="G55">
-        <v>224</v>
+        <v>113</v>
       </c>
       <c r="H55">
-        <v>473</v>
+        <v>323</v>
       </c>
       <c r="I55">
-        <v>322</v>
+        <v>187</v>
       </c>
       <c r="J55">
-        <v>1346</v>
+        <v>641</v>
       </c>
       <c r="K55">
-        <v>1404</v>
+        <v>835</v>
       </c>
       <c r="L55">
-        <v>348</v>
+        <v>885</v>
       </c>
       <c r="M55">
-        <v>315</v>
+        <v>421</v>
       </c>
       <c r="N55">
-        <v>389</v>
+        <v>413</v>
       </c>
       <c r="O55">
-        <v>344</v>
+        <v>232</v>
       </c>
       <c r="P55">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="Q55">
-        <v>1.104164468156767</v>
+        <v>1.001446509255704</v>
       </c>
       <c r="R55">
-        <v>0.3452742431497494</v>
+        <v>0.2452079346360277</v>
       </c>
       <c r="S55">
-        <v>1025</v>
+        <v>1075</v>
       </c>
       <c r="T55">
-        <v>238</v>
+        <v>385</v>
       </c>
       <c r="U55">
-        <v>236</v>
+        <v>172</v>
       </c>
       <c r="V55">
-        <v>77</v>
+        <v>514</v>
       </c>
       <c r="W55">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="X55">
-        <v>1</v>
+        <v>251</v>
       </c>
       <c r="Y55">
-        <v>0.021573581464</v>
+        <v>0.05370352829433334</v>
       </c>
       <c r="Z55">
-        <v>0.05337911383219512</v>
+        <v>0.130149706024186</v>
       </c>
       <c r="AA55">
-        <v>64.720744392</v>
+        <v>161.110584883</v>
       </c>
       <c r="AB55">
-        <v>54.713591678</v>
+        <v>139.910933976</v>
       </c>
       <c r="AC55">
-        <v>11.353810386</v>
+        <v>38.423122866</v>
       </c>
       <c r="AD55">
-        <v>26.264182472</v>
+        <v>72.24341297700001</v>
       </c>
       <c r="AE55">
-        <v>41.794881063</v>
+        <v>99.85351828</v>
       </c>
       <c r="AF55">
-        <v>52.447994867</v>
+        <v>118.687446339</v>
       </c>
       <c r="AG55">
-        <v>0</v>
+        <v>135.011023018</v>
       </c>
       <c r="AH55">
-        <v>0</v>
+        <v>151.616284415</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>202308</v>
+        <v>202311</v>
       </c>
       <c r="B56">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C56">
-        <v>71</v>
+        <v>0</v>
       </c>
       <c r="D56">
-        <v>47</v>
+        <v>0</v>
       </c>
       <c r="E56">
-        <v>163</v>
+        <v>0</v>
       </c>
       <c r="F56">
-        <v>668</v>
+        <v>0</v>
       </c>
       <c r="G56">
-        <v>99</v>
+        <v>0</v>
       </c>
       <c r="H56">
-        <v>305</v>
+        <v>0</v>
       </c>
       <c r="I56">
-        <v>745</v>
+        <v>0</v>
       </c>
       <c r="J56">
-        <v>787</v>
+        <v>3000</v>
       </c>
       <c r="K56">
-        <v>886</v>
+        <v>3000</v>
       </c>
       <c r="L56">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="M56">
-        <v>282</v>
+        <v>0</v>
       </c>
       <c r="N56">
-        <v>168</v>
+        <v>0</v>
       </c>
       <c r="O56">
-        <v>490</v>
+        <v>0</v>
       </c>
       <c r="P56">
-        <v>587</v>
+        <v>0</v>
       </c>
       <c r="Q56">
-        <v>1.09492365969631</v>
+        <v>0</v>
       </c>
       <c r="R56">
-        <v>0.322250747577578</v>
+        <v>0</v>
       </c>
       <c r="S56">
-        <v>887</v>
+        <v>0</v>
       </c>
       <c r="T56">
-        <v>579</v>
+        <v>0</v>
       </c>
       <c r="U56">
-        <v>127</v>
+        <v>0</v>
       </c>
       <c r="V56">
-        <v>499</v>
+        <v>0</v>
       </c>
       <c r="W56">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="X56">
-        <v>91</v>
+        <v>0</v>
       </c>
       <c r="Y56">
-        <v>0.04204032349166666</v>
+        <v>0</v>
       </c>
       <c r="Z56">
-        <v>0.1101116484949267</v>
+        <v>0</v>
       </c>
       <c r="AA56">
-        <v>126.120970475</v>
+        <v>0</v>
       </c>
       <c r="AB56">
-        <v>97.669032215</v>
+        <v>0</v>
       </c>
       <c r="AC56">
-        <v>19.13071726</v>
+        <v>0</v>
       </c>
       <c r="AD56">
-        <v>46.468378901</v>
+        <v>0</v>
       </c>
       <c r="AE56">
-        <v>65.453929522</v>
+        <v>0</v>
       </c>
       <c r="AF56">
-        <v>85.908890035</v>
+        <v>0</v>
       </c>
       <c r="AG56">
-        <v>104.010235133</v>
+        <v>0</v>
       </c>
       <c r="AH56">
         <v>0</v>
@@ -6251,100 +6251,100 @@
     </row>
     <row r="57">
       <c r="A57">
-        <v>202307</v>
+        <v>202313</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="C57">
-        <v>31</v>
+        <v>54</v>
       </c>
       <c r="D57">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="E57">
-        <v>26</v>
+        <v>42</v>
       </c>
       <c r="F57">
-        <v>454</v>
+        <v>409</v>
       </c>
       <c r="G57">
-        <v>130</v>
+        <v>224</v>
       </c>
       <c r="H57">
-        <v>334</v>
+        <v>473</v>
       </c>
       <c r="I57">
-        <v>374</v>
+        <v>322</v>
       </c>
       <c r="J57">
-        <v>1525</v>
+        <v>1346</v>
       </c>
       <c r="K57">
-        <v>1583</v>
+        <v>1404</v>
       </c>
       <c r="L57">
-        <v>392</v>
+        <v>348</v>
       </c>
       <c r="M57">
-        <v>277</v>
+        <v>315</v>
       </c>
       <c r="N57">
-        <v>229</v>
+        <v>389</v>
       </c>
       <c r="O57">
-        <v>320</v>
+        <v>344</v>
       </c>
       <c r="P57">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
-        <v>1.124587358779111</v>
+        <v>1.104164468156767</v>
       </c>
       <c r="R57">
-        <v>0.3355367099583627</v>
+        <v>0.3452742431497494</v>
       </c>
       <c r="S57">
-        <v>735</v>
+        <v>1025</v>
       </c>
       <c r="T57">
-        <v>290</v>
+        <v>238</v>
       </c>
       <c r="U57">
-        <v>99</v>
+        <v>236</v>
       </c>
       <c r="V57">
-        <v>282</v>
+        <v>77</v>
       </c>
       <c r="W57">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="X57">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="Y57">
-        <v>0.02569082278236667</v>
+        <v>0.021573581464</v>
       </c>
       <c r="Z57">
-        <v>0.08457763514476191</v>
+        <v>0.05337911383219512</v>
       </c>
       <c r="AA57">
-        <v>77.0724683471</v>
+        <v>64.720744392</v>
       </c>
       <c r="AB57">
-        <v>62.1645618314</v>
+        <v>54.713591678</v>
       </c>
       <c r="AC57">
-        <v>20.0003532635</v>
+        <v>11.353810386</v>
       </c>
       <c r="AD57">
-        <v>38.5517698188</v>
+        <v>26.264182472</v>
       </c>
       <c r="AE57">
-        <v>57.0645241494</v>
+        <v>41.794881063</v>
       </c>
       <c r="AF57">
-        <v>0</v>
+        <v>52.447994867</v>
       </c>
       <c r="AG57">
         <v>0</v>
@@ -6355,103 +6355,103 @@
     </row>
     <row r="58">
       <c r="A58">
-        <v>14674</v>
+        <v>202308</v>
       </c>
       <c r="B58">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="C58">
-        <v>17</v>
+        <v>71</v>
       </c>
       <c r="D58">
-        <v>43</v>
+        <v>47</v>
       </c>
       <c r="E58">
-        <v>30</v>
+        <v>163</v>
       </c>
       <c r="F58">
-        <v>664</v>
+        <v>668</v>
       </c>
       <c r="G58">
-        <v>112</v>
+        <v>99</v>
       </c>
       <c r="H58">
-        <v>279</v>
+        <v>305</v>
       </c>
       <c r="I58">
-        <v>479</v>
+        <v>745</v>
       </c>
       <c r="J58">
-        <v>1302</v>
+        <v>787</v>
       </c>
       <c r="K58">
-        <v>1371</v>
+        <v>886</v>
       </c>
       <c r="L58">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="M58">
-        <v>129</v>
+        <v>282</v>
       </c>
       <c r="N58">
-        <v>312</v>
+        <v>168</v>
       </c>
       <c r="O58">
-        <v>326</v>
+        <v>490</v>
       </c>
       <c r="P58">
-        <v>272</v>
+        <v>587</v>
       </c>
       <c r="Q58">
-        <v>1.081894773225169</v>
+        <v>1.09492365969631</v>
       </c>
       <c r="R58">
-        <v>0.2723093109318601</v>
+        <v>0.322250747577578</v>
       </c>
       <c r="S58">
-        <v>625</v>
+        <v>887</v>
       </c>
       <c r="T58">
-        <v>307</v>
+        <v>579</v>
       </c>
       <c r="U58">
-        <v>188</v>
+        <v>127</v>
       </c>
       <c r="V58">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="W58">
-        <v>7</v>
+        <v>22</v>
       </c>
       <c r="X58">
-        <v>25</v>
+        <v>91</v>
       </c>
       <c r="Y58">
-        <v>0.022988776283</v>
+        <v>0.04204032349166666</v>
       </c>
       <c r="Z58">
-        <v>0.0843946276144</v>
+        <v>0.1101116484949267</v>
       </c>
       <c r="AA58">
-        <v>68.96632884900001</v>
+        <v>126.120970475</v>
       </c>
       <c r="AB58">
-        <v>52.746642259</v>
+        <v>97.669032215</v>
       </c>
       <c r="AC58">
-        <v>19.518930456</v>
+        <v>19.13071726</v>
       </c>
       <c r="AD58">
-        <v>38.849704067</v>
+        <v>46.468378901</v>
       </c>
       <c r="AE58">
-        <v>53.364162061</v>
+        <v>65.453929522</v>
       </c>
       <c r="AF58">
-        <v>0</v>
+        <v>85.908890035</v>
       </c>
       <c r="AG58">
-        <v>0</v>
+        <v>104.010235133</v>
       </c>
       <c r="AH58">
         <v>0</v>
@@ -6459,513 +6459,513 @@
     </row>
     <row r="59">
       <c r="A59">
-        <v>14642</v>
+        <v>202307</v>
       </c>
       <c r="B59">
-        <v>52</v>
+        <v>21</v>
       </c>
       <c r="C59">
-        <v>161</v>
+        <v>31</v>
       </c>
       <c r="D59">
-        <v>160</v>
+        <v>47</v>
       </c>
       <c r="E59">
-        <v>398</v>
+        <v>26</v>
       </c>
       <c r="F59">
-        <v>513</v>
+        <v>454</v>
       </c>
       <c r="G59">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="H59">
-        <v>264</v>
+        <v>334</v>
       </c>
       <c r="I59">
-        <v>316</v>
+        <v>374</v>
       </c>
       <c r="J59">
-        <v>778</v>
+        <v>1525</v>
       </c>
       <c r="K59">
-        <v>1016</v>
+        <v>1583</v>
       </c>
       <c r="L59">
-        <v>469</v>
+        <v>392</v>
       </c>
       <c r="M59">
-        <v>398</v>
+        <v>277</v>
       </c>
       <c r="N59">
-        <v>213</v>
+        <v>229</v>
       </c>
       <c r="O59">
-        <v>343</v>
+        <v>320</v>
       </c>
       <c r="P59">
-        <v>561</v>
+        <v>199</v>
       </c>
       <c r="Q59">
-        <v>0.9987936301077621</v>
+        <v>1.124587358779111</v>
       </c>
       <c r="R59">
-        <v>0.2835345737394153</v>
+        <v>0.3355367099583627</v>
       </c>
       <c r="S59">
-        <v>1178</v>
+        <v>735</v>
       </c>
       <c r="T59">
-        <v>249</v>
+        <v>290</v>
       </c>
       <c r="U59">
-        <v>135</v>
+        <v>99</v>
       </c>
       <c r="V59">
-        <v>412</v>
+        <v>282</v>
       </c>
       <c r="W59">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="X59">
-        <v>302</v>
+        <v>2</v>
       </c>
       <c r="Y59">
-        <v>0.037099377705</v>
+        <v>0.02569082278236667</v>
       </c>
       <c r="Z59">
-        <v>0.08461623573599321</v>
+        <v>0.08457763514476191</v>
       </c>
       <c r="AA59">
-        <v>111.298133115</v>
+        <v>77.0724683471</v>
       </c>
       <c r="AB59">
-        <v>99.67792569700001</v>
+        <v>62.1645618314</v>
       </c>
       <c r="AC59">
-        <v>15.940092829</v>
+        <v>20.0003532635</v>
       </c>
       <c r="AD59">
-        <v>40.413674673</v>
+        <v>38.5517698188</v>
       </c>
       <c r="AE59">
-        <v>64.41886128500001</v>
+        <v>57.0645241494</v>
       </c>
       <c r="AF59">
-        <v>85.88790569299999</v>
+        <v>0</v>
       </c>
       <c r="AG59">
-        <v>95.810562464</v>
+        <v>0</v>
       </c>
       <c r="AH59">
-        <v>99.15457831800001</v>
+        <v>0</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>202305</v>
+        <v>14674</v>
       </c>
       <c r="B60">
-        <v>19</v>
+        <v>5</v>
       </c>
       <c r="C60">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D60">
-        <v>128</v>
+        <v>43</v>
       </c>
       <c r="E60">
-        <v>280</v>
+        <v>30</v>
       </c>
       <c r="F60">
-        <v>856</v>
+        <v>664</v>
       </c>
       <c r="G60">
-        <v>190</v>
+        <v>112</v>
       </c>
       <c r="H60">
-        <v>405</v>
+        <v>279</v>
       </c>
       <c r="I60">
-        <v>185</v>
+        <v>479</v>
       </c>
       <c r="J60">
-        <v>528</v>
+        <v>1302</v>
       </c>
       <c r="K60">
-        <v>863</v>
+        <v>1371</v>
       </c>
       <c r="L60">
-        <v>832</v>
+        <v>590</v>
       </c>
       <c r="M60">
-        <v>180</v>
+        <v>129</v>
       </c>
       <c r="N60">
-        <v>506</v>
+        <v>312</v>
       </c>
       <c r="O60">
-        <v>430</v>
+        <v>326</v>
       </c>
       <c r="P60">
-        <v>189</v>
+        <v>272</v>
       </c>
       <c r="Q60">
-        <v>1.024691012798128</v>
+        <v>1.081894773225169</v>
       </c>
       <c r="R60">
-        <v>0.2327512564272344</v>
+        <v>0.2723093109318601</v>
       </c>
       <c r="S60">
-        <v>1236</v>
+        <v>625</v>
       </c>
       <c r="T60">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="U60">
-        <v>127</v>
+        <v>188</v>
       </c>
       <c r="V60">
-        <v>560</v>
+        <v>502</v>
       </c>
       <c r="W60">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="X60">
-        <v>139</v>
+        <v>25</v>
       </c>
       <c r="Y60">
-        <v>0.0394719969723</v>
+        <v>0.022988776283</v>
       </c>
       <c r="Z60">
-        <v>0.08645107293042072</v>
+        <v>0.0843946276144</v>
       </c>
       <c r="AA60">
-        <v>118.4159909169</v>
+        <v>68.96632884900001</v>
       </c>
       <c r="AB60">
-        <v>106.853526142</v>
+        <v>52.746642259</v>
       </c>
       <c r="AC60">
-        <v>17.9512129024</v>
+        <v>19.518930456</v>
       </c>
       <c r="AD60">
-        <v>35.0458944059</v>
+        <v>38.849704067</v>
       </c>
       <c r="AE60">
-        <v>55.3156272122</v>
+        <v>53.364162061</v>
       </c>
       <c r="AF60">
-        <v>74.8552253232</v>
+        <v>0</v>
       </c>
       <c r="AG60">
-        <v>91.9242211235</v>
+        <v>0</v>
       </c>
       <c r="AH60">
-        <v>107.9400711688</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>14675</v>
+        <v>14642</v>
       </c>
       <c r="B61">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C61">
-        <v>0</v>
+        <v>161</v>
       </c>
       <c r="D61">
-        <v>0</v>
+        <v>160</v>
       </c>
       <c r="E61">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="F61">
-        <v>0</v>
+        <v>513</v>
       </c>
       <c r="G61">
-        <v>0</v>
+        <v>120</v>
       </c>
       <c r="H61">
-        <v>0</v>
+        <v>264</v>
       </c>
       <c r="I61">
-        <v>0</v>
+        <v>316</v>
       </c>
       <c r="J61">
-        <v>3000</v>
+        <v>778</v>
       </c>
       <c r="K61">
-        <v>3000</v>
+        <v>1016</v>
       </c>
       <c r="L61">
-        <v>0</v>
+        <v>469</v>
       </c>
       <c r="M61">
-        <v>0</v>
+        <v>398</v>
       </c>
       <c r="N61">
-        <v>0</v>
+        <v>213</v>
       </c>
       <c r="O61">
-        <v>0</v>
+        <v>343</v>
       </c>
       <c r="P61">
-        <v>0</v>
+        <v>561</v>
       </c>
       <c r="Q61">
-        <v>0</v>
+        <v>0.9987936301077621</v>
       </c>
       <c r="R61">
-        <v>0</v>
+        <v>0.2835345737394153</v>
       </c>
       <c r="S61">
-        <v>0</v>
+        <v>1178</v>
       </c>
       <c r="T61">
-        <v>0</v>
+        <v>249</v>
       </c>
       <c r="U61">
-        <v>0</v>
+        <v>135</v>
       </c>
       <c r="V61">
-        <v>0</v>
+        <v>412</v>
       </c>
       <c r="W61">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="X61">
-        <v>0</v>
+        <v>302</v>
       </c>
       <c r="Y61">
-        <v>0</v>
+        <v>0.037099377705</v>
       </c>
       <c r="Z61">
-        <v>0</v>
+        <v>0.08461623573599321</v>
       </c>
       <c r="AA61">
-        <v>0</v>
+        <v>111.298133115</v>
       </c>
       <c r="AB61">
-        <v>0</v>
+        <v>99.67792569700001</v>
       </c>
       <c r="AC61">
-        <v>0</v>
+        <v>15.940092829</v>
       </c>
       <c r="AD61">
-        <v>0</v>
+        <v>40.413674673</v>
       </c>
       <c r="AE61">
-        <v>0</v>
+        <v>64.41886128500001</v>
       </c>
       <c r="AF61">
-        <v>0</v>
+        <v>85.88790569299999</v>
       </c>
       <c r="AG61">
-        <v>0</v>
+        <v>95.810562464</v>
       </c>
       <c r="AH61">
-        <v>0</v>
+        <v>99.15457831800001</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>14673</v>
+        <v>202305</v>
       </c>
       <c r="B62">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C62">
-        <v>216</v>
+        <v>74</v>
       </c>
       <c r="D62">
-        <v>171</v>
+        <v>128</v>
       </c>
       <c r="E62">
-        <v>498</v>
+        <v>280</v>
       </c>
       <c r="F62">
-        <v>368</v>
+        <v>856</v>
       </c>
       <c r="G62">
-        <v>312</v>
+        <v>190</v>
       </c>
       <c r="H62">
+        <v>405</v>
+      </c>
+      <c r="I62">
+        <v>185</v>
+      </c>
+      <c r="J62">
+        <v>528</v>
+      </c>
+      <c r="K62">
+        <v>863</v>
+      </c>
+      <c r="L62">
+        <v>832</v>
+      </c>
+      <c r="M62">
+        <v>180</v>
+      </c>
+      <c r="N62">
+        <v>506</v>
+      </c>
+      <c r="O62">
+        <v>430</v>
+      </c>
+      <c r="P62">
+        <v>189</v>
+      </c>
+      <c r="Q62">
+        <v>1.024691012798128</v>
+      </c>
+      <c r="R62">
+        <v>0.2327512564272344</v>
+      </c>
+      <c r="S62">
+        <v>1236</v>
+      </c>
+      <c r="T62">
         <v>210</v>
       </c>
-      <c r="I62">
-        <v>424</v>
-      </c>
-      <c r="J62">
-        <v>519</v>
-      </c>
-      <c r="K62">
-        <v>784</v>
-      </c>
-      <c r="L62">
-        <v>368</v>
-      </c>
-      <c r="M62">
-        <v>191</v>
-      </c>
-      <c r="N62">
-        <v>419</v>
-      </c>
-      <c r="O62">
-        <v>728</v>
-      </c>
-      <c r="P62">
-        <v>510</v>
-      </c>
-      <c r="Q62">
-        <v>1.055198249824007</v>
-      </c>
-      <c r="R62">
-        <v>0.3000558028203971</v>
-      </c>
-      <c r="S62">
-        <v>1314</v>
-      </c>
-      <c r="T62">
-        <v>237</v>
-      </c>
       <c r="U62">
-        <v>221</v>
+        <v>127</v>
       </c>
       <c r="V62">
-        <v>433</v>
+        <v>560</v>
       </c>
       <c r="W62">
-        <v>11</v>
+        <v>4</v>
       </c>
       <c r="X62">
-        <v>266</v>
+        <v>139</v>
       </c>
       <c r="Y62">
-        <v>0.03968565517433333</v>
+        <v>0.0394719969723</v>
       </c>
       <c r="Z62">
-        <v>0.08077505495966514</v>
+        <v>0.08645107293042072</v>
       </c>
       <c r="AA62">
-        <v>119.056965523</v>
+        <v>118.4159909169</v>
       </c>
       <c r="AB62">
-        <v>106.138422217</v>
+        <v>106.853526142</v>
       </c>
       <c r="AC62">
-        <v>13.37032774</v>
+        <v>17.9512129024</v>
       </c>
       <c r="AD62">
-        <v>30.293296328</v>
+        <v>35.0458944059</v>
       </c>
       <c r="AE62">
-        <v>40.170302651</v>
+        <v>55.3156272122</v>
       </c>
       <c r="AF62">
-        <v>58.623882499</v>
+        <v>74.8552253232</v>
       </c>
       <c r="AG62">
-        <v>76.571656111</v>
+        <v>91.9242211235</v>
       </c>
       <c r="AH62">
-        <v>93.370780098</v>
+        <v>107.9400711688</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>11417</v>
+        <v>14675</v>
       </c>
       <c r="B63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="C63">
-        <v>22</v>
+        <v>0</v>
       </c>
       <c r="D63">
-        <v>51</v>
+        <v>0</v>
       </c>
       <c r="E63">
-        <v>76</v>
+        <v>0</v>
       </c>
       <c r="F63">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="G63">
-        <v>106</v>
+        <v>0</v>
       </c>
       <c r="H63">
-        <v>272</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="J63">
-        <v>1287</v>
+        <v>3000</v>
       </c>
       <c r="K63">
-        <v>1387</v>
+        <v>3000</v>
       </c>
       <c r="L63">
-        <v>777</v>
+        <v>0</v>
       </c>
       <c r="M63">
-        <v>259</v>
+        <v>0</v>
       </c>
       <c r="N63">
-        <v>154</v>
+        <v>0</v>
       </c>
       <c r="O63">
-        <v>209</v>
+        <v>0</v>
       </c>
       <c r="P63">
-        <v>214</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>1.008238060484067</v>
+        <v>0</v>
       </c>
       <c r="R63">
-        <v>0.2294368904798512</v>
+        <v>0</v>
       </c>
       <c r="S63">
-        <v>781</v>
+        <v>0</v>
       </c>
       <c r="T63">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="U63">
-        <v>24</v>
+        <v>0</v>
       </c>
       <c r="V63">
-        <v>628</v>
+        <v>0</v>
       </c>
       <c r="W63">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="X63">
         <v>0</v>
       </c>
       <c r="Y63">
-        <v>0.036224344478</v>
+        <v>0</v>
       </c>
       <c r="Z63">
-        <v>0.1274818138809219</v>
+        <v>0</v>
       </c>
       <c r="AA63">
-        <v>108.673033434</v>
+        <v>0</v>
       </c>
       <c r="AB63">
-        <v>99.56329664099999</v>
+        <v>0</v>
       </c>
       <c r="AC63">
-        <v>29.381515478</v>
+        <v>0</v>
       </c>
       <c r="AD63">
-        <v>61.037862228</v>
+        <v>0</v>
       </c>
       <c r="AE63">
-        <v>92.529795609</v>
+        <v>0</v>
       </c>
       <c r="AF63">
         <v>0</v>
@@ -6979,201 +6979,201 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>14672</v>
+        <v>14673</v>
       </c>
       <c r="B64">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="C64">
-        <v>75</v>
+        <v>216</v>
       </c>
       <c r="D64">
-        <v>144</v>
+        <v>171</v>
       </c>
       <c r="E64">
-        <v>152</v>
+        <v>498</v>
       </c>
       <c r="F64">
-        <v>460</v>
+        <v>368</v>
       </c>
       <c r="G64">
-        <v>404</v>
+        <v>312</v>
       </c>
       <c r="H64">
-        <v>574</v>
+        <v>210</v>
       </c>
       <c r="I64">
-        <v>333</v>
+        <v>424</v>
       </c>
       <c r="J64">
-        <v>552</v>
+        <v>519</v>
       </c>
       <c r="K64">
-        <v>849</v>
+        <v>784</v>
       </c>
       <c r="L64">
+        <v>368</v>
+      </c>
+      <c r="M64">
+        <v>191</v>
+      </c>
+      <c r="N64">
         <v>419</v>
       </c>
-      <c r="M64">
-        <v>273</v>
-      </c>
-      <c r="N64">
-        <v>704</v>
-      </c>
       <c r="O64">
-        <v>568</v>
+        <v>728</v>
       </c>
       <c r="P64">
-        <v>187</v>
+        <v>510</v>
       </c>
       <c r="Q64">
-        <v>1.135363233527662</v>
+        <v>1.055198249824007</v>
       </c>
       <c r="R64">
-        <v>0.3464872101092515</v>
+        <v>0.3000558028203971</v>
       </c>
       <c r="S64">
-        <v>1164</v>
+        <v>1314</v>
       </c>
       <c r="T64">
-        <v>514</v>
+        <v>237</v>
       </c>
       <c r="U64">
-        <v>166</v>
+        <v>221</v>
       </c>
       <c r="V64">
-        <v>296</v>
+        <v>433</v>
       </c>
       <c r="W64">
         <v>11</v>
       </c>
       <c r="X64">
-        <v>101</v>
+        <v>266</v>
       </c>
       <c r="Y64">
-        <v>0.04009430687</v>
+        <v>0.03968565517433333</v>
       </c>
       <c r="Z64">
-        <v>0.08079822245274915</v>
+        <v>0.08077505495966514</v>
       </c>
       <c r="AA64">
-        <v>120.28292061</v>
+        <v>119.056965523</v>
       </c>
       <c r="AB64">
-        <v>94.04913093499999</v>
+        <v>106.138422217</v>
       </c>
       <c r="AC64">
-        <v>24.05669496</v>
+        <v>13.37032774</v>
       </c>
       <c r="AD64">
-        <v>37.117964163</v>
+        <v>30.293296328</v>
       </c>
       <c r="AE64">
-        <v>54.367380646</v>
+        <v>40.170302651</v>
       </c>
       <c r="AF64">
-        <v>64.94725393</v>
+        <v>58.623882499</v>
       </c>
       <c r="AG64">
-        <v>80.330597814</v>
+        <v>76.571656111</v>
       </c>
       <c r="AH64">
-        <v>94.596163937</v>
+        <v>93.370780098</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>202311</v>
+        <v>11417</v>
       </c>
       <c r="B65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="C65">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="D65">
-        <v>0</v>
+        <v>51</v>
       </c>
       <c r="E65">
-        <v>0</v>
+        <v>76</v>
       </c>
       <c r="F65">
-        <v>0</v>
+        <v>850</v>
       </c>
       <c r="G65">
-        <v>0</v>
+        <v>106</v>
       </c>
       <c r="H65">
-        <v>0</v>
+        <v>272</v>
       </c>
       <c r="I65">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="J65">
-        <v>3000</v>
+        <v>1287</v>
       </c>
       <c r="K65">
-        <v>3000</v>
+        <v>1387</v>
       </c>
       <c r="L65">
-        <v>0</v>
+        <v>777</v>
       </c>
       <c r="M65">
-        <v>0</v>
+        <v>259</v>
       </c>
       <c r="N65">
-        <v>0</v>
+        <v>154</v>
       </c>
       <c r="O65">
-        <v>0</v>
+        <v>209</v>
       </c>
       <c r="P65">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="Q65">
-        <v>0</v>
+        <v>1.008238060484067</v>
       </c>
       <c r="R65">
-        <v>0</v>
+        <v>0.2294368904798512</v>
       </c>
       <c r="S65">
-        <v>0</v>
+        <v>781</v>
       </c>
       <c r="T65">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="U65">
-        <v>0</v>
+        <v>24</v>
       </c>
       <c r="V65">
-        <v>0</v>
+        <v>628</v>
       </c>
       <c r="W65">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="X65">
         <v>0</v>
       </c>
       <c r="Y65">
-        <v>0</v>
+        <v>0.036224344478</v>
       </c>
       <c r="Z65">
-        <v>0</v>
+        <v>0.1274818138809219</v>
       </c>
       <c r="AA65">
-        <v>0</v>
+        <v>108.673033434</v>
       </c>
       <c r="AB65">
-        <v>0</v>
+        <v>99.56329664099999</v>
       </c>
       <c r="AC65">
-        <v>0</v>
+        <v>29.381515478</v>
       </c>
       <c r="AD65">
-        <v>0</v>
+        <v>61.037862228</v>
       </c>
       <c r="AE65">
-        <v>0</v>
+        <v>92.529795609</v>
       </c>
       <c r="AF65">
         <v>0</v>
@@ -7187,204 +7187,204 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>11418</v>
+        <v>14672</v>
       </c>
       <c r="B66">
-        <v>28</v>
+        <v>9</v>
       </c>
       <c r="C66">
-        <v>104</v>
+        <v>75</v>
       </c>
       <c r="D66">
-        <v>117</v>
+        <v>144</v>
       </c>
       <c r="E66">
-        <v>196</v>
+        <v>152</v>
       </c>
       <c r="F66">
-        <v>1059</v>
+        <v>460</v>
       </c>
       <c r="G66">
-        <v>197</v>
+        <v>404</v>
       </c>
       <c r="H66">
-        <v>343</v>
+        <v>574</v>
       </c>
       <c r="I66">
-        <v>304</v>
+        <v>333</v>
       </c>
       <c r="J66">
+        <v>552</v>
+      </c>
+      <c r="K66">
+        <v>849</v>
+      </c>
+      <c r="L66">
+        <v>419</v>
+      </c>
+      <c r="M66">
+        <v>273</v>
+      </c>
+      <c r="N66">
+        <v>704</v>
+      </c>
+      <c r="O66">
         <v>568</v>
       </c>
-      <c r="K66">
-        <v>652</v>
-      </c>
-      <c r="L66">
-        <v>903</v>
-      </c>
-      <c r="M66">
-        <v>283</v>
-      </c>
-      <c r="N66">
-        <v>378</v>
-      </c>
-      <c r="O66">
-        <v>371</v>
-      </c>
       <c r="P66">
-        <v>413</v>
+        <v>187</v>
       </c>
       <c r="Q66">
-        <v>1.024382352321636</v>
+        <v>1.135363233527662</v>
       </c>
       <c r="R66">
-        <v>0.2650083569058773</v>
+        <v>0.3464872101092515</v>
       </c>
       <c r="S66">
-        <v>1493</v>
+        <v>1164</v>
       </c>
       <c r="T66">
-        <v>237</v>
+        <v>514</v>
       </c>
       <c r="U66">
-        <v>39</v>
+        <v>166</v>
       </c>
       <c r="V66">
-        <v>577</v>
+        <v>296</v>
       </c>
       <c r="W66">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X66">
-        <v>40</v>
+        <v>101</v>
       </c>
       <c r="Y66">
-        <v>0.06709461011166666</v>
+        <v>0.04009430687</v>
       </c>
       <c r="Z66">
-        <v>0.1231707510468855</v>
+        <v>0.08079822245274915</v>
       </c>
       <c r="AA66">
-        <v>201.283830335</v>
+        <v>120.28292061</v>
       </c>
       <c r="AB66">
-        <v>183.893931313</v>
+        <v>94.04913093499999</v>
       </c>
       <c r="AC66">
-        <v>28.326910864</v>
+        <v>24.05669496</v>
       </c>
       <c r="AD66">
-        <v>62.087398558</v>
+        <v>37.117964163</v>
       </c>
       <c r="AE66">
-        <v>95.013650626</v>
+        <v>54.367380646</v>
       </c>
       <c r="AF66">
-        <v>127.480112912</v>
+        <v>64.94725393</v>
       </c>
       <c r="AG66">
-        <v>162.091526286</v>
+        <v>80.330597814</v>
       </c>
       <c r="AH66">
-        <v>194.844537196</v>
+        <v>94.596163937</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>11416</v>
+        <v>202311</v>
       </c>
       <c r="B67">
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="C67">
-        <v>59</v>
+        <v>0</v>
       </c>
       <c r="D67">
-        <v>56</v>
+        <v>0</v>
       </c>
       <c r="E67">
-        <v>60</v>
+        <v>0</v>
       </c>
       <c r="F67">
-        <v>643</v>
+        <v>0</v>
       </c>
       <c r="G67">
-        <v>109</v>
+        <v>0</v>
       </c>
       <c r="H67">
-        <v>250</v>
+        <v>0</v>
       </c>
       <c r="I67">
-        <v>230</v>
+        <v>0</v>
       </c>
       <c r="J67">
-        <v>1011</v>
+        <v>3000</v>
       </c>
       <c r="K67">
-        <v>1578</v>
+        <v>3000</v>
       </c>
       <c r="L67">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="M67">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="N67">
-        <v>203</v>
+        <v>0</v>
       </c>
       <c r="O67">
-        <v>225</v>
+        <v>0</v>
       </c>
       <c r="P67">
-        <v>183</v>
+        <v>0</v>
       </c>
       <c r="Q67">
-        <v>1.027763736469901</v>
+        <v>0</v>
       </c>
       <c r="R67">
-        <v>0.2574604992721519</v>
+        <v>0</v>
       </c>
       <c r="S67">
-        <v>815</v>
+        <v>0</v>
       </c>
       <c r="T67">
-        <v>177</v>
+        <v>0</v>
       </c>
       <c r="U67">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="V67">
-        <v>407</v>
+        <v>0</v>
       </c>
       <c r="W67">
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="X67">
-        <v>265</v>
+        <v>0</v>
       </c>
       <c r="Y67">
-        <v>0.0284702540854</v>
+        <v>0</v>
       </c>
       <c r="Z67">
-        <v>0.09383125675104294</v>
+        <v>0</v>
       </c>
       <c r="AA67">
-        <v>85.4107622562</v>
+        <v>0</v>
       </c>
       <c r="AB67">
-        <v>76.4724742521</v>
+        <v>0</v>
       </c>
       <c r="AC67">
-        <v>1.0950472179</v>
+        <v>0</v>
       </c>
       <c r="AD67">
-        <v>24.5105144233</v>
+        <v>0</v>
       </c>
       <c r="AE67">
-        <v>46.5057401888</v>
+        <v>0</v>
       </c>
       <c r="AF67">
-        <v>70.9797245953</v>
+        <v>0</v>
       </c>
       <c r="AG67">
         <v>0</v>
@@ -7395,204 +7395,204 @@
     </row>
     <row r="68">
       <c r="A68">
-        <v>202310</v>
+        <v>11418</v>
       </c>
       <c r="B68">
-        <v>22</v>
+        <v>28</v>
       </c>
       <c r="C68">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="D68">
-        <v>137</v>
+        <v>117</v>
       </c>
       <c r="E68">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="F68">
-        <v>755</v>
+        <v>1059</v>
       </c>
       <c r="G68">
-        <v>215</v>
+        <v>197</v>
       </c>
       <c r="H68">
-        <v>490</v>
+        <v>343</v>
       </c>
       <c r="I68">
-        <v>714</v>
+        <v>304</v>
       </c>
       <c r="J68">
-        <v>208</v>
+        <v>568</v>
       </c>
       <c r="K68">
-        <v>366</v>
+        <v>652</v>
       </c>
       <c r="L68">
-        <v>628</v>
+        <v>903</v>
       </c>
       <c r="M68">
-        <v>462</v>
+        <v>283</v>
       </c>
       <c r="N68">
-        <v>409</v>
+        <v>378</v>
       </c>
       <c r="O68">
-        <v>600</v>
+        <v>371</v>
       </c>
       <c r="P68">
-        <v>535</v>
+        <v>413</v>
       </c>
       <c r="Q68">
-        <v>1.108100885083979</v>
+        <v>1.024382352321636</v>
       </c>
       <c r="R68">
-        <v>0.3300137376845103</v>
+        <v>0.2650083569058773</v>
       </c>
       <c r="S68">
-        <v>1389</v>
+        <v>1493</v>
       </c>
       <c r="T68">
-        <v>665</v>
+        <v>237</v>
       </c>
       <c r="U68">
-        <v>214</v>
+        <v>39</v>
       </c>
       <c r="V68">
-        <v>348</v>
+        <v>577</v>
       </c>
       <c r="W68">
-        <v>18</v>
+        <v>2</v>
       </c>
       <c r="X68">
-        <v>102</v>
+        <v>40</v>
       </c>
       <c r="Y68">
-        <v>0.0595094838029</v>
+        <v>0.06709461011166666</v>
       </c>
       <c r="Z68">
-        <v>0.1024035445229662</v>
+        <v>0.1231707510468855</v>
       </c>
       <c r="AA68">
-        <v>178.5284514087</v>
+        <v>201.283830335</v>
       </c>
       <c r="AB68">
-        <v>142.2385233424</v>
+        <v>183.893931313</v>
       </c>
       <c r="AC68">
-        <v>26.9233680485</v>
+        <v>28.326910864</v>
       </c>
       <c r="AD68">
-        <v>52.376881969</v>
+        <v>62.087398558</v>
       </c>
       <c r="AE68">
-        <v>78.1632026851</v>
+        <v>95.013650626</v>
       </c>
       <c r="AF68">
-        <v>95.82696878260001</v>
+        <v>127.480112912</v>
       </c>
       <c r="AG68">
-        <v>119.295739353</v>
+        <v>162.091526286</v>
       </c>
       <c r="AH68">
-        <v>141.0301472726</v>
+        <v>194.844537196</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>11419</v>
+        <v>11416</v>
       </c>
       <c r="B69">
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="C69">
-        <v>0</v>
+        <v>59</v>
       </c>
       <c r="D69">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="E69">
-        <v>0</v>
+        <v>60</v>
       </c>
       <c r="F69">
-        <v>0</v>
+        <v>643</v>
       </c>
       <c r="G69">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>250</v>
       </c>
       <c r="I69">
-        <v>0</v>
+        <v>230</v>
       </c>
       <c r="J69">
-        <v>3000</v>
+        <v>1011</v>
       </c>
       <c r="K69">
-        <v>3000</v>
+        <v>1578</v>
       </c>
       <c r="L69">
-        <v>0</v>
+        <v>608</v>
       </c>
       <c r="M69">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="N69">
-        <v>0</v>
+        <v>203</v>
       </c>
       <c r="O69">
-        <v>0</v>
+        <v>225</v>
       </c>
       <c r="P69">
-        <v>0</v>
+        <v>183</v>
       </c>
       <c r="Q69">
-        <v>0</v>
+        <v>1.027763736469901</v>
       </c>
       <c r="R69">
-        <v>0</v>
+        <v>0.2574604992721519</v>
       </c>
       <c r="S69">
-        <v>0</v>
+        <v>815</v>
       </c>
       <c r="T69">
-        <v>0</v>
+        <v>177</v>
       </c>
       <c r="U69">
-        <v>0</v>
+        <v>17</v>
       </c>
       <c r="V69">
-        <v>0</v>
+        <v>407</v>
       </c>
       <c r="W69">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="X69">
-        <v>0</v>
+        <v>265</v>
       </c>
       <c r="Y69">
-        <v>0</v>
+        <v>0.0284702540854</v>
       </c>
       <c r="Z69">
-        <v>0</v>
+        <v>0.09383125675104294</v>
       </c>
       <c r="AA69">
-        <v>0</v>
+        <v>85.4107622562</v>
       </c>
       <c r="AB69">
-        <v>0</v>
+        <v>76.4724742521</v>
       </c>
       <c r="AC69">
-        <v>0</v>
+        <v>1.0950472179</v>
       </c>
       <c r="AD69">
-        <v>0</v>
+        <v>24.5105144233</v>
       </c>
       <c r="AE69">
-        <v>0</v>
+        <v>46.5057401888</v>
       </c>
       <c r="AF69">
-        <v>0</v>
+        <v>70.9797245953</v>
       </c>
       <c r="AG69">
         <v>0</v>
@@ -7603,625 +7603,833 @@
     </row>
     <row r="70">
       <c r="A70">
-        <v>11415</v>
+        <v>202310</v>
       </c>
       <c r="B70">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C70">
-        <v>0</v>
+        <v>109</v>
       </c>
       <c r="D70">
-        <v>0</v>
+        <v>137</v>
       </c>
       <c r="E70">
-        <v>0</v>
+        <v>192</v>
       </c>
       <c r="F70">
-        <v>388</v>
+        <v>755</v>
       </c>
       <c r="G70">
-        <v>0</v>
+        <v>215</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>490</v>
       </c>
       <c r="I70">
-        <v>0</v>
+        <v>714</v>
       </c>
       <c r="J70">
-        <v>2116</v>
+        <v>208</v>
       </c>
       <c r="K70">
-        <v>2612</v>
+        <v>366</v>
       </c>
       <c r="L70">
-        <v>388</v>
+        <v>628</v>
       </c>
       <c r="M70">
-        <v>0</v>
+        <v>462</v>
       </c>
       <c r="N70">
-        <v>0</v>
+        <v>409</v>
       </c>
       <c r="O70">
-        <v>0</v>
+        <v>600</v>
       </c>
       <c r="P70">
-        <v>0</v>
+        <v>535</v>
       </c>
       <c r="Q70">
-        <v>0.8566952836443299</v>
+        <v>1.108100885083979</v>
       </c>
       <c r="R70">
-        <v>0.0279363200257732</v>
+        <v>0.3300137376845103</v>
       </c>
       <c r="S70">
-        <v>0</v>
+        <v>1389</v>
       </c>
       <c r="T70">
-        <v>0</v>
+        <v>665</v>
       </c>
       <c r="U70">
-        <v>0</v>
+        <v>214</v>
       </c>
       <c r="V70">
-        <v>388</v>
+        <v>348</v>
       </c>
       <c r="W70">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="X70">
-        <v>0</v>
+        <v>102</v>
       </c>
       <c r="Y70">
-        <v>2.2021893988e-05</v>
+        <v>0.0595094838029</v>
       </c>
       <c r="Z70">
-        <v>0</v>
+        <v>0.1024035445229662</v>
       </c>
       <c r="AA70">
-        <v>0.06606568196400001</v>
+        <v>178.5284514087</v>
       </c>
       <c r="AB70">
-        <v>0</v>
+        <v>142.2385233424</v>
       </c>
       <c r="AC70">
-        <v>0</v>
+        <v>26.9233680485</v>
       </c>
       <c r="AD70">
-        <v>0</v>
+        <v>52.376881969</v>
       </c>
       <c r="AE70">
-        <v>0</v>
+        <v>78.1632026851</v>
       </c>
       <c r="AF70">
-        <v>0</v>
+        <v>95.82696878260001</v>
       </c>
       <c r="AG70">
-        <v>0</v>
+        <v>119.295739353</v>
       </c>
       <c r="AH70">
-        <v>0</v>
+        <v>141.0301472726</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>11417</v>
+        <v>11419</v>
       </c>
       <c r="B71">
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="C71">
-        <v>202</v>
+        <v>0</v>
       </c>
       <c r="D71">
-        <v>181</v>
+        <v>0</v>
       </c>
       <c r="E71">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="F71">
-        <v>665</v>
+        <v>0</v>
       </c>
       <c r="G71">
-        <v>155</v>
+        <v>0</v>
       </c>
       <c r="H71">
-        <v>341</v>
+        <v>0</v>
       </c>
       <c r="I71">
-        <v>358</v>
+        <v>0</v>
       </c>
       <c r="J71">
-        <v>302</v>
+        <v>3000</v>
       </c>
       <c r="K71">
-        <v>671</v>
+        <v>3000</v>
       </c>
       <c r="L71">
-        <v>608</v>
+        <v>0</v>
       </c>
       <c r="M71">
-        <v>251</v>
+        <v>0</v>
       </c>
       <c r="N71">
-        <v>470</v>
+        <v>0</v>
       </c>
       <c r="O71">
-        <v>606</v>
+        <v>0</v>
       </c>
       <c r="P71">
-        <v>394</v>
+        <v>0</v>
       </c>
       <c r="Q71">
-        <v>1.010798294833147</v>
+        <v>0</v>
       </c>
       <c r="R71">
-        <v>0.2533186206711035</v>
+        <v>0</v>
       </c>
       <c r="S71">
-        <v>1246</v>
+        <v>0</v>
       </c>
       <c r="T71">
-        <v>238</v>
+        <v>0</v>
       </c>
       <c r="U71">
-        <v>242</v>
+        <v>0</v>
       </c>
       <c r="V71">
-        <v>601</v>
+        <v>0</v>
       </c>
       <c r="W71">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="X71">
-        <v>359</v>
+        <v>0</v>
       </c>
       <c r="Y71">
-        <v>0.051901830622</v>
+        <v>0</v>
       </c>
       <c r="Z71">
-        <v>0.1140169832407705</v>
+        <v>0</v>
       </c>
       <c r="AA71">
-        <v>155.705491866</v>
+        <v>0</v>
       </c>
       <c r="AB71">
-        <v>142.065161118</v>
+        <v>0</v>
       </c>
       <c r="AC71">
-        <v>35.947439122</v>
+        <v>0</v>
       </c>
       <c r="AD71">
-        <v>64.21761419000001</v>
+        <v>0</v>
       </c>
       <c r="AE71">
-        <v>86.913658161</v>
+        <v>0</v>
       </c>
       <c r="AF71">
-        <v>101.916427861</v>
+        <v>0</v>
       </c>
       <c r="AG71">
-        <v>107.917648646</v>
+        <v>0</v>
       </c>
       <c r="AH71">
-        <v>127.79899625</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>12070</v>
+        <v>11415</v>
       </c>
       <c r="B72">
-        <v>17</v>
+        <v>0</v>
       </c>
       <c r="C72">
-        <v>66</v>
+        <v>0</v>
       </c>
       <c r="D72">
-        <v>81</v>
+        <v>0</v>
       </c>
       <c r="E72">
-        <v>204</v>
+        <v>0</v>
       </c>
       <c r="F72">
-        <v>440</v>
+        <v>388</v>
       </c>
       <c r="G72">
-        <v>354</v>
+        <v>0</v>
       </c>
       <c r="H72">
-        <v>788</v>
+        <v>0</v>
       </c>
       <c r="I72">
-        <v>688</v>
+        <v>0</v>
       </c>
       <c r="J72">
-        <v>266</v>
+        <v>2116</v>
       </c>
       <c r="K72">
-        <v>362</v>
+        <v>2612</v>
       </c>
       <c r="L72">
-        <v>352</v>
+        <v>388</v>
       </c>
       <c r="M72">
-        <v>580</v>
+        <v>0</v>
       </c>
       <c r="N72">
-        <v>552</v>
+        <v>0</v>
       </c>
       <c r="O72">
-        <v>741</v>
+        <v>0</v>
       </c>
       <c r="P72">
-        <v>413</v>
+        <v>0</v>
       </c>
       <c r="Q72">
-        <v>1.164406503026384</v>
+        <v>0.8566952836443299</v>
       </c>
       <c r="R72">
-        <v>0.3726102596406368</v>
+        <v>0.0279363200257732</v>
       </c>
       <c r="S72">
-        <v>1310</v>
+        <v>0</v>
       </c>
       <c r="T72">
-        <v>850</v>
+        <v>0</v>
       </c>
       <c r="U72">
-        <v>95</v>
+        <v>0</v>
       </c>
       <c r="V72">
-        <v>372</v>
+        <v>388</v>
       </c>
       <c r="W72">
-        <v>11</v>
+        <v>0</v>
       </c>
       <c r="X72">
-        <v>125</v>
+        <v>0</v>
       </c>
       <c r="Y72">
-        <v>0.062181468673</v>
+        <v>2.2021893988e-05</v>
       </c>
       <c r="Z72">
-        <v>0.1033076172</v>
+        <v>0</v>
       </c>
       <c r="AA72">
-        <v>186.544406019</v>
+        <v>0.06606568196400001</v>
       </c>
       <c r="AB72">
-        <v>135.332978532</v>
+        <v>0</v>
       </c>
       <c r="AC72">
-        <v>27.371465134</v>
+        <v>0</v>
       </c>
       <c r="AD72">
-        <v>52.356568712</v>
+        <v>0</v>
       </c>
       <c r="AE72">
-        <v>77.9781933</v>
+        <v>0</v>
       </c>
       <c r="AF72">
-        <v>101.903279745</v>
+        <v>0</v>
       </c>
       <c r="AG72">
-        <v>123.107824233</v>
+        <v>0</v>
       </c>
       <c r="AH72">
-        <v>137.905860639</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>12069</v>
+        <v>11417</v>
       </c>
       <c r="B73">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C73">
-        <v>46</v>
+        <v>202</v>
       </c>
       <c r="D73">
-        <v>76</v>
+        <v>181</v>
       </c>
       <c r="E73">
-        <v>57</v>
+        <v>406</v>
       </c>
       <c r="F73">
-        <v>629</v>
+        <v>665</v>
       </c>
       <c r="G73">
-        <v>80</v>
+        <v>155</v>
       </c>
       <c r="H73">
-        <v>167</v>
+        <v>341</v>
       </c>
       <c r="I73">
-        <v>120</v>
+        <v>358</v>
       </c>
       <c r="J73">
-        <v>1766</v>
+        <v>302</v>
       </c>
       <c r="K73">
-        <v>1815</v>
+        <v>671</v>
       </c>
       <c r="L73">
-        <v>581</v>
+        <v>608</v>
       </c>
       <c r="M73">
-        <v>139</v>
+        <v>251</v>
       </c>
       <c r="N73">
-        <v>192</v>
+        <v>470</v>
       </c>
       <c r="O73">
-        <v>169</v>
+        <v>606</v>
       </c>
       <c r="P73">
-        <v>104</v>
+        <v>394</v>
       </c>
       <c r="Q73">
-        <v>0.9856517652212659</v>
+        <v>1.010798294833147</v>
       </c>
       <c r="R73">
-        <v>0.2160462492025317</v>
+        <v>0.2533186206711035</v>
       </c>
       <c r="S73">
-        <v>552</v>
+        <v>1246</v>
       </c>
       <c r="T73">
-        <v>99</v>
+        <v>238</v>
       </c>
       <c r="U73">
-        <v>62</v>
+        <v>242</v>
       </c>
       <c r="V73">
-        <v>471</v>
+        <v>601</v>
       </c>
       <c r="W73">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="X73">
-        <v>12</v>
+        <v>359</v>
       </c>
       <c r="Y73">
-        <v>0.02638500274793667</v>
+        <v>0.051901830622</v>
       </c>
       <c r="Z73">
-        <v>0.1280770227355073</v>
+        <v>0.1140169832407705</v>
       </c>
       <c r="AA73">
-        <v>79.15500824381</v>
+        <v>155.705491866</v>
       </c>
       <c r="AB73">
-        <v>70.69851654999999</v>
+        <v>142.065161118</v>
       </c>
       <c r="AC73">
-        <v>34.634018101</v>
+        <v>35.947439122</v>
       </c>
       <c r="AD73">
-        <v>65.970035173</v>
+        <v>64.21761419000001</v>
       </c>
       <c r="AE73">
-        <v>0</v>
+        <v>86.913658161</v>
       </c>
       <c r="AF73">
-        <v>0</v>
+        <v>101.916427861</v>
       </c>
       <c r="AG73">
-        <v>0</v>
+        <v>107.917648646</v>
       </c>
       <c r="AH73">
-        <v>0</v>
+        <v>127.79899625</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>202309</v>
+        <v>12070</v>
       </c>
       <c r="B74">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="C74">
-        <v>7</v>
+        <v>66</v>
       </c>
       <c r="D74">
-        <v>4</v>
+        <v>81</v>
       </c>
       <c r="E74">
-        <v>0</v>
+        <v>204</v>
       </c>
       <c r="F74">
-        <v>1767</v>
+        <v>440</v>
       </c>
       <c r="G74">
-        <v>27</v>
+        <v>354</v>
       </c>
       <c r="H74">
-        <v>31</v>
+        <v>788</v>
       </c>
       <c r="I74">
-        <v>60</v>
+        <v>688</v>
       </c>
       <c r="J74">
-        <v>1036</v>
+        <v>266</v>
       </c>
       <c r="K74">
-        <v>1100</v>
+        <v>362</v>
       </c>
       <c r="L74">
-        <v>1766</v>
+        <v>352</v>
       </c>
       <c r="M74">
-        <v>19</v>
+        <v>580</v>
       </c>
       <c r="N74">
-        <v>38</v>
+        <v>552</v>
       </c>
       <c r="O74">
-        <v>41</v>
+        <v>741</v>
       </c>
       <c r="P74">
-        <v>36</v>
+        <v>413</v>
       </c>
       <c r="Q74">
-        <v>0.8767911432329474</v>
+        <v>1.164406503026384</v>
       </c>
       <c r="R74">
-        <v>0.07115432117789473</v>
+        <v>0.3726102596406368</v>
       </c>
       <c r="S74">
-        <v>162</v>
+        <v>1310</v>
       </c>
       <c r="T74">
-        <v>17</v>
+        <v>850</v>
       </c>
       <c r="U74">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="V74">
-        <v>1715</v>
+        <v>372</v>
       </c>
       <c r="W74">
-        <v>2</v>
+        <v>11</v>
       </c>
       <c r="X74">
-        <v>12</v>
+        <v>125</v>
       </c>
       <c r="Y74">
-        <v>0.004957337164945667</v>
+        <v>0.062181468673</v>
       </c>
       <c r="Z74">
-        <v>0.08255573728395062</v>
+        <v>0.1033076172</v>
       </c>
       <c r="AA74">
-        <v>14.872011494837</v>
+        <v>186.544406019</v>
       </c>
       <c r="AB74">
-        <v>13.37402944</v>
+        <v>135.332978532</v>
       </c>
       <c r="AC74">
-        <v>0</v>
+        <v>27.371465134</v>
       </c>
       <c r="AD74">
-        <v>0</v>
+        <v>52.356568712</v>
       </c>
       <c r="AE74">
-        <v>0</v>
+        <v>77.9781933</v>
       </c>
       <c r="AF74">
-        <v>0</v>
+        <v>101.903279745</v>
       </c>
       <c r="AG74">
-        <v>0</v>
+        <v>123.107824233</v>
       </c>
       <c r="AH74">
-        <v>0</v>
+        <v>137.905860639</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
+        <v>12069</v>
+      </c>
+      <c r="B75">
+        <v>10</v>
+      </c>
+      <c r="C75">
+        <v>46</v>
+      </c>
+      <c r="D75">
+        <v>76</v>
+      </c>
+      <c r="E75">
+        <v>57</v>
+      </c>
+      <c r="F75">
+        <v>629</v>
+      </c>
+      <c r="G75">
+        <v>80</v>
+      </c>
+      <c r="H75">
+        <v>167</v>
+      </c>
+      <c r="I75">
+        <v>120</v>
+      </c>
+      <c r="J75">
+        <v>1766</v>
+      </c>
+      <c r="K75">
+        <v>1815</v>
+      </c>
+      <c r="L75">
+        <v>581</v>
+      </c>
+      <c r="M75">
+        <v>139</v>
+      </c>
+      <c r="N75">
+        <v>192</v>
+      </c>
+      <c r="O75">
+        <v>169</v>
+      </c>
+      <c r="P75">
+        <v>104</v>
+      </c>
+      <c r="Q75">
+        <v>0.9856517652212659</v>
+      </c>
+      <c r="R75">
+        <v>0.2160462492025317</v>
+      </c>
+      <c r="S75">
+        <v>552</v>
+      </c>
+      <c r="T75">
+        <v>99</v>
+      </c>
+      <c r="U75">
+        <v>62</v>
+      </c>
+      <c r="V75">
+        <v>471</v>
+      </c>
+      <c r="W75">
+        <v>1</v>
+      </c>
+      <c r="X75">
+        <v>12</v>
+      </c>
+      <c r="Y75">
+        <v>0.02638500274793667</v>
+      </c>
+      <c r="Z75">
+        <v>0.1280770227355073</v>
+      </c>
+      <c r="AA75">
+        <v>79.15500824381</v>
+      </c>
+      <c r="AB75">
+        <v>70.69851654999999</v>
+      </c>
+      <c r="AC75">
+        <v>34.634018101</v>
+      </c>
+      <c r="AD75">
+        <v>65.970035173</v>
+      </c>
+      <c r="AE75">
+        <v>0</v>
+      </c>
+      <c r="AF75">
+        <v>0</v>
+      </c>
+      <c r="AG75">
+        <v>0</v>
+      </c>
+      <c r="AH75">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76">
+        <v>202309</v>
+      </c>
+      <c r="B76">
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <v>7</v>
+      </c>
+      <c r="D76">
+        <v>4</v>
+      </c>
+      <c r="E76">
+        <v>0</v>
+      </c>
+      <c r="F76">
+        <v>1767</v>
+      </c>
+      <c r="G76">
+        <v>27</v>
+      </c>
+      <c r="H76">
+        <v>31</v>
+      </c>
+      <c r="I76">
+        <v>60</v>
+      </c>
+      <c r="J76">
+        <v>1036</v>
+      </c>
+      <c r="K76">
+        <v>1100</v>
+      </c>
+      <c r="L76">
+        <v>1766</v>
+      </c>
+      <c r="M76">
+        <v>19</v>
+      </c>
+      <c r="N76">
+        <v>38</v>
+      </c>
+      <c r="O76">
+        <v>41</v>
+      </c>
+      <c r="P76">
+        <v>36</v>
+      </c>
+      <c r="Q76">
+        <v>0.8767911432329474</v>
+      </c>
+      <c r="R76">
+        <v>0.07115432117789473</v>
+      </c>
+      <c r="S76">
+        <v>162</v>
+      </c>
+      <c r="T76">
+        <v>17</v>
+      </c>
+      <c r="U76">
+        <v>4</v>
+      </c>
+      <c r="V76">
+        <v>1715</v>
+      </c>
+      <c r="W76">
+        <v>2</v>
+      </c>
+      <c r="X76">
+        <v>12</v>
+      </c>
+      <c r="Y76">
+        <v>0.004957337164945667</v>
+      </c>
+      <c r="Z76">
+        <v>0.08255573728395062</v>
+      </c>
+      <c r="AA76">
+        <v>14.872011494837</v>
+      </c>
+      <c r="AB76">
+        <v>13.37402944</v>
+      </c>
+      <c r="AC76">
+        <v>0</v>
+      </c>
+      <c r="AD76">
+        <v>0</v>
+      </c>
+      <c r="AE76">
+        <v>0</v>
+      </c>
+      <c r="AF76">
+        <v>0</v>
+      </c>
+      <c r="AG76">
+        <v>0</v>
+      </c>
+      <c r="AH76">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77">
         <v>12071</v>
       </c>
-      <c r="B75">
+      <c r="B77">
         <v>28</v>
       </c>
-      <c r="C75">
+      <c r="C77">
         <v>165</v>
       </c>
-      <c r="D75">
+      <c r="D77">
         <v>125</v>
       </c>
-      <c r="E75">
+      <c r="E77">
         <v>246</v>
       </c>
-      <c r="F75">
+      <c r="F77">
         <v>339</v>
       </c>
-      <c r="G75">
+      <c r="G77">
         <v>252</v>
       </c>
-      <c r="H75">
+      <c r="H77">
         <v>585</v>
       </c>
-      <c r="I75">
+      <c r="I77">
         <v>483</v>
       </c>
-      <c r="J75">
+      <c r="J77">
         <v>371</v>
       </c>
-      <c r="K75">
+      <c r="K77">
         <v>777</v>
       </c>
-      <c r="L75">
+      <c r="L77">
         <v>276</v>
       </c>
-      <c r="M75">
+      <c r="M77">
         <v>437</v>
       </c>
-      <c r="N75">
+      <c r="N77">
         <v>502</v>
       </c>
-      <c r="O75">
+      <c r="O77">
         <v>699</v>
       </c>
-      <c r="P75">
+      <c r="P77">
         <v>309</v>
       </c>
-      <c r="Q75">
+      <c r="Q77">
         <v>1.115940357567431</v>
       </c>
-      <c r="R75">
+      <c r="R77">
         <v>0.357009343071525</v>
       </c>
-      <c r="S75">
+      <c r="S77">
         <v>1427</v>
       </c>
-      <c r="T75">
+      <c r="T77">
         <v>490</v>
       </c>
-      <c r="U75">
+      <c r="U77">
         <v>114</v>
       </c>
-      <c r="V75">
+      <c r="V77">
         <v>187</v>
       </c>
-      <c r="W75">
+      <c r="W77">
         <v>5</v>
       </c>
-      <c r="X75">
+      <c r="X77">
         <v>115</v>
       </c>
-      <c r="Y75">
+      <c r="Y77">
         <v>0.06347816744133333</v>
       </c>
-      <c r="Z75">
+      <c r="Z77">
         <v>0.1100214333721093</v>
       </c>
-      <c r="AA75">
+      <c r="AA77">
         <v>190.434502324</v>
       </c>
-      <c r="AB75">
+      <c r="AB77">
         <v>157.000585422</v>
       </c>
-      <c r="AC75">
+      <c r="AC77">
         <v>26.338606439</v>
       </c>
-      <c r="AD75">
+      <c r="AD77">
         <v>56.209735733</v>
       </c>
-      <c r="AE75">
+      <c r="AE77">
         <v>80.57376613700001</v>
       </c>
-      <c r="AF75">
+      <c r="AF77">
         <v>106.924648905</v>
       </c>
-      <c r="AG75">
+      <c r="AG77">
         <v>138.208306918</v>
       </c>
-      <c r="AH75">
+      <c r="AH77">
         <v>158.930296279</v>
       </c>
     </row>
